--- a/templates/ermin-specification.xlsx
+++ b/templates/ermin-specification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danknights/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danknights/Dropbox/research/ermin/repo/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8378E235-72A9-1748-877F-7B3D5574A40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE83AB3-B1E1-BB49-90B4-23B08CCAB7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,9 +498,6 @@
     <t>variance_type</t>
   </si>
   <si>
-    <t>Type of variance reported in "variance", using abbreviation when known, such as root-mean-squared error (RMSE), mean absolute error (MAE), normalized root-mean-squared-error (NRMSE), mean absolute percentage error (MAPE), standard deviation (SD), histogram (HIST). Can also be a confidence interval, specificed as CIXX or CIXX.X, e.g. CI95 for a 95% confidence interval, or CI66.7 for a 66.7% confidence interval.</t>
-  </si>
-  <si>
     <t>accuracy type</t>
   </si>
   <si>
@@ -643,6 +640,9 @@
   </si>
   <si>
     <t xml:space="preserve">Expected variance in estimate of emissions data reported. Leave this as NA unless you are using a method that is specifically designed to estimate variance in an emissions report. This can use any form of variance or error estimation, such as root-mean-squared error, mean absolute error, normalized root-mean-squared-error, mean absolute percentage error, standard deviation, confidence interval, or even a histogram. Use the field "variance_type" to describe the type of variance. Use the field "variance_method" to describe the method used to calculate this. Can be a confidence interval specified with (lower, upper). To accomodate probabilistic models, can be a histogram table representing a discretized distribution over possible values with any level of granularity, in the format "(start,end]:count,(start,end]:count,..." or "[start,end):count,[start,end):count,...". For the histogram type, count values can be integer counts or fractions, a parenthesis specifies an open (non-inclusive) end of an interval, and a square bracket specifies a closed (inclusive) end of an interval. </t>
+  </si>
+  <si>
+    <t>Official name(s) of UNFCC ANNEX 1 categories covered in this emissions report. If multiple categories included, use comman-separated list. Use the least specific category or categories that describe(s) all of the reported emissions and only the reported e</t>
   </si>
 </sst>
 </file>
@@ -2002,7 +2002,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2728,7 +2728,7 @@
         <v>24</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>136</v>
@@ -2756,25 +2756,25 @@
         <v>25</v>
       </c>
       <c r="E26" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="G26" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="H26" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>143</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>25</v>
@@ -2784,7 +2784,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>132</v>
@@ -2795,12 +2795,12 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>25</v>
@@ -2810,37 +2810,37 @@
         <v>27</v>
       </c>
       <c r="E28" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="G28" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="H28" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>152</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="12.75" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D29" s="8">
         <v>28</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>132</v>
@@ -2849,16 +2849,16 @@
         <v>15</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>25</v>
@@ -2868,10 +2868,10 @@
         <v>29</v>
       </c>
       <c r="E30" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>15</v>
@@ -2881,12 +2881,12 @@
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>25</v>
@@ -2896,25 +2896,25 @@
         <v>30</v>
       </c>
       <c r="E31" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="G31" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="H31" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>166</v>
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>25</v>
@@ -2924,37 +2924,37 @@
         <v>31</v>
       </c>
       <c r="E32" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>80</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D33" s="8">
         <v>32</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>132</v>
@@ -2963,16 +2963,16 @@
         <v>15</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>25</v>
@@ -2982,7 +2982,7 @@
         <v>33</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>32</v>
@@ -2991,16 +2991,16 @@
         <v>33</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>25</v>
@@ -3010,37 +3010,37 @@
         <v>34</v>
       </c>
       <c r="E35" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>183</v>
-      </c>
       <c r="G35" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H35" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>166</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D36" s="8">
         <v>35</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>132</v>
@@ -3051,7 +3051,7 @@
       <c r="H36" s="10"/>
       <c r="I36" s="11"/>
       <c r="J36" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1">

--- a/templates/ermin-specification.xlsx
+++ b/templates/ermin-specification.xlsx
@@ -1,57 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danknights/Dropbox/research/ermin/repo/templates/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE83AB3-B1E1-BB49-90B4-23B08CCAB7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="ERMIN" sheetId="2" r:id="rId2"/>
+    <sheet state="visible" name="README" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="ERMIN" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ERMIN!$A$1:$J$59</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">ERMIN!$A$1:$J$62</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mj0WU5UXyuxzVA0Iq/BccH15yxECA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mh/DzLVbqvgrHWnje19SHEBDHXXfQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment authorId="0" ref="G2">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Sans"/>
-          </rPr>
-          <t>======
+        <t xml:space="preserve">======
 ID#AAAAVpaSKBw
 Dan Knights    (2022-03-09 17:05:39)
 fix</t>
-        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion1">
+    <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgVnbu4CUBgBXe80VIvxDdnmgjgJQ=="/>
     </ext>
   </extLst>
@@ -59,10 +42,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="189">
-  <si>
-    <t>The ERMIN checklist
-Simple instructions and checklist for completing the template.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="200">
+  <si>
+    <t>Special instructions may be included here.</t>
   </si>
   <si>
     <t>Structured name</t>
@@ -119,13 +101,13 @@
     <t>unfccc_annex_1_category</t>
   </si>
   <si>
-    <t>Official name(s) of UNFCC ANNEX 1 categories covered in this emissions report. If multiple categories included, use comman-separated list. Use the least specific category or categories that describe(s) all of the reported emissions and only the reported emissions. For example, if describing domestic aviation, road transportation, cars, light duty trucks, then enter "1.A.3.a  Domestic Aviation, 1.A.3.b  Road Transportation, 1.A.3.b.i  Cars, 1.A.3.b.ii  Light Duty Trucks" (spaces acceptable between items), instead of "1.A.3  Transport", which would be too general. However, if reporting for all categories of transport, including "1.A.3.e Other Transportation", then report only "1.A.3 Transport". (link to be added)</t>
+    <t>Official name(s) of UNFCCC ANNEX 1 categories covered in this emissions report. If multiple categories included, use comman-separated list. Use the least specific category or categories that describe(s) all of the reported emissions and only the reported emissions. For example, if describing domestic aviation, road transportation, cars, light duty trucks, then enter "1.A.3.a  Domestic Aviation, 1.A.3.b  Road Transportation, 1.A.3.b.i  Cars, 1.A.3.b.ii  Light Duty Trucks" (spaces acceptable between items), instead of "1.A.3  Transport", which would be too general. However, if reporting for all categories of transport, including "1.A.3.e Other Transportation", then report only "1.A.3 Transport". (link to be added)</t>
   </si>
   <si>
     <t>category list</t>
   </si>
   <si>
-    <t>{text, text, ...}</t>
+    <t>{unfccc_cat},...</t>
   </si>
   <si>
     <t>1.A.3.a  Domestic Aviation, 1.A.3.b  Road Transportation, 1.A.3.b.i  Cars, 1.A.3.b.ii  Light Duty Trucks</t>
@@ -140,7 +122,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>Notes/caveats regarding UNFCC ANNEX 1 category description</t>
+    <t>Notes/caveats regarding UNFCCC ANNEX 1 category description</t>
   </si>
   <si>
     <t>notes</t>
@@ -161,7 +143,7 @@
     <t>DOI or URL</t>
   </si>
   <si>
-    <t>[DOI:{DOI}|URL:{URL}]</t>
+    <t>[{doi}|{url}]</t>
   </si>
   <si>
     <t>DOI:10.17485/ijst/2016/v9i38/95032</t>
@@ -173,21 +155,48 @@
     <t>producing_entity_name</t>
   </si>
   <si>
-    <t>Name of the entity or asset that produced the emissions. For example, for emissions from a ship, the entity would be the ship. Emissions from a power plant would be attributed to that power plant. Countries should be specified using the 2-letter or 3-letter ISO code for that country (souce TBD). If not a country, but a geopolitical entity, use "Preferred Name" of the geographic entity from the GAZ ontology (v 1.512) (http://purl.bioontology.org/ontology/GAZ). Spatially described emissions, such as those described by an atmospheric observation, would enter NA for not applicable.</t>
+    <t>Name of the entity or asset that produced the emissions. For example, for emissions from a ship, the entity would be the ship. Emissions from a power plant would be attributed to that power plant. Countries should be specified using the 3-letter ISO code for that country (https://www.iban.com/country-codes). If not a country, but a geopolitical entity, use "Preferred Name" of the geographic entity from the GAZ ontology (v 1.512) (http://purl.bioontology.org/ontology/GAZ). Spatially described emissions, such as those described by an atmospheric observation, would enter NA for not applicable.</t>
   </si>
   <si>
     <t>preferred name of entity or NA</t>
   </si>
   <si>
-    <t>[{text}|NA]</t>
-  </si>
-  <si>
     <t>French Republic</t>
   </si>
   <si>
     <t>ERMIN:0000005</t>
   </si>
   <si>
+    <t>producing_entity_id</t>
+  </si>
+  <si>
+    <t>A unique identifier of the physical entity producing the emissions. For a ship, this would be the IMO Number of the ship; for a farm, unique name and location of the farm; for a city, the name, state, and country of the city; for a corporation, the legal name and country of the corporation; for a power plant, the unique name and location of the power plant. This may be assigned optionally by the reporting entity in such a way that it will be unique, identifiable, and stable over time. This could be used to store a unique identifier that is used internally by the reporting entity. Future versions may include further specifications of how to derive an identifier. For example, use GAZ identifier for a geographic entity from the GAZ ontology (v 1.512) (http://purl.bioontology.org/ontology/GAZ), e.g. GAZ_00002940 for France.</t>
+  </si>
+  <si>
+    <t>unique identifier</t>
+  </si>
+  <si>
+    <t>GAZ_00002940</t>
+  </si>
+  <si>
+    <t>ERMIN:0000023</t>
+  </si>
+  <si>
+    <t>producing_entity_id_type</t>
+  </si>
+  <si>
+    <t>A description of how the field "producing_entity_id" was assigned. For example, if using the GAZ ontology, state "GAZ ontology"; for an internal identifier, state, "internal identifier"; for an iso3_country code, "iso3_country"</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>GAZ ontology</t>
+  </si>
+  <si>
+    <t>ERMIN:0000024</t>
+  </si>
+  <si>
     <t>reporting_entity</t>
   </si>
   <si>
@@ -200,7 +209,7 @@
     <t>EDGAR</t>
   </si>
   <si>
-    <t>ERMIN:0000006</t>
+    <t>ERMIN:0000007</t>
   </si>
   <si>
     <t>emitted_product_formula</t>
@@ -218,7 +227,7 @@
     <t>CO2</t>
   </si>
   <si>
-    <t>ERMIN:0000007</t>
+    <t>ERMIN:0000008</t>
   </si>
   <si>
     <t>emission_quantity</t>
@@ -230,13 +239,13 @@
     <t>quantity of GHG emissions</t>
   </si>
   <si>
-    <t>[{float}|NA]</t>
+    <t>[{float}|NULL]</t>
   </si>
   <si>
     <t>2000</t>
   </si>
   <si>
-    <t>ERMIN:0000008</t>
+    <t>ERMIN:0000009</t>
   </si>
   <si>
     <t>emission_quantity_units</t>
@@ -251,7 +260,7 @@
     <t>kg</t>
   </si>
   <si>
-    <t>ERMIN:0000009</t>
+    <t>ERMIN:0000010</t>
   </si>
   <si>
     <t>carbon_equivalency_method</t>
@@ -272,25 +281,31 @@
     <t>20-year</t>
   </si>
   <si>
-    <t>ERMIN:0000010</t>
-  </si>
-  <si>
-    <t>emissions_timestamp</t>
-  </si>
-  <si>
-    <t>The time using Coordinated Universal Time (UTC) of emissions, either as an instance (single point in time) or interval. In case no exact time is available, or in case the emissions pertain to a period of time, the date/time can be right truncated i.e. all of these are valid times: 2008-01-23T19:23:10+00:00; 2008-01-23T19:23:10; 2008-01-23; 2008-01; 2008; Except: 2008-01; 2008 all are ISO8601 compliant. Interval can be specified with (time1, time2). For example, the entries "(2008-03-01, 2008-03-31)" and "2008-03" describe the same time period (all of the month of March, 2008, except that the former explicitly indicates that it refers to the entire interval of the month while the latter could also be used if the specific days are not known within the month).</t>
+    <t>ERMIN:0000011</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>The start time using Coordinated Universal Time (UTC) of emissions, as a single point in time. In case no exact time is available, or in case the emissions pertain to a period of time, the date/time can be right truncated i.e. all of these are valid times: 2008-01-23T19:23:10+00:00; 2008-01-23T19:23:10; 2008-01-23; 2008-01; 2008; Except: 2008-01; 2008 all are ISO8601 compliant. If end_time is omitted, time is understood to cover the duration of the period defined by start_time. For example, if start_time is 2008-01 and end_time is omitted, then the time is understood to cover the entire month of January, 2008.</t>
   </si>
   <si>
     <t>date and time or interval</t>
   </si>
   <si>
-    <t>{timestamp|(timestamp,timestamp)}</t>
+    <t>{timestamp}</t>
   </si>
   <si>
     <t>2018-01</t>
   </si>
   <si>
-    <t>ERMIN:0000011</t>
+    <t>ERMIN:0000012</t>
+  </si>
+  <si>
+    <t>end_time</t>
+  </si>
+  <si>
+    <t>The end time, inclusive, using Coordinated Universal Time (UTC) of emissions, as a single point in time. Follows format of "start_time". May be omitted. See "start_time" definition.</t>
   </si>
   <si>
     <t>data_version</t>
@@ -308,7 +323,7 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>ERMIN:0000012</t>
+    <t>ERMIN:0000013</t>
   </si>
   <si>
     <t>data_version_changelog</t>
@@ -320,7 +335,7 @@
     <t>change log</t>
   </si>
   <si>
-    <t>ERMIN:0000013</t>
+    <t>ERMIN:0000014</t>
   </si>
   <si>
     <t>reporting_timestamp</t>
@@ -332,16 +347,13 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>{timestamp}</t>
-  </si>
-  <si>
     <t>2022-03-03 19:23</t>
   </si>
   <si>
     <t>If empty, auto-fill with timestamp of data validation.</t>
   </si>
   <si>
-    <t>ERMIN:0000014</t>
+    <t>ERMIN:0000015</t>
   </si>
   <si>
     <t>capacity</t>
@@ -349,18 +361,18 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">Capacity of the entity producing the emissions, not including units. This has different interpretations in different sectors. When in doubt of the most natural choice of capacity and activity units, start with the most natural emissions_factor (e.g. kg CO2 per nautical mile, or kg CO2 per acre of forest burned, or kg CO2 per day per head of cattle), and work backwards to find a sensible choice for capacity and activity units. See here for known definitions: </t>
     </r>
     <r>
       <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <sz val="10.0"/>
         <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
       </rPr>
       <t>https://docs.google.com/spreadsheets/d/1CoYHj2IEvBUaokWtl65ncRAlzGyzT4EFK74VDISZ_8Y/edit#gid=1250881742</t>
     </r>
@@ -369,7 +381,7 @@
     <t>40</t>
   </si>
   <si>
-    <t>ERMIN:0000015</t>
+    <t>ERMIN:0000016</t>
   </si>
   <si>
     <t>capacity_units</t>
@@ -381,7 +393,7 @@
     <t>kw</t>
   </si>
   <si>
-    <t>ERMIN:0000016</t>
+    <t>ERMIN:0000017</t>
   </si>
   <si>
     <t>activity</t>
@@ -393,7 +405,7 @@
     <t>250.25</t>
   </si>
   <si>
-    <t>ERMIN:0000017</t>
+    <t>ERMIN:0000018</t>
   </si>
   <si>
     <t>activity_units</t>
@@ -405,7 +417,7 @@
     <t>h</t>
   </si>
   <si>
-    <t>ERMIN:0000018</t>
+    <t>ERMIN:0000019</t>
   </si>
   <si>
     <t>emissions_factor</t>
@@ -420,7 +432,7 @@
     <t>1.25</t>
   </si>
   <si>
-    <t>ERMIN:0000019</t>
+    <t>ERMIN:0000020</t>
   </si>
   <si>
     <t>emissions_factor_units</t>
@@ -432,7 +444,7 @@
     <t>kwh</t>
   </si>
   <si>
-    <t>ERMIN:0000020</t>
+    <t>ERMIN:0000021</t>
   </si>
   <si>
     <t>lat_lon</t>
@@ -444,70 +456,73 @@
     <t>WKT-formatted vector geometry using lat/long</t>
   </si>
   <si>
-    <t>POINT (float, float)|POLYGON ((float, float, float, …))|MULTIPOLYGON (((float, float, float, …)), ((float, float, float, …)), …)</t>
+    <t>{wkt}</t>
   </si>
   <si>
     <t>POINT (50.586825 6.408977)</t>
   </si>
   <si>
-    <t>ERMIN:0000021</t>
-  </si>
-  <si>
-    <t>producing_entity_id</t>
-  </si>
-  <si>
-    <t>A unique identifier of the physical entity producing the emissions. For a ship, this would be the IMO Number of the ship; for a farm, unique name and location of the farm; for a city, the name, state, and country of the city; for a corporation, the legal name and country of the corporation; for a power plant, the unique name and location of the power plant. This may be assigned optionally by the reporting entity in such a way that it will be unique, identifiable, and stable over time. This could be used to store a unique identifier that is used internally by the reporting entity. Future versions may include further specifications of how to derive an identifier. For example, use GAZ identifier for a geographic entity from the GAZ ontology (v 1.512) (http://purl.bioontology.org/ontology/GAZ), e.g. GAZ_00002940 for France.</t>
-  </si>
-  <si>
-    <t>unique identifier</t>
-  </si>
-  <si>
-    <t>GAZ_00002940</t>
-  </si>
-  <si>
     <t>ERMIN:0000022</t>
   </si>
   <si>
-    <t>producing_entity_id_description</t>
-  </si>
-  <si>
-    <t>A description of how the field "producing_entity_id" was assigned. For example, if using the GAZ ontology, state "GAZ ontology", for an internal identifier, state, "internal identifier".</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>GAZ ontology</t>
-  </si>
-  <si>
-    <t>ERMIN:0000023</t>
+    <t>confidence_tier</t>
+  </si>
+  <si>
+    <t>From UNFCCC (https://unfccc.int/resource/docs/publications/09_resource_guide3.pdf): "Tier 1 methods typically utilize IPCC default emission factors and require the most basic, and least disaggregated, activity data. Higher tiers usually utilize more elaborate methods and source-specific, technology-specific, regionspecific and/or country-specific emission factors, which are often based on measurements, and normally require more highly disaggregated activity data. Tier 2 and 3 methods require more detailed data and/or measurements for their application. In cases where a national methodology exists, which is consistent with the IPCC Guidelines, it is highly advisable to use the national methodology. This methodology should be fully documented in order to allow the reader to understand why this particular method is better than the default one proposed by the IPCC." Generally, Tier 3 refers to nationally or internationally accepted methodologies, Tier 2 refers to data measured independently using a well-documented methodology with at least some published validation of the methodology, and Tier 1 refers to self-reported data, data expected to have substantial noise or error, data produced without documented methodologies, or data whose validity is otherwise suspect.</t>
+  </si>
+  <si>
+    <t>confidence tier</t>
+  </si>
+  <si>
+    <t>[1|2|3]</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ERMIN:0000025</t>
+  </si>
+  <si>
+    <t>confidence_tier_description</t>
+  </si>
+  <si>
+    <t>Description of why a given tier was chosen for "confidence_tier"</t>
+  </si>
+  <si>
+    <t>ERMIN:0000026</t>
   </si>
   <si>
     <t>variance</t>
   </si>
   <si>
+    <t xml:space="preserve">Expected variance in estimate of emissions data reported. Leave this as NA unless you are using a method that is specifically designed to estimate variance in an emissions report. This can use any form of variance or error estimation, such as root-mean-squared error, mean absolute error, normalized root-mean-squared-error, mean absolute percentage error, standard deviation, confidence interval, or even a histogram. Use the field "variance_type" to describe the type of variance. Use the field "variance_method" to describe the method used to calculate this. Can be a confidence interval specified with (lower, upper). To accomodate probabilistic models, can be a histogram table representing a discretized distribution over possible values with any level of granularity, in the format "(start,end]:count,(start,end]:count,..." or "[start,end):count,[start,end):count,...". For the histogram type, count values can be integer counts or fractions, a parenthesis specifies an open (non-inclusive) end of an interval, and a square bracket specifies a closed (inclusive) end of an interval. </t>
+  </si>
+  <si>
     <t>accuracy</t>
   </si>
   <si>
     <t>0.9</t>
   </si>
   <si>
-    <t>ERMIN:0000024</t>
+    <t>ERMIN:0000027</t>
   </si>
   <si>
     <t>variance_type</t>
   </si>
   <si>
+    <t>Type of variance reported in "variance", using abbreviation when known, such as root-mean-squared error (RMSE), mean absolute error (MAE), normalized root-mean-squared-error (NRMSE), mean absolute percentage error (MAPE), standard deviation (SD), histogram (HIST). Can also be a confidence interval, specificed as CIXX or CIXX.X, e.g. CI95 for a 95% confidence interval, or CI66.7 for a 66.7% confidence interval.</t>
+  </si>
+  <si>
     <t>accuracy type</t>
   </si>
   <si>
-    <t>[RMSE|NRMSE|MAE|MAPE|SD|HIST|CI{float}|{text}]</t>
+    <t>[RMSE|NRMSE|MAE|MAPE|SD|HIST|CI{float}|other]</t>
   </si>
   <si>
     <t>CI66.7</t>
   </si>
   <si>
-    <t>ERMIN:0000025</t>
+    <t>ERMIN:0000028</t>
   </si>
   <si>
     <t>variance_method</t>
@@ -516,7 +531,7 @@
     <t>Description of method used to estimate "variance". Include URL or DOI if applicable.</t>
   </si>
   <si>
-    <t>ERMIN:0000026</t>
+    <t>ERMIN:0000029</t>
   </si>
   <si>
     <t>emitted_product_name</t>
@@ -534,7 +549,7 @@
     <t>carbon_dioxide</t>
   </si>
   <si>
-    <t>ERMIN:0000027</t>
+    <t>ERMIN:0000030</t>
   </si>
   <si>
     <t>other_emitted_product_description</t>
@@ -546,7 +561,7 @@
     <t>other hydroflourocarbons</t>
   </si>
   <si>
-    <t>ERMIN:0000028</t>
+    <t>ERMIN:0000031</t>
   </si>
   <si>
     <t>responsible_entity_name</t>
@@ -558,25 +573,25 @@
     <t>name</t>
   </si>
   <si>
-    <t>ERMIN:0000029</t>
+    <t>ERMIN:0000032</t>
   </si>
   <si>
     <t>unfccc_annex_1_category_is_subset</t>
   </si>
   <si>
-    <t>Indicate yes/no if this report is expected to cover a subset of the unfcc_annex_1_category indicated.</t>
+    <t>Indicate TRUE/FALSE if this report is expected to cover a subset of the unfcc_annex_1_category indicated.</t>
   </si>
   <si>
     <t>yes/no</t>
   </si>
   <si>
-    <t>[yes|no]</t>
+    <t>[TRUE|FALSE]</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>ERMIN:0000030</t>
+    <t>ERMIN:0000033</t>
   </si>
   <si>
     <t>unfccc_annex_1_category_subset_fraction</t>
@@ -591,7 +606,7 @@
     <t>0.75</t>
   </si>
   <si>
-    <t>ERMIN:0000031</t>
+    <t>ERMIN:0000034</t>
   </si>
   <si>
     <t>unfccc_annex_1_category_subset_estimation_method</t>
@@ -603,7 +618,7 @@
     <t>Subtracting estimated fraction of electric vehicles in this locality.</t>
   </si>
   <si>
-    <t>ERMIN:0000032</t>
+    <t>ERMIN:0000035</t>
   </si>
   <si>
     <t>unfccc_annex_1_category_subset_estimation_method_doi_or_url</t>
@@ -612,10 +627,13 @@
     <t>DOI or, if not available, URL of publication describing methodology for estimating the subset fraction reported in "unfcc_annex_1_category_subset_fraction"</t>
   </si>
   <si>
+    <t>[DOI:{doi}|URL:{url}]</t>
+  </si>
+  <si>
     <t>DOI:10.1016/j.trc.2012.07.007</t>
   </si>
   <si>
-    <t>ERMIN:0000033</t>
+    <t>ERMIN:0000036</t>
   </si>
   <si>
     <t>missing_data</t>
@@ -627,7 +645,10 @@
     <t>yes or no</t>
   </si>
   <si>
-    <t>ERMIN:0000034</t>
+    <t>[TRUE | FALSE]</t>
+  </si>
+  <si>
+    <t>ERMIN:0000037</t>
   </si>
   <si>
     <t>missing_data_description</t>
@@ -636,57 +657,51 @@
     <t>Description of why missing_data is "yes"</t>
   </si>
   <si>
-    <t>ERMIN:0000035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected variance in estimate of emissions data reported. Leave this as NA unless you are using a method that is specifically designed to estimate variance in an emissions report. This can use any form of variance or error estimation, such as root-mean-squared error, mean absolute error, normalized root-mean-squared-error, mean absolute percentage error, standard deviation, confidence interval, or even a histogram. Use the field "variance_type" to describe the type of variance. Use the field "variance_method" to describe the method used to calculate this. Can be a confidence interval specified with (lower, upper). To accomodate probabilistic models, can be a histogram table representing a discretized distribution over possible values with any level of granularity, in the format "(start,end]:count,(start,end]:count,..." or "[start,end):count,[start,end):count,...". For the histogram type, count values can be integer counts or fractions, a parenthesis specifies an open (non-inclusive) end of an interval, and a square bracket specifies a closed (inclusive) end of an interval. </t>
-  </si>
-  <si>
-    <t>Official name(s) of UNFCC ANNEX 1 categories covered in this emissions report. If multiple categories included, use comman-separated list. Use the least specific category or categories that describe(s) all of the reported emissions and only the reported e</t>
+    <t>ERMIN:0000038</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <fonts count="7">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Sans"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -695,7 +710,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -705,79 +720,85 @@
     </fill>
   </fills>
   <borders count="2">
+    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -967,45 +988,45 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="152.1640625" customWidth="1"/>
-    <col min="2" max="26" width="10.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="152.14"/>
+    <col customWidth="1" min="2" max="26" width="10.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="12.75" customHeight="1">
+    <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="3" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="4" spans="1:1" ht="12.75" customHeight="1">
+    <row r="2" ht="12.75" customHeight="1"/>
+    <row r="3" ht="12.75" customHeight="1"/>
+    <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="6" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="7" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="8" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="9" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="10" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="11" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="12" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="13" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="14" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="15" spans="1:1" ht="12.75" customHeight="1"/>
-    <row r="16" spans="1:1" ht="12.75" customHeight="1"/>
+    <row r="5" ht="12.75" customHeight="1"/>
+    <row r="6" ht="12.75" customHeight="1"/>
+    <row r="7" ht="12.75" customHeight="1"/>
+    <row r="8" ht="12.75" customHeight="1"/>
+    <row r="9" ht="12.75" customHeight="1"/>
+    <row r="10" ht="12.75" customHeight="1"/>
+    <row r="11" ht="12.75" customHeight="1"/>
+    <row r="12" ht="12.75" customHeight="1"/>
+    <row r="13" ht="12.75" customHeight="1"/>
+    <row r="14" ht="12.75" customHeight="1"/>
+    <row r="15" ht="12.75" customHeight="1"/>
+    <row r="16" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -1991,36 +2012,37 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X924"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="84.33203125" customWidth="1"/>
-    <col min="6" max="6" width="43" customWidth="1"/>
-    <col min="7" max="7" width="36.5" customWidth="1"/>
-    <col min="8" max="8" width="34.1640625" customWidth="1"/>
-    <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" customWidth="1"/>
-    <col min="11" max="24" width="10.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="39.86"/>
+    <col customWidth="1" min="2" max="2" width="13.86"/>
+    <col customWidth="1" min="3" max="3" width="24.0"/>
+    <col customWidth="1" min="4" max="4" width="13.71"/>
+    <col customWidth="1" min="5" max="5" width="84.29"/>
+    <col customWidth="1" min="6" max="6" width="43.0"/>
+    <col customWidth="1" min="7" max="7" width="36.43"/>
+    <col customWidth="1" min="8" max="8" width="34.14"/>
+    <col customWidth="1" min="9" max="9" width="26.0"/>
+    <col customWidth="1" min="10" max="10" width="18.14"/>
+    <col customWidth="1" min="11" max="24" width="10.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="12.75" customHeight="1">
+    <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2066,7 +2088,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
     </row>
-    <row r="2" spans="1:24" ht="12.75" customHeight="1">
+    <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -2075,7 +2097,7 @@
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>13</v>
@@ -2094,7 +2116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="12.75" customHeight="1">
+    <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -2103,9 +2125,9 @@
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="8">
-        <v>2</v>
-      </c>
-      <c r="E3" s="9" t="s">
+        <v>2.0</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -2122,7 +2144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="12.75" customHeight="1">
+    <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
@@ -2131,7 +2153,7 @@
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>26</v>
@@ -2150,7 +2172,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="12.75" customHeight="1">
+    <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>30</v>
       </c>
@@ -2159,7 +2181,7 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="8">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>31</v>
@@ -2167,7 +2189,7 @@
       <c r="F5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H5" s="11" t="s">
@@ -2178,7 +2200,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="12.75" customHeight="1">
+    <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
@@ -2187,7 +2209,7 @@
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="8">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>37</v>
@@ -2195,599 +2217,593 @@
       <c r="F6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" ht="12.75" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>12</v>
+      <c r="B7" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="8">
-        <v>6</v>
+        <v>7.0</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>45</v>
+      <c r="H7" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" ht="12.75" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>12</v>
+      <c r="B8" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="8">
-        <v>7</v>
-      </c>
-      <c r="E8" s="9" t="s">
+        <v>8.0</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="12.75" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="8">
-        <v>8</v>
+        <v>9.0</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="12.75" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="8">
-        <v>9</v>
+        <v>10.0</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="I10" s="11"/>
+      <c r="J10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="10" t="s">
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="8" t="s">
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" ht="12.75" customHeight="1">
-      <c r="A11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="8">
-        <v>10</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="H11" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="I11" s="11"/>
+      <c r="J11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="8" t="s">
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="A12" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="12.75" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="8">
-        <v>11</v>
-      </c>
-      <c r="E12" s="8" t="s">
+        <v>12.0</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="9" t="s">
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="C13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" ht="12.75" customHeight="1">
-      <c r="A13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8">
-        <v>12</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="H13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="I13" s="10"/>
+      <c r="J13" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="8" t="s">
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="12.75" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="8">
-        <v>13</v>
+        <v>14.0</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" ht="12.75" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>87</v>
-      </c>
       <c r="B15" s="8" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="8">
-        <v>14</v>
+        <v>15.0</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="12.75" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="B16" s="8" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="8">
-        <v>15</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>95</v>
+        <v>16.0</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="F16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="B17" s="8" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="8">
-        <v>16</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>99</v>
+        <v>17.0</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="8">
-        <v>17</v>
+        <v>18.0</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="10" t="s">
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="8">
-        <v>18</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>107</v>
+        <v>19.0</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="8">
-        <v>19</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>111</v>
+        <v>20.0</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="12.75" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="8">
-        <v>20</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>116</v>
+        <v>21.0</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="12.75" customHeight="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="8">
-        <v>21</v>
+        <v>22.0</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="12.75" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="8">
-        <v>22</v>
+        <v>23.0</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>128</v>
+        <v>121</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="12.75" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="8">
-        <v>23</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="9" t="s">
+        <v>24.0</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>133</v>
+      <c r="H24" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="A25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="8">
-        <v>24</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>137</v>
+        <v>25.0</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" ht="12.0" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="8">
-        <v>25</v>
+        <v>26.0</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="12.75" customHeight="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" ht="12.0" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="8">
-        <v>26</v>
+        <v>27.0</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>15</v>
@@ -2795,302 +2811,348 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" ht="12.0" customHeight="1">
+      <c r="A28" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="8">
-        <v>27</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>148</v>
+        <v>28.0</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" ht="12.75" customHeight="1">
+      <c r="A29" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A29" s="9" t="s">
+      <c r="H29" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" s="8">
-        <v>28</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>155</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="8">
-        <v>29</v>
+        <v>30.0</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="A31" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="8">
-        <v>30</v>
-      </c>
-      <c r="E31" s="8" t="s">
+        <v>31.0</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>165</v>
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="A32" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="11" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="8">
-        <v>31</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>170</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="12.75" customHeight="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>161</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="9"/>
       <c r="D33" s="8">
-        <v>32</v>
+        <v>33.0</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="G33" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>15</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="12.75" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="8"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="8">
-        <v>33</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>33</v>
+        <v>34.0</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I34" s="11"/>
       <c r="J34" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="12.75" customHeight="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="8">
-        <v>34</v>
+        <v>35.0</v>
       </c>
       <c r="E35" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="10" t="s">
         <v>181</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>165</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" ht="12.75" customHeight="1">
+      <c r="A36" s="8" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A36" s="8" t="s">
+      <c r="B36" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D36" s="8">
-        <v>35</v>
-      </c>
-      <c r="E36" s="8" t="s">
+      <c r="F36" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="10"/>
       <c r="I36" s="11"/>
       <c r="J36" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="14"/>
-    </row>
-    <row r="38" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="14"/>
-    </row>
-    <row r="39" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="14"/>
-    </row>
-    <row r="40" spans="1:10" ht="12.75" customHeight="1">
+    <row r="37" ht="12.75" customHeight="1">
+      <c r="A37" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" ht="12.75" customHeight="1">
+      <c r="A38" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="I38" s="11"/>
+      <c r="J38" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" ht="12.75" customHeight="1">
+      <c r="A39" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="10"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -3102,7 +3164,7 @@
       <c r="I40" s="15"/>
       <c r="J40" s="14"/>
     </row>
-    <row r="41" spans="1:10" ht="12.75" customHeight="1">
+    <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -3114,7 +3176,7 @@
       <c r="I41" s="15"/>
       <c r="J41" s="14"/>
     </row>
-    <row r="42" spans="1:10" ht="12.75" customHeight="1">
+    <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -3126,7 +3188,7 @@
       <c r="I42" s="15"/>
       <c r="J42" s="14"/>
     </row>
-    <row r="43" spans="1:10" ht="12.75" customHeight="1">
+    <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -3138,7 +3200,7 @@
       <c r="I43" s="15"/>
       <c r="J43" s="14"/>
     </row>
-    <row r="44" spans="1:10" ht="12.75" customHeight="1">
+    <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -3150,7 +3212,7 @@
       <c r="I44" s="15"/>
       <c r="J44" s="14"/>
     </row>
-    <row r="45" spans="1:10" ht="12.75" customHeight="1">
+    <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -3162,7 +3224,7 @@
       <c r="I45" s="15"/>
       <c r="J45" s="14"/>
     </row>
-    <row r="46" spans="1:10" ht="12.75" customHeight="1">
+    <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -3174,7 +3236,7 @@
       <c r="I46" s="15"/>
       <c r="J46" s="14"/>
     </row>
-    <row r="47" spans="1:10" ht="12.75" customHeight="1">
+    <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -3186,7 +3248,7 @@
       <c r="I47" s="15"/>
       <c r="J47" s="14"/>
     </row>
-    <row r="48" spans="1:10" ht="12.75" customHeight="1">
+    <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -3198,7 +3260,7 @@
       <c r="I48" s="15"/>
       <c r="J48" s="14"/>
     </row>
-    <row r="49" spans="1:10" ht="12.75" customHeight="1">
+    <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -3210,7 +3272,7 @@
       <c r="I49" s="15"/>
       <c r="J49" s="14"/>
     </row>
-    <row r="50" spans="1:10" ht="12.75" customHeight="1">
+    <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -3222,7 +3284,7 @@
       <c r="I50" s="15"/>
       <c r="J50" s="14"/>
     </row>
-    <row r="51" spans="1:10" ht="12.75" customHeight="1">
+    <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -3234,7 +3296,7 @@
       <c r="I51" s="15"/>
       <c r="J51" s="14"/>
     </row>
-    <row r="52" spans="1:10" ht="12.75" customHeight="1">
+    <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -3246,7 +3308,7 @@
       <c r="I52" s="15"/>
       <c r="J52" s="14"/>
     </row>
-    <row r="53" spans="1:10" ht="12.75" customHeight="1">
+    <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -3258,7 +3320,7 @@
       <c r="I53" s="15"/>
       <c r="J53" s="14"/>
     </row>
-    <row r="54" spans="1:10" ht="12.75" customHeight="1">
+    <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -3270,7 +3332,7 @@
       <c r="I54" s="15"/>
       <c r="J54" s="14"/>
     </row>
-    <row r="55" spans="1:10" ht="12.75" customHeight="1">
+    <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -3282,7 +3344,7 @@
       <c r="I55" s="15"/>
       <c r="J55" s="14"/>
     </row>
-    <row r="56" spans="1:10" ht="12.75" customHeight="1">
+    <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -3294,7 +3356,7 @@
       <c r="I56" s="15"/>
       <c r="J56" s="14"/>
     </row>
-    <row r="57" spans="1:10" ht="12.75" customHeight="1">
+    <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -3306,7 +3368,7 @@
       <c r="I57" s="15"/>
       <c r="J57" s="14"/>
     </row>
-    <row r="58" spans="1:10" ht="12.75" customHeight="1">
+    <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -3318,7 +3380,7 @@
       <c r="I58" s="15"/>
       <c r="J58" s="14"/>
     </row>
-    <row r="59" spans="1:10" ht="12.75" customHeight="1">
+    <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -3330,4338 +3392,4376 @@
       <c r="I59" s="15"/>
       <c r="J59" s="14"/>
     </row>
-    <row r="60" spans="1:10" ht="12.75" customHeight="1">
-      <c r="E60" s="2"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-    </row>
-    <row r="61" spans="1:10" ht="12.75" customHeight="1">
-      <c r="E61" s="2"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-    </row>
-    <row r="62" spans="1:10" ht="12.75" customHeight="1">
-      <c r="E62" s="2"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-    </row>
-    <row r="63" spans="1:10" ht="12.75" customHeight="1">
+    <row r="60" ht="12.75" customHeight="1">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="14"/>
+    </row>
+    <row r="61" ht="12.75" customHeight="1">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="14"/>
+    </row>
+    <row r="62" ht="12.75" customHeight="1">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="14"/>
+    </row>
+    <row r="63" ht="12.75" customHeight="1">
       <c r="E63" s="2"/>
       <c r="H63" s="16"/>
       <c r="I63" s="16"/>
     </row>
-    <row r="64" spans="1:10" ht="12.75" customHeight="1">
+    <row r="64" ht="12.75" customHeight="1">
       <c r="E64" s="2"/>
       <c r="H64" s="16"/>
       <c r="I64" s="16"/>
     </row>
-    <row r="65" spans="5:9" ht="12.75" customHeight="1">
+    <row r="65" ht="12.75" customHeight="1">
       <c r="E65" s="2"/>
       <c r="H65" s="16"/>
       <c r="I65" s="16"/>
     </row>
-    <row r="66" spans="5:9" ht="12.75" customHeight="1">
+    <row r="66" ht="12.75" customHeight="1">
       <c r="E66" s="2"/>
       <c r="H66" s="16"/>
       <c r="I66" s="16"/>
     </row>
-    <row r="67" spans="5:9" ht="12.75" customHeight="1">
+    <row r="67" ht="12.75" customHeight="1">
       <c r="E67" s="2"/>
       <c r="H67" s="16"/>
       <c r="I67" s="16"/>
     </row>
-    <row r="68" spans="5:9" ht="12.75" customHeight="1">
+    <row r="68" ht="12.75" customHeight="1">
       <c r="E68" s="2"/>
       <c r="H68" s="16"/>
       <c r="I68" s="16"/>
     </row>
-    <row r="69" spans="5:9" ht="12.75" customHeight="1">
+    <row r="69" ht="12.75" customHeight="1">
       <c r="E69" s="2"/>
       <c r="H69" s="16"/>
       <c r="I69" s="16"/>
     </row>
-    <row r="70" spans="5:9" ht="12.75" customHeight="1">
+    <row r="70" ht="12.75" customHeight="1">
       <c r="E70" s="2"/>
       <c r="H70" s="16"/>
       <c r="I70" s="16"/>
     </row>
-    <row r="71" spans="5:9" ht="12.75" customHeight="1">
+    <row r="71" ht="12.75" customHeight="1">
       <c r="E71" s="2"/>
       <c r="H71" s="16"/>
       <c r="I71" s="16"/>
     </row>
-    <row r="72" spans="5:9" ht="12.75" customHeight="1">
+    <row r="72" ht="12.75" customHeight="1">
       <c r="E72" s="2"/>
       <c r="H72" s="16"/>
       <c r="I72" s="16"/>
     </row>
-    <row r="73" spans="5:9" ht="12.75" customHeight="1">
+    <row r="73" ht="12.75" customHeight="1">
       <c r="E73" s="2"/>
       <c r="H73" s="16"/>
       <c r="I73" s="16"/>
     </row>
-    <row r="74" spans="5:9" ht="12.75" customHeight="1">
+    <row r="74" ht="12.75" customHeight="1">
       <c r="E74" s="2"/>
       <c r="H74" s="16"/>
       <c r="I74" s="16"/>
     </row>
-    <row r="75" spans="5:9" ht="12.75" customHeight="1">
+    <row r="75" ht="12.75" customHeight="1">
       <c r="E75" s="2"/>
       <c r="H75" s="16"/>
       <c r="I75" s="16"/>
     </row>
-    <row r="76" spans="5:9" ht="12.75" customHeight="1">
+    <row r="76" ht="12.75" customHeight="1">
       <c r="E76" s="2"/>
       <c r="H76" s="16"/>
       <c r="I76" s="16"/>
     </row>
-    <row r="77" spans="5:9" ht="12.75" customHeight="1">
+    <row r="77" ht="12.75" customHeight="1">
       <c r="E77" s="2"/>
       <c r="H77" s="16"/>
       <c r="I77" s="16"/>
     </row>
-    <row r="78" spans="5:9" ht="12.75" customHeight="1">
+    <row r="78" ht="12.75" customHeight="1">
       <c r="E78" s="2"/>
       <c r="H78" s="16"/>
       <c r="I78" s="16"/>
     </row>
-    <row r="79" spans="5:9" ht="12.75" customHeight="1">
+    <row r="79" ht="12.75" customHeight="1">
       <c r="E79" s="2"/>
       <c r="H79" s="16"/>
       <c r="I79" s="16"/>
     </row>
-    <row r="80" spans="5:9" ht="12.75" customHeight="1">
+    <row r="80" ht="12.75" customHeight="1">
       <c r="E80" s="2"/>
       <c r="H80" s="16"/>
       <c r="I80" s="16"/>
     </row>
-    <row r="81" spans="5:9" ht="12.75" customHeight="1">
+    <row r="81" ht="12.75" customHeight="1">
       <c r="E81" s="2"/>
       <c r="H81" s="16"/>
       <c r="I81" s="16"/>
     </row>
-    <row r="82" spans="5:9" ht="12.75" customHeight="1">
+    <row r="82" ht="12.75" customHeight="1">
       <c r="E82" s="2"/>
       <c r="H82" s="16"/>
       <c r="I82" s="16"/>
     </row>
-    <row r="83" spans="5:9" ht="12.75" customHeight="1">
+    <row r="83" ht="12.75" customHeight="1">
       <c r="E83" s="2"/>
       <c r="H83" s="16"/>
       <c r="I83" s="16"/>
     </row>
-    <row r="84" spans="5:9" ht="12.75" customHeight="1">
+    <row r="84" ht="12.75" customHeight="1">
       <c r="E84" s="2"/>
       <c r="H84" s="16"/>
       <c r="I84" s="16"/>
     </row>
-    <row r="85" spans="5:9" ht="12.75" customHeight="1">
+    <row r="85" ht="12.75" customHeight="1">
       <c r="E85" s="2"/>
       <c r="H85" s="16"/>
       <c r="I85" s="16"/>
     </row>
-    <row r="86" spans="5:9" ht="12.75" customHeight="1">
+    <row r="86" ht="12.75" customHeight="1">
       <c r="E86" s="2"/>
       <c r="H86" s="16"/>
       <c r="I86" s="16"/>
     </row>
-    <row r="87" spans="5:9" ht="12.75" customHeight="1">
+    <row r="87" ht="12.75" customHeight="1">
       <c r="E87" s="2"/>
       <c r="H87" s="16"/>
       <c r="I87" s="16"/>
     </row>
-    <row r="88" spans="5:9" ht="12.75" customHeight="1">
+    <row r="88" ht="12.75" customHeight="1">
       <c r="E88" s="2"/>
       <c r="H88" s="16"/>
       <c r="I88" s="16"/>
     </row>
-    <row r="89" spans="5:9" ht="12.75" customHeight="1">
+    <row r="89" ht="12.75" customHeight="1">
       <c r="E89" s="2"/>
       <c r="H89" s="16"/>
       <c r="I89" s="16"/>
     </row>
-    <row r="90" spans="5:9" ht="12.75" customHeight="1">
+    <row r="90" ht="12.75" customHeight="1">
       <c r="E90" s="2"/>
       <c r="H90" s="16"/>
       <c r="I90" s="16"/>
     </row>
-    <row r="91" spans="5:9" ht="12.75" customHeight="1">
+    <row r="91" ht="12.75" customHeight="1">
       <c r="E91" s="2"/>
       <c r="H91" s="16"/>
       <c r="I91" s="16"/>
     </row>
-    <row r="92" spans="5:9" ht="12.75" customHeight="1">
+    <row r="92" ht="12.75" customHeight="1">
       <c r="E92" s="2"/>
       <c r="H92" s="16"/>
       <c r="I92" s="16"/>
     </row>
-    <row r="93" spans="5:9" ht="12.75" customHeight="1">
+    <row r="93" ht="12.75" customHeight="1">
       <c r="E93" s="2"/>
       <c r="H93" s="16"/>
       <c r="I93" s="16"/>
     </row>
-    <row r="94" spans="5:9" ht="12.75" customHeight="1">
+    <row r="94" ht="12.75" customHeight="1">
       <c r="E94" s="2"/>
       <c r="H94" s="16"/>
       <c r="I94" s="16"/>
     </row>
-    <row r="95" spans="5:9" ht="12.75" customHeight="1">
+    <row r="95" ht="12.75" customHeight="1">
       <c r="E95" s="2"/>
       <c r="H95" s="16"/>
       <c r="I95" s="16"/>
     </row>
-    <row r="96" spans="5:9" ht="12.75" customHeight="1">
+    <row r="96" ht="12.75" customHeight="1">
       <c r="E96" s="2"/>
       <c r="H96" s="16"/>
       <c r="I96" s="16"/>
     </row>
-    <row r="97" spans="5:9" ht="12.75" customHeight="1">
+    <row r="97" ht="12.75" customHeight="1">
       <c r="E97" s="2"/>
       <c r="H97" s="16"/>
       <c r="I97" s="16"/>
     </row>
-    <row r="98" spans="5:9" ht="12.75" customHeight="1">
+    <row r="98" ht="12.75" customHeight="1">
       <c r="E98" s="2"/>
       <c r="H98" s="16"/>
       <c r="I98" s="16"/>
     </row>
-    <row r="99" spans="5:9" ht="12.75" customHeight="1">
+    <row r="99" ht="12.75" customHeight="1">
       <c r="E99" s="2"/>
       <c r="H99" s="16"/>
       <c r="I99" s="16"/>
     </row>
-    <row r="100" spans="5:9" ht="12.75" customHeight="1">
+    <row r="100" ht="12.75" customHeight="1">
       <c r="E100" s="2"/>
       <c r="H100" s="16"/>
       <c r="I100" s="16"/>
     </row>
-    <row r="101" spans="5:9" ht="12.75" customHeight="1">
+    <row r="101" ht="12.75" customHeight="1">
       <c r="E101" s="2"/>
       <c r="H101" s="16"/>
       <c r="I101" s="16"/>
     </row>
-    <row r="102" spans="5:9" ht="12.75" customHeight="1">
+    <row r="102" ht="12.75" customHeight="1">
       <c r="E102" s="2"/>
       <c r="H102" s="16"/>
       <c r="I102" s="16"/>
     </row>
-    <row r="103" spans="5:9" ht="12.75" customHeight="1">
+    <row r="103" ht="12.75" customHeight="1">
       <c r="E103" s="2"/>
       <c r="H103" s="16"/>
       <c r="I103" s="16"/>
     </row>
-    <row r="104" spans="5:9" ht="12.75" customHeight="1">
+    <row r="104" ht="12.75" customHeight="1">
       <c r="E104" s="2"/>
       <c r="H104" s="16"/>
       <c r="I104" s="16"/>
     </row>
-    <row r="105" spans="5:9" ht="12.75" customHeight="1">
+    <row r="105" ht="12.75" customHeight="1">
       <c r="E105" s="2"/>
       <c r="H105" s="16"/>
       <c r="I105" s="16"/>
     </row>
-    <row r="106" spans="5:9" ht="12.75" customHeight="1">
+    <row r="106" ht="12.75" customHeight="1">
       <c r="E106" s="2"/>
       <c r="H106" s="16"/>
       <c r="I106" s="16"/>
     </row>
-    <row r="107" spans="5:9" ht="12.75" customHeight="1">
+    <row r="107" ht="12.75" customHeight="1">
       <c r="E107" s="2"/>
       <c r="H107" s="16"/>
       <c r="I107" s="16"/>
     </row>
-    <row r="108" spans="5:9" ht="12.75" customHeight="1">
+    <row r="108" ht="12.75" customHeight="1">
       <c r="E108" s="2"/>
       <c r="H108" s="16"/>
       <c r="I108" s="16"/>
     </row>
-    <row r="109" spans="5:9" ht="12.75" customHeight="1">
+    <row r="109" ht="12.75" customHeight="1">
       <c r="E109" s="2"/>
       <c r="H109" s="16"/>
       <c r="I109" s="16"/>
     </row>
-    <row r="110" spans="5:9" ht="12.75" customHeight="1">
+    <row r="110" ht="12.75" customHeight="1">
       <c r="E110" s="2"/>
       <c r="H110" s="16"/>
       <c r="I110" s="16"/>
     </row>
-    <row r="111" spans="5:9" ht="12.75" customHeight="1">
+    <row r="111" ht="12.75" customHeight="1">
       <c r="E111" s="2"/>
       <c r="H111" s="16"/>
       <c r="I111" s="16"/>
     </row>
-    <row r="112" spans="5:9" ht="12.75" customHeight="1">
+    <row r="112" ht="12.75" customHeight="1">
       <c r="E112" s="2"/>
       <c r="H112" s="16"/>
       <c r="I112" s="16"/>
     </row>
-    <row r="113" spans="5:9" ht="12.75" customHeight="1">
+    <row r="113" ht="12.75" customHeight="1">
       <c r="E113" s="2"/>
       <c r="H113" s="16"/>
       <c r="I113" s="16"/>
     </row>
-    <row r="114" spans="5:9" ht="12.75" customHeight="1">
+    <row r="114" ht="12.75" customHeight="1">
       <c r="E114" s="2"/>
       <c r="H114" s="16"/>
       <c r="I114" s="16"/>
     </row>
-    <row r="115" spans="5:9" ht="12.75" customHeight="1">
+    <row r="115" ht="12.75" customHeight="1">
       <c r="E115" s="2"/>
       <c r="H115" s="16"/>
       <c r="I115" s="16"/>
     </row>
-    <row r="116" spans="5:9" ht="12.75" customHeight="1">
+    <row r="116" ht="12.75" customHeight="1">
       <c r="E116" s="2"/>
       <c r="H116" s="16"/>
       <c r="I116" s="16"/>
     </row>
-    <row r="117" spans="5:9" ht="12.75" customHeight="1">
+    <row r="117" ht="12.75" customHeight="1">
       <c r="E117" s="2"/>
       <c r="H117" s="16"/>
       <c r="I117" s="16"/>
     </row>
-    <row r="118" spans="5:9" ht="12.75" customHeight="1">
+    <row r="118" ht="12.75" customHeight="1">
       <c r="E118" s="2"/>
       <c r="H118" s="16"/>
       <c r="I118" s="16"/>
     </row>
-    <row r="119" spans="5:9" ht="12.75" customHeight="1">
+    <row r="119" ht="12.75" customHeight="1">
       <c r="E119" s="2"/>
       <c r="H119" s="16"/>
       <c r="I119" s="16"/>
     </row>
-    <row r="120" spans="5:9" ht="12.75" customHeight="1">
+    <row r="120" ht="12.75" customHeight="1">
       <c r="E120" s="2"/>
       <c r="H120" s="16"/>
       <c r="I120" s="16"/>
     </row>
-    <row r="121" spans="5:9" ht="12.75" customHeight="1">
+    <row r="121" ht="12.75" customHeight="1">
       <c r="E121" s="2"/>
       <c r="H121" s="16"/>
       <c r="I121" s="16"/>
     </row>
-    <row r="122" spans="5:9" ht="12.75" customHeight="1">
+    <row r="122" ht="12.75" customHeight="1">
       <c r="E122" s="2"/>
       <c r="H122" s="16"/>
       <c r="I122" s="16"/>
     </row>
-    <row r="123" spans="5:9" ht="12.75" customHeight="1">
+    <row r="123" ht="12.75" customHeight="1">
       <c r="E123" s="2"/>
       <c r="H123" s="16"/>
       <c r="I123" s="16"/>
     </row>
-    <row r="124" spans="5:9" ht="12.75" customHeight="1">
+    <row r="124" ht="12.75" customHeight="1">
       <c r="E124" s="2"/>
       <c r="H124" s="16"/>
       <c r="I124" s="16"/>
     </row>
-    <row r="125" spans="5:9" ht="12.75" customHeight="1">
+    <row r="125" ht="12.75" customHeight="1">
       <c r="E125" s="2"/>
       <c r="H125" s="16"/>
       <c r="I125" s="16"/>
     </row>
-    <row r="126" spans="5:9" ht="12.75" customHeight="1">
+    <row r="126" ht="12.75" customHeight="1">
       <c r="E126" s="2"/>
       <c r="H126" s="16"/>
       <c r="I126" s="16"/>
     </row>
-    <row r="127" spans="5:9" ht="12.75" customHeight="1">
+    <row r="127" ht="12.75" customHeight="1">
       <c r="E127" s="2"/>
       <c r="H127" s="16"/>
       <c r="I127" s="16"/>
     </row>
-    <row r="128" spans="5:9" ht="12.75" customHeight="1">
+    <row r="128" ht="12.75" customHeight="1">
       <c r="E128" s="2"/>
       <c r="H128" s="16"/>
       <c r="I128" s="16"/>
     </row>
-    <row r="129" spans="5:9" ht="12.75" customHeight="1">
+    <row r="129" ht="12.75" customHeight="1">
       <c r="E129" s="2"/>
       <c r="H129" s="16"/>
       <c r="I129" s="16"/>
     </row>
-    <row r="130" spans="5:9" ht="12.75" customHeight="1">
+    <row r="130" ht="12.75" customHeight="1">
       <c r="E130" s="2"/>
       <c r="H130" s="16"/>
       <c r="I130" s="16"/>
     </row>
-    <row r="131" spans="5:9" ht="12.75" customHeight="1">
+    <row r="131" ht="12.75" customHeight="1">
       <c r="E131" s="2"/>
       <c r="H131" s="16"/>
       <c r="I131" s="16"/>
     </row>
-    <row r="132" spans="5:9" ht="12.75" customHeight="1">
+    <row r="132" ht="12.75" customHeight="1">
       <c r="E132" s="2"/>
       <c r="H132" s="16"/>
       <c r="I132" s="16"/>
     </row>
-    <row r="133" spans="5:9" ht="12.75" customHeight="1">
+    <row r="133" ht="12.75" customHeight="1">
       <c r="E133" s="2"/>
       <c r="H133" s="16"/>
       <c r="I133" s="16"/>
     </row>
-    <row r="134" spans="5:9" ht="12.75" customHeight="1">
+    <row r="134" ht="12.75" customHeight="1">
       <c r="E134" s="2"/>
       <c r="H134" s="16"/>
       <c r="I134" s="16"/>
     </row>
-    <row r="135" spans="5:9" ht="12.75" customHeight="1">
+    <row r="135" ht="12.75" customHeight="1">
       <c r="E135" s="2"/>
       <c r="H135" s="16"/>
       <c r="I135" s="16"/>
     </row>
-    <row r="136" spans="5:9" ht="12.75" customHeight="1">
+    <row r="136" ht="12.75" customHeight="1">
       <c r="E136" s="2"/>
       <c r="H136" s="16"/>
       <c r="I136" s="16"/>
     </row>
-    <row r="137" spans="5:9" ht="12.75" customHeight="1">
+    <row r="137" ht="12.75" customHeight="1">
       <c r="E137" s="2"/>
       <c r="H137" s="16"/>
       <c r="I137" s="16"/>
     </row>
-    <row r="138" spans="5:9" ht="12.75" customHeight="1">
+    <row r="138" ht="12.75" customHeight="1">
       <c r="E138" s="2"/>
       <c r="H138" s="16"/>
       <c r="I138" s="16"/>
     </row>
-    <row r="139" spans="5:9" ht="12.75" customHeight="1">
+    <row r="139" ht="12.75" customHeight="1">
       <c r="E139" s="2"/>
       <c r="H139" s="16"/>
       <c r="I139" s="16"/>
     </row>
-    <row r="140" spans="5:9" ht="12.75" customHeight="1">
+    <row r="140" ht="12.75" customHeight="1">
       <c r="E140" s="2"/>
       <c r="H140" s="16"/>
       <c r="I140" s="16"/>
     </row>
-    <row r="141" spans="5:9" ht="12.75" customHeight="1">
+    <row r="141" ht="12.75" customHeight="1">
       <c r="E141" s="2"/>
       <c r="H141" s="16"/>
       <c r="I141" s="16"/>
     </row>
-    <row r="142" spans="5:9" ht="12.75" customHeight="1">
+    <row r="142" ht="12.75" customHeight="1">
       <c r="E142" s="2"/>
       <c r="H142" s="16"/>
       <c r="I142" s="16"/>
     </row>
-    <row r="143" spans="5:9" ht="12.75" customHeight="1">
+    <row r="143" ht="12.75" customHeight="1">
       <c r="E143" s="2"/>
       <c r="H143" s="16"/>
       <c r="I143" s="16"/>
     </row>
-    <row r="144" spans="5:9" ht="12.75" customHeight="1">
+    <row r="144" ht="12.75" customHeight="1">
       <c r="E144" s="2"/>
       <c r="H144" s="16"/>
       <c r="I144" s="16"/>
     </row>
-    <row r="145" spans="5:9" ht="12.75" customHeight="1">
+    <row r="145" ht="12.75" customHeight="1">
       <c r="E145" s="2"/>
       <c r="H145" s="16"/>
       <c r="I145" s="16"/>
     </row>
-    <row r="146" spans="5:9" ht="12.75" customHeight="1">
+    <row r="146" ht="12.75" customHeight="1">
       <c r="E146" s="2"/>
       <c r="H146" s="16"/>
       <c r="I146" s="16"/>
     </row>
-    <row r="147" spans="5:9" ht="12.75" customHeight="1">
+    <row r="147" ht="12.75" customHeight="1">
       <c r="E147" s="2"/>
       <c r="H147" s="16"/>
       <c r="I147" s="16"/>
     </row>
-    <row r="148" spans="5:9" ht="12.75" customHeight="1">
+    <row r="148" ht="12.75" customHeight="1">
       <c r="E148" s="2"/>
       <c r="H148" s="16"/>
       <c r="I148" s="16"/>
     </row>
-    <row r="149" spans="5:9" ht="12.75" customHeight="1">
+    <row r="149" ht="12.75" customHeight="1">
       <c r="E149" s="2"/>
       <c r="H149" s="16"/>
       <c r="I149" s="16"/>
     </row>
-    <row r="150" spans="5:9" ht="12.75" customHeight="1">
+    <row r="150" ht="12.75" customHeight="1">
       <c r="E150" s="2"/>
       <c r="H150" s="16"/>
       <c r="I150" s="16"/>
     </row>
-    <row r="151" spans="5:9" ht="12.75" customHeight="1">
+    <row r="151" ht="12.75" customHeight="1">
       <c r="E151" s="2"/>
       <c r="H151" s="16"/>
       <c r="I151" s="16"/>
     </row>
-    <row r="152" spans="5:9" ht="12.75" customHeight="1">
+    <row r="152" ht="12.75" customHeight="1">
       <c r="E152" s="2"/>
       <c r="H152" s="16"/>
       <c r="I152" s="16"/>
     </row>
-    <row r="153" spans="5:9" ht="12.75" customHeight="1">
+    <row r="153" ht="12.75" customHeight="1">
       <c r="E153" s="2"/>
       <c r="H153" s="16"/>
       <c r="I153" s="16"/>
     </row>
-    <row r="154" spans="5:9" ht="12.75" customHeight="1">
+    <row r="154" ht="12.75" customHeight="1">
       <c r="E154" s="2"/>
       <c r="H154" s="16"/>
       <c r="I154" s="16"/>
     </row>
-    <row r="155" spans="5:9" ht="12.75" customHeight="1">
+    <row r="155" ht="12.75" customHeight="1">
       <c r="E155" s="2"/>
       <c r="H155" s="16"/>
       <c r="I155" s="16"/>
     </row>
-    <row r="156" spans="5:9" ht="12.75" customHeight="1">
+    <row r="156" ht="12.75" customHeight="1">
       <c r="E156" s="2"/>
       <c r="H156" s="16"/>
       <c r="I156" s="16"/>
     </row>
-    <row r="157" spans="5:9" ht="12.75" customHeight="1">
+    <row r="157" ht="12.75" customHeight="1">
       <c r="E157" s="2"/>
       <c r="H157" s="16"/>
       <c r="I157" s="16"/>
     </row>
-    <row r="158" spans="5:9" ht="12.75" customHeight="1">
+    <row r="158" ht="12.75" customHeight="1">
       <c r="E158" s="2"/>
       <c r="H158" s="16"/>
       <c r="I158" s="16"/>
     </row>
-    <row r="159" spans="5:9" ht="12.75" customHeight="1">
+    <row r="159" ht="12.75" customHeight="1">
       <c r="E159" s="2"/>
       <c r="H159" s="16"/>
       <c r="I159" s="16"/>
     </row>
-    <row r="160" spans="5:9" ht="12.75" customHeight="1">
+    <row r="160" ht="12.75" customHeight="1">
       <c r="E160" s="2"/>
       <c r="H160" s="16"/>
       <c r="I160" s="16"/>
     </row>
-    <row r="161" spans="5:9" ht="12.75" customHeight="1">
+    <row r="161" ht="12.75" customHeight="1">
       <c r="E161" s="2"/>
       <c r="H161" s="16"/>
       <c r="I161" s="16"/>
     </row>
-    <row r="162" spans="5:9" ht="12.75" customHeight="1">
+    <row r="162" ht="12.75" customHeight="1">
       <c r="E162" s="2"/>
       <c r="H162" s="16"/>
       <c r="I162" s="16"/>
     </row>
-    <row r="163" spans="5:9" ht="12.75" customHeight="1">
+    <row r="163" ht="12.75" customHeight="1">
       <c r="E163" s="2"/>
       <c r="H163" s="16"/>
       <c r="I163" s="16"/>
     </row>
-    <row r="164" spans="5:9" ht="12.75" customHeight="1">
+    <row r="164" ht="12.75" customHeight="1">
       <c r="E164" s="2"/>
       <c r="H164" s="16"/>
       <c r="I164" s="16"/>
     </row>
-    <row r="165" spans="5:9" ht="12.75" customHeight="1">
+    <row r="165" ht="12.75" customHeight="1">
       <c r="E165" s="2"/>
       <c r="H165" s="16"/>
       <c r="I165" s="16"/>
     </row>
-    <row r="166" spans="5:9" ht="12.75" customHeight="1">
+    <row r="166" ht="12.75" customHeight="1">
       <c r="E166" s="2"/>
       <c r="H166" s="16"/>
       <c r="I166" s="16"/>
     </row>
-    <row r="167" spans="5:9" ht="12.75" customHeight="1">
+    <row r="167" ht="12.75" customHeight="1">
       <c r="E167" s="2"/>
       <c r="H167" s="16"/>
       <c r="I167" s="16"/>
     </row>
-    <row r="168" spans="5:9" ht="12.75" customHeight="1">
+    <row r="168" ht="12.75" customHeight="1">
       <c r="E168" s="2"/>
       <c r="H168" s="16"/>
       <c r="I168" s="16"/>
     </row>
-    <row r="169" spans="5:9" ht="12.75" customHeight="1">
+    <row r="169" ht="12.75" customHeight="1">
       <c r="E169" s="2"/>
       <c r="H169" s="16"/>
       <c r="I169" s="16"/>
     </row>
-    <row r="170" spans="5:9" ht="12.75" customHeight="1">
+    <row r="170" ht="12.75" customHeight="1">
       <c r="E170" s="2"/>
       <c r="H170" s="16"/>
       <c r="I170" s="16"/>
     </row>
-    <row r="171" spans="5:9" ht="12.75" customHeight="1">
+    <row r="171" ht="12.75" customHeight="1">
       <c r="E171" s="2"/>
       <c r="H171" s="16"/>
       <c r="I171" s="16"/>
     </row>
-    <row r="172" spans="5:9" ht="12.75" customHeight="1">
+    <row r="172" ht="12.75" customHeight="1">
       <c r="E172" s="2"/>
       <c r="H172" s="16"/>
       <c r="I172" s="16"/>
     </row>
-    <row r="173" spans="5:9" ht="12.75" customHeight="1">
+    <row r="173" ht="12.75" customHeight="1">
       <c r="E173" s="2"/>
       <c r="H173" s="16"/>
       <c r="I173" s="16"/>
     </row>
-    <row r="174" spans="5:9" ht="12.75" customHeight="1">
+    <row r="174" ht="12.75" customHeight="1">
       <c r="E174" s="2"/>
       <c r="H174" s="16"/>
       <c r="I174" s="16"/>
     </row>
-    <row r="175" spans="5:9" ht="12.75" customHeight="1">
+    <row r="175" ht="12.75" customHeight="1">
       <c r="E175" s="2"/>
       <c r="H175" s="16"/>
       <c r="I175" s="16"/>
     </row>
-    <row r="176" spans="5:9" ht="12.75" customHeight="1">
+    <row r="176" ht="12.75" customHeight="1">
       <c r="E176" s="2"/>
       <c r="H176" s="16"/>
       <c r="I176" s="16"/>
     </row>
-    <row r="177" spans="5:9" ht="12.75" customHeight="1">
+    <row r="177" ht="12.75" customHeight="1">
       <c r="E177" s="2"/>
       <c r="H177" s="16"/>
       <c r="I177" s="16"/>
     </row>
-    <row r="178" spans="5:9" ht="12.75" customHeight="1">
+    <row r="178" ht="12.75" customHeight="1">
       <c r="E178" s="2"/>
       <c r="H178" s="16"/>
       <c r="I178" s="16"/>
     </row>
-    <row r="179" spans="5:9" ht="12.75" customHeight="1">
+    <row r="179" ht="12.75" customHeight="1">
       <c r="E179" s="2"/>
       <c r="H179" s="16"/>
       <c r="I179" s="16"/>
     </row>
-    <row r="180" spans="5:9" ht="12.75" customHeight="1">
+    <row r="180" ht="12.75" customHeight="1">
       <c r="E180" s="2"/>
       <c r="H180" s="16"/>
       <c r="I180" s="16"/>
     </row>
-    <row r="181" spans="5:9" ht="12.75" customHeight="1">
+    <row r="181" ht="12.75" customHeight="1">
       <c r="E181" s="2"/>
       <c r="H181" s="16"/>
       <c r="I181" s="16"/>
     </row>
-    <row r="182" spans="5:9" ht="12.75" customHeight="1">
+    <row r="182" ht="12.75" customHeight="1">
       <c r="E182" s="2"/>
       <c r="H182" s="16"/>
       <c r="I182" s="16"/>
     </row>
-    <row r="183" spans="5:9" ht="12.75" customHeight="1">
+    <row r="183" ht="12.75" customHeight="1">
       <c r="E183" s="2"/>
       <c r="H183" s="16"/>
       <c r="I183" s="16"/>
     </row>
-    <row r="184" spans="5:9" ht="12.75" customHeight="1">
+    <row r="184" ht="12.75" customHeight="1">
       <c r="E184" s="2"/>
       <c r="H184" s="16"/>
       <c r="I184" s="16"/>
     </row>
-    <row r="185" spans="5:9" ht="12.75" customHeight="1">
+    <row r="185" ht="12.75" customHeight="1">
       <c r="E185" s="2"/>
       <c r="H185" s="16"/>
       <c r="I185" s="16"/>
     </row>
-    <row r="186" spans="5:9" ht="12.75" customHeight="1">
+    <row r="186" ht="12.75" customHeight="1">
       <c r="E186" s="2"/>
       <c r="H186" s="16"/>
       <c r="I186" s="16"/>
     </row>
-    <row r="187" spans="5:9" ht="12.75" customHeight="1">
+    <row r="187" ht="12.75" customHeight="1">
       <c r="E187" s="2"/>
       <c r="H187" s="16"/>
       <c r="I187" s="16"/>
     </row>
-    <row r="188" spans="5:9" ht="12.75" customHeight="1">
+    <row r="188" ht="12.75" customHeight="1">
       <c r="E188" s="2"/>
       <c r="H188" s="16"/>
       <c r="I188" s="16"/>
     </row>
-    <row r="189" spans="5:9" ht="12.75" customHeight="1">
+    <row r="189" ht="12.75" customHeight="1">
       <c r="E189" s="2"/>
       <c r="H189" s="16"/>
       <c r="I189" s="16"/>
     </row>
-    <row r="190" spans="5:9" ht="12.75" customHeight="1">
+    <row r="190" ht="12.75" customHeight="1">
       <c r="E190" s="2"/>
       <c r="H190" s="16"/>
       <c r="I190" s="16"/>
     </row>
-    <row r="191" spans="5:9" ht="12.75" customHeight="1">
+    <row r="191" ht="12.75" customHeight="1">
       <c r="E191" s="2"/>
       <c r="H191" s="16"/>
       <c r="I191" s="16"/>
     </row>
-    <row r="192" spans="5:9" ht="12.75" customHeight="1">
+    <row r="192" ht="12.75" customHeight="1">
       <c r="E192" s="2"/>
       <c r="H192" s="16"/>
       <c r="I192" s="16"/>
     </row>
-    <row r="193" spans="5:9" ht="12.75" customHeight="1">
+    <row r="193" ht="12.75" customHeight="1">
       <c r="E193" s="2"/>
       <c r="H193" s="16"/>
       <c r="I193" s="16"/>
     </row>
-    <row r="194" spans="5:9" ht="12.75" customHeight="1">
+    <row r="194" ht="12.75" customHeight="1">
       <c r="E194" s="2"/>
       <c r="H194" s="16"/>
       <c r="I194" s="16"/>
     </row>
-    <row r="195" spans="5:9" ht="12.75" customHeight="1">
+    <row r="195" ht="12.75" customHeight="1">
       <c r="E195" s="2"/>
       <c r="H195" s="16"/>
       <c r="I195" s="16"/>
     </row>
-    <row r="196" spans="5:9" ht="12.75" customHeight="1">
+    <row r="196" ht="12.75" customHeight="1">
       <c r="E196" s="2"/>
       <c r="H196" s="16"/>
       <c r="I196" s="16"/>
     </row>
-    <row r="197" spans="5:9" ht="12.75" customHeight="1">
+    <row r="197" ht="12.75" customHeight="1">
       <c r="E197" s="2"/>
       <c r="H197" s="16"/>
       <c r="I197" s="16"/>
     </row>
-    <row r="198" spans="5:9" ht="12.75" customHeight="1">
+    <row r="198" ht="12.75" customHeight="1">
       <c r="E198" s="2"/>
       <c r="H198" s="16"/>
       <c r="I198" s="16"/>
     </row>
-    <row r="199" spans="5:9" ht="12.75" customHeight="1">
+    <row r="199" ht="12.75" customHeight="1">
       <c r="E199" s="2"/>
       <c r="H199" s="16"/>
       <c r="I199" s="16"/>
     </row>
-    <row r="200" spans="5:9" ht="12.75" customHeight="1">
+    <row r="200" ht="12.75" customHeight="1">
       <c r="E200" s="2"/>
       <c r="H200" s="16"/>
       <c r="I200" s="16"/>
     </row>
-    <row r="201" spans="5:9" ht="12.75" customHeight="1">
+    <row r="201" ht="12.75" customHeight="1">
       <c r="E201" s="2"/>
       <c r="H201" s="16"/>
       <c r="I201" s="16"/>
     </row>
-    <row r="202" spans="5:9" ht="12.75" customHeight="1">
+    <row r="202" ht="12.75" customHeight="1">
       <c r="E202" s="2"/>
       <c r="H202" s="16"/>
       <c r="I202" s="16"/>
     </row>
-    <row r="203" spans="5:9" ht="12.75" customHeight="1">
+    <row r="203" ht="12.75" customHeight="1">
       <c r="E203" s="2"/>
       <c r="H203" s="16"/>
       <c r="I203" s="16"/>
     </row>
-    <row r="204" spans="5:9" ht="12.75" customHeight="1">
+    <row r="204" ht="12.75" customHeight="1">
       <c r="E204" s="2"/>
       <c r="H204" s="16"/>
       <c r="I204" s="16"/>
     </row>
-    <row r="205" spans="5:9" ht="12.75" customHeight="1">
+    <row r="205" ht="12.75" customHeight="1">
       <c r="E205" s="2"/>
       <c r="H205" s="16"/>
       <c r="I205" s="16"/>
     </row>
-    <row r="206" spans="5:9" ht="12.75" customHeight="1">
+    <row r="206" ht="12.75" customHeight="1">
       <c r="E206" s="2"/>
       <c r="H206" s="16"/>
       <c r="I206" s="16"/>
     </row>
-    <row r="207" spans="5:9" ht="12.75" customHeight="1">
+    <row r="207" ht="12.75" customHeight="1">
       <c r="E207" s="2"/>
       <c r="H207" s="16"/>
       <c r="I207" s="16"/>
     </row>
-    <row r="208" spans="5:9" ht="12.75" customHeight="1">
+    <row r="208" ht="12.75" customHeight="1">
       <c r="E208" s="2"/>
       <c r="H208" s="16"/>
       <c r="I208" s="16"/>
     </row>
-    <row r="209" spans="5:9" ht="12.75" customHeight="1">
+    <row r="209" ht="12.75" customHeight="1">
       <c r="E209" s="2"/>
       <c r="H209" s="16"/>
       <c r="I209" s="16"/>
     </row>
-    <row r="210" spans="5:9" ht="12.75" customHeight="1">
+    <row r="210" ht="12.75" customHeight="1">
       <c r="E210" s="2"/>
       <c r="H210" s="16"/>
       <c r="I210" s="16"/>
     </row>
-    <row r="211" spans="5:9" ht="12.75" customHeight="1">
+    <row r="211" ht="12.75" customHeight="1">
       <c r="E211" s="2"/>
       <c r="H211" s="16"/>
       <c r="I211" s="16"/>
     </row>
-    <row r="212" spans="5:9" ht="12.75" customHeight="1">
+    <row r="212" ht="12.75" customHeight="1">
       <c r="E212" s="2"/>
       <c r="H212" s="16"/>
       <c r="I212" s="16"/>
     </row>
-    <row r="213" spans="5:9" ht="12.75" customHeight="1">
+    <row r="213" ht="12.75" customHeight="1">
       <c r="E213" s="2"/>
       <c r="H213" s="16"/>
       <c r="I213" s="16"/>
     </row>
-    <row r="214" spans="5:9" ht="12.75" customHeight="1">
+    <row r="214" ht="12.75" customHeight="1">
       <c r="E214" s="2"/>
       <c r="H214" s="16"/>
       <c r="I214" s="16"/>
     </row>
-    <row r="215" spans="5:9" ht="12.75" customHeight="1">
+    <row r="215" ht="12.75" customHeight="1">
       <c r="E215" s="2"/>
       <c r="H215" s="16"/>
       <c r="I215" s="16"/>
     </row>
-    <row r="216" spans="5:9" ht="12.75" customHeight="1">
+    <row r="216" ht="12.75" customHeight="1">
       <c r="E216" s="2"/>
       <c r="H216" s="16"/>
       <c r="I216" s="16"/>
     </row>
-    <row r="217" spans="5:9" ht="12.75" customHeight="1">
+    <row r="217" ht="12.75" customHeight="1">
       <c r="E217" s="2"/>
       <c r="H217" s="16"/>
       <c r="I217" s="16"/>
     </row>
-    <row r="218" spans="5:9" ht="12.75" customHeight="1">
+    <row r="218" ht="12.75" customHeight="1">
       <c r="E218" s="2"/>
       <c r="H218" s="16"/>
       <c r="I218" s="16"/>
     </row>
-    <row r="219" spans="5:9" ht="12.75" customHeight="1">
+    <row r="219" ht="12.75" customHeight="1">
       <c r="E219" s="2"/>
       <c r="H219" s="16"/>
       <c r="I219" s="16"/>
     </row>
-    <row r="220" spans="5:9" ht="12.75" customHeight="1">
+    <row r="220" ht="12.75" customHeight="1">
       <c r="E220" s="2"/>
       <c r="H220" s="16"/>
       <c r="I220" s="16"/>
     </row>
-    <row r="221" spans="5:9" ht="12.75" customHeight="1">
+    <row r="221" ht="12.75" customHeight="1">
       <c r="E221" s="2"/>
       <c r="H221" s="16"/>
       <c r="I221" s="16"/>
     </row>
-    <row r="222" spans="5:9" ht="12.75" customHeight="1">
+    <row r="222" ht="12.75" customHeight="1">
       <c r="E222" s="2"/>
       <c r="H222" s="16"/>
       <c r="I222" s="16"/>
     </row>
-    <row r="223" spans="5:9" ht="12.75" customHeight="1">
+    <row r="223" ht="12.75" customHeight="1">
       <c r="E223" s="2"/>
       <c r="H223" s="16"/>
       <c r="I223" s="16"/>
     </row>
-    <row r="224" spans="5:9" ht="12.75" customHeight="1">
+    <row r="224" ht="12.75" customHeight="1">
       <c r="E224" s="2"/>
       <c r="H224" s="16"/>
       <c r="I224" s="16"/>
     </row>
-    <row r="225" spans="5:9" ht="12.75" customHeight="1">
+    <row r="225" ht="12.75" customHeight="1">
       <c r="E225" s="2"/>
       <c r="H225" s="16"/>
       <c r="I225" s="16"/>
     </row>
-    <row r="226" spans="5:9" ht="12.75" customHeight="1">
+    <row r="226" ht="12.75" customHeight="1">
       <c r="E226" s="2"/>
       <c r="H226" s="16"/>
       <c r="I226" s="16"/>
     </row>
-    <row r="227" spans="5:9" ht="12.75" customHeight="1">
+    <row r="227" ht="12.75" customHeight="1">
       <c r="E227" s="2"/>
       <c r="H227" s="16"/>
       <c r="I227" s="16"/>
     </row>
-    <row r="228" spans="5:9" ht="12.75" customHeight="1">
+    <row r="228" ht="12.75" customHeight="1">
       <c r="E228" s="2"/>
       <c r="H228" s="16"/>
       <c r="I228" s="16"/>
     </row>
-    <row r="229" spans="5:9" ht="12.75" customHeight="1">
+    <row r="229" ht="12.75" customHeight="1">
       <c r="E229" s="2"/>
       <c r="H229" s="16"/>
       <c r="I229" s="16"/>
     </row>
-    <row r="230" spans="5:9" ht="12.75" customHeight="1">
+    <row r="230" ht="12.75" customHeight="1">
       <c r="E230" s="2"/>
       <c r="H230" s="16"/>
       <c r="I230" s="16"/>
     </row>
-    <row r="231" spans="5:9" ht="12.75" customHeight="1">
+    <row r="231" ht="12.75" customHeight="1">
       <c r="E231" s="2"/>
       <c r="H231" s="16"/>
       <c r="I231" s="16"/>
     </row>
-    <row r="232" spans="5:9" ht="12.75" customHeight="1">
+    <row r="232" ht="12.75" customHeight="1">
       <c r="E232" s="2"/>
       <c r="H232" s="16"/>
       <c r="I232" s="16"/>
     </row>
-    <row r="233" spans="5:9" ht="12.75" customHeight="1">
+    <row r="233" ht="12.75" customHeight="1">
       <c r="E233" s="2"/>
       <c r="H233" s="16"/>
       <c r="I233" s="16"/>
     </row>
-    <row r="234" spans="5:9" ht="12.75" customHeight="1">
+    <row r="234" ht="12.75" customHeight="1">
       <c r="E234" s="2"/>
       <c r="H234" s="16"/>
       <c r="I234" s="16"/>
     </row>
-    <row r="235" spans="5:9" ht="12.75" customHeight="1">
+    <row r="235" ht="12.75" customHeight="1">
       <c r="E235" s="2"/>
       <c r="H235" s="16"/>
       <c r="I235" s="16"/>
     </row>
-    <row r="236" spans="5:9" ht="12.75" customHeight="1">
+    <row r="236" ht="12.75" customHeight="1">
       <c r="E236" s="2"/>
       <c r="H236" s="16"/>
       <c r="I236" s="16"/>
     </row>
-    <row r="237" spans="5:9" ht="12.75" customHeight="1">
+    <row r="237" ht="12.75" customHeight="1">
       <c r="E237" s="2"/>
       <c r="H237" s="16"/>
       <c r="I237" s="16"/>
     </row>
-    <row r="238" spans="5:9" ht="12.75" customHeight="1">
+    <row r="238" ht="12.75" customHeight="1">
       <c r="E238" s="2"/>
       <c r="H238" s="16"/>
       <c r="I238" s="16"/>
     </row>
-    <row r="239" spans="5:9" ht="12.75" customHeight="1">
+    <row r="239" ht="12.75" customHeight="1">
       <c r="E239" s="2"/>
       <c r="H239" s="16"/>
       <c r="I239" s="16"/>
     </row>
-    <row r="240" spans="5:9" ht="12.75" customHeight="1">
+    <row r="240" ht="12.75" customHeight="1">
       <c r="E240" s="2"/>
       <c r="H240" s="16"/>
       <c r="I240" s="16"/>
     </row>
-    <row r="241" spans="5:9" ht="12.75" customHeight="1">
+    <row r="241" ht="12.75" customHeight="1">
       <c r="E241" s="2"/>
       <c r="H241" s="16"/>
       <c r="I241" s="16"/>
     </row>
-    <row r="242" spans="5:9" ht="12.75" customHeight="1">
+    <row r="242" ht="12.75" customHeight="1">
       <c r="E242" s="2"/>
       <c r="H242" s="16"/>
       <c r="I242" s="16"/>
     </row>
-    <row r="243" spans="5:9" ht="12.75" customHeight="1">
+    <row r="243" ht="12.75" customHeight="1">
       <c r="E243" s="2"/>
       <c r="H243" s="16"/>
       <c r="I243" s="16"/>
     </row>
-    <row r="244" spans="5:9" ht="12.75" customHeight="1">
+    <row r="244" ht="12.75" customHeight="1">
       <c r="E244" s="2"/>
       <c r="H244" s="16"/>
       <c r="I244" s="16"/>
     </row>
-    <row r="245" spans="5:9" ht="12.75" customHeight="1">
+    <row r="245" ht="12.75" customHeight="1">
       <c r="E245" s="2"/>
       <c r="H245" s="16"/>
       <c r="I245" s="16"/>
     </row>
-    <row r="246" spans="5:9" ht="12.75" customHeight="1">
+    <row r="246" ht="12.75" customHeight="1">
       <c r="E246" s="2"/>
       <c r="H246" s="16"/>
       <c r="I246" s="16"/>
     </row>
-    <row r="247" spans="5:9" ht="12.75" customHeight="1">
+    <row r="247" ht="12.75" customHeight="1">
       <c r="E247" s="2"/>
       <c r="H247" s="16"/>
       <c r="I247" s="16"/>
     </row>
-    <row r="248" spans="5:9" ht="12.75" customHeight="1">
+    <row r="248" ht="12.75" customHeight="1">
       <c r="E248" s="2"/>
       <c r="H248" s="16"/>
       <c r="I248" s="16"/>
     </row>
-    <row r="249" spans="5:9" ht="12.75" customHeight="1">
+    <row r="249" ht="12.75" customHeight="1">
       <c r="E249" s="2"/>
       <c r="H249" s="16"/>
       <c r="I249" s="16"/>
     </row>
-    <row r="250" spans="5:9" ht="12.75" customHeight="1">
+    <row r="250" ht="12.75" customHeight="1">
       <c r="E250" s="2"/>
       <c r="H250" s="16"/>
       <c r="I250" s="16"/>
     </row>
-    <row r="251" spans="5:9" ht="12.75" customHeight="1">
+    <row r="251" ht="12.75" customHeight="1">
       <c r="E251" s="2"/>
       <c r="H251" s="16"/>
       <c r="I251" s="16"/>
     </row>
-    <row r="252" spans="5:9" ht="12.75" customHeight="1">
+    <row r="252" ht="12.75" customHeight="1">
       <c r="E252" s="2"/>
       <c r="H252" s="16"/>
       <c r="I252" s="16"/>
     </row>
-    <row r="253" spans="5:9" ht="12.75" customHeight="1">
+    <row r="253" ht="12.75" customHeight="1">
       <c r="E253" s="2"/>
       <c r="H253" s="16"/>
       <c r="I253" s="16"/>
     </row>
-    <row r="254" spans="5:9" ht="12.75" customHeight="1">
+    <row r="254" ht="12.75" customHeight="1">
       <c r="E254" s="2"/>
       <c r="H254" s="16"/>
       <c r="I254" s="16"/>
     </row>
-    <row r="255" spans="5:9" ht="12.75" customHeight="1">
+    <row r="255" ht="12.75" customHeight="1">
       <c r="E255" s="2"/>
       <c r="H255" s="16"/>
       <c r="I255" s="16"/>
     </row>
-    <row r="256" spans="5:9" ht="12.75" customHeight="1">
+    <row r="256" ht="12.75" customHeight="1">
       <c r="E256" s="2"/>
       <c r="H256" s="16"/>
       <c r="I256" s="16"/>
     </row>
-    <row r="257" spans="5:9" ht="12.75" customHeight="1">
+    <row r="257" ht="12.75" customHeight="1">
       <c r="E257" s="2"/>
       <c r="H257" s="16"/>
       <c r="I257" s="16"/>
     </row>
-    <row r="258" spans="5:9" ht="12.75" customHeight="1">
+    <row r="258" ht="12.75" customHeight="1">
       <c r="E258" s="2"/>
       <c r="H258" s="16"/>
       <c r="I258" s="16"/>
     </row>
-    <row r="259" spans="5:9" ht="12.75" customHeight="1">
+    <row r="259" ht="12.75" customHeight="1">
       <c r="E259" s="2"/>
       <c r="H259" s="16"/>
       <c r="I259" s="16"/>
     </row>
-    <row r="260" spans="5:9" ht="12.75" customHeight="1">
+    <row r="260" ht="12.75" customHeight="1">
       <c r="E260" s="2"/>
       <c r="H260" s="16"/>
       <c r="I260" s="16"/>
     </row>
-    <row r="261" spans="5:9" ht="12.75" customHeight="1">
+    <row r="261" ht="12.75" customHeight="1">
       <c r="E261" s="2"/>
       <c r="H261" s="16"/>
       <c r="I261" s="16"/>
     </row>
-    <row r="262" spans="5:9" ht="12.75" customHeight="1">
+    <row r="262" ht="12.75" customHeight="1">
       <c r="E262" s="2"/>
       <c r="H262" s="16"/>
       <c r="I262" s="16"/>
     </row>
-    <row r="263" spans="5:9" ht="12.75" customHeight="1">
+    <row r="263" ht="12.75" customHeight="1">
       <c r="E263" s="2"/>
       <c r="H263" s="16"/>
       <c r="I263" s="16"/>
     </row>
-    <row r="264" spans="5:9" ht="12.75" customHeight="1">
+    <row r="264" ht="12.75" customHeight="1">
       <c r="E264" s="2"/>
       <c r="H264" s="16"/>
       <c r="I264" s="16"/>
     </row>
-    <row r="265" spans="5:9" ht="12.75" customHeight="1">
+    <row r="265" ht="12.75" customHeight="1">
       <c r="E265" s="2"/>
       <c r="H265" s="16"/>
       <c r="I265" s="16"/>
     </row>
-    <row r="266" spans="5:9" ht="12.75" customHeight="1">
+    <row r="266" ht="12.75" customHeight="1">
       <c r="E266" s="2"/>
       <c r="H266" s="16"/>
       <c r="I266" s="16"/>
     </row>
-    <row r="267" spans="5:9" ht="12.75" customHeight="1">
+    <row r="267" ht="12.75" customHeight="1">
       <c r="E267" s="2"/>
       <c r="H267" s="16"/>
       <c r="I267" s="16"/>
     </row>
-    <row r="268" spans="5:9" ht="12.75" customHeight="1">
+    <row r="268" ht="12.75" customHeight="1">
       <c r="E268" s="2"/>
       <c r="H268" s="16"/>
       <c r="I268" s="16"/>
     </row>
-    <row r="269" spans="5:9" ht="12.75" customHeight="1">
+    <row r="269" ht="12.75" customHeight="1">
       <c r="E269" s="2"/>
       <c r="H269" s="16"/>
       <c r="I269" s="16"/>
     </row>
-    <row r="270" spans="5:9" ht="12.75" customHeight="1">
+    <row r="270" ht="12.75" customHeight="1">
       <c r="E270" s="2"/>
       <c r="H270" s="16"/>
       <c r="I270" s="16"/>
     </row>
-    <row r="271" spans="5:9" ht="12.75" customHeight="1">
+    <row r="271" ht="12.75" customHeight="1">
       <c r="E271" s="2"/>
       <c r="H271" s="16"/>
       <c r="I271" s="16"/>
     </row>
-    <row r="272" spans="5:9" ht="12.75" customHeight="1">
+    <row r="272" ht="12.75" customHeight="1">
       <c r="E272" s="2"/>
       <c r="H272" s="16"/>
       <c r="I272" s="16"/>
     </row>
-    <row r="273" spans="5:9" ht="12.75" customHeight="1">
+    <row r="273" ht="12.75" customHeight="1">
       <c r="E273" s="2"/>
       <c r="H273" s="16"/>
       <c r="I273" s="16"/>
     </row>
-    <row r="274" spans="5:9" ht="12.75" customHeight="1">
+    <row r="274" ht="12.75" customHeight="1">
       <c r="E274" s="2"/>
       <c r="H274" s="16"/>
       <c r="I274" s="16"/>
     </row>
-    <row r="275" spans="5:9" ht="12.75" customHeight="1">
+    <row r="275" ht="12.75" customHeight="1">
       <c r="E275" s="2"/>
       <c r="H275" s="16"/>
       <c r="I275" s="16"/>
     </row>
-    <row r="276" spans="5:9" ht="12.75" customHeight="1">
+    <row r="276" ht="12.75" customHeight="1">
       <c r="E276" s="2"/>
       <c r="H276" s="16"/>
       <c r="I276" s="16"/>
     </row>
-    <row r="277" spans="5:9" ht="12.75" customHeight="1">
+    <row r="277" ht="12.75" customHeight="1">
       <c r="E277" s="2"/>
       <c r="H277" s="16"/>
       <c r="I277" s="16"/>
     </row>
-    <row r="278" spans="5:9" ht="12.75" customHeight="1">
+    <row r="278" ht="12.75" customHeight="1">
       <c r="E278" s="2"/>
       <c r="H278" s="16"/>
       <c r="I278" s="16"/>
     </row>
-    <row r="279" spans="5:9" ht="12.75" customHeight="1">
+    <row r="279" ht="12.75" customHeight="1">
       <c r="E279" s="2"/>
       <c r="H279" s="16"/>
       <c r="I279" s="16"/>
     </row>
-    <row r="280" spans="5:9" ht="12.75" customHeight="1">
+    <row r="280" ht="12.75" customHeight="1">
       <c r="E280" s="2"/>
       <c r="H280" s="16"/>
       <c r="I280" s="16"/>
     </row>
-    <row r="281" spans="5:9" ht="12.75" customHeight="1">
+    <row r="281" ht="12.75" customHeight="1">
       <c r="E281" s="2"/>
       <c r="H281" s="16"/>
       <c r="I281" s="16"/>
     </row>
-    <row r="282" spans="5:9" ht="12.75" customHeight="1">
+    <row r="282" ht="12.75" customHeight="1">
       <c r="E282" s="2"/>
       <c r="H282" s="16"/>
       <c r="I282" s="16"/>
     </row>
-    <row r="283" spans="5:9" ht="12.75" customHeight="1">
+    <row r="283" ht="12.75" customHeight="1">
       <c r="E283" s="2"/>
       <c r="H283" s="16"/>
       <c r="I283" s="16"/>
     </row>
-    <row r="284" spans="5:9" ht="12.75" customHeight="1">
+    <row r="284" ht="12.75" customHeight="1">
       <c r="E284" s="2"/>
       <c r="H284" s="16"/>
       <c r="I284" s="16"/>
     </row>
-    <row r="285" spans="5:9" ht="12.75" customHeight="1">
+    <row r="285" ht="12.75" customHeight="1">
       <c r="E285" s="2"/>
       <c r="H285" s="16"/>
       <c r="I285" s="16"/>
     </row>
-    <row r="286" spans="5:9" ht="12.75" customHeight="1">
+    <row r="286" ht="12.75" customHeight="1">
       <c r="E286" s="2"/>
       <c r="H286" s="16"/>
       <c r="I286" s="16"/>
     </row>
-    <row r="287" spans="5:9" ht="12.75" customHeight="1">
+    <row r="287" ht="12.75" customHeight="1">
       <c r="E287" s="2"/>
       <c r="H287" s="16"/>
       <c r="I287" s="16"/>
     </row>
-    <row r="288" spans="5:9" ht="12.75" customHeight="1">
+    <row r="288" ht="12.75" customHeight="1">
       <c r="E288" s="2"/>
       <c r="H288" s="16"/>
       <c r="I288" s="16"/>
     </row>
-    <row r="289" spans="5:9" ht="12.75" customHeight="1">
+    <row r="289" ht="12.75" customHeight="1">
       <c r="E289" s="2"/>
       <c r="H289" s="16"/>
       <c r="I289" s="16"/>
     </row>
-    <row r="290" spans="5:9" ht="12.75" customHeight="1">
+    <row r="290" ht="12.75" customHeight="1">
       <c r="E290" s="2"/>
       <c r="H290" s="16"/>
       <c r="I290" s="16"/>
     </row>
-    <row r="291" spans="5:9" ht="12.75" customHeight="1">
+    <row r="291" ht="12.75" customHeight="1">
       <c r="E291" s="2"/>
       <c r="H291" s="16"/>
       <c r="I291" s="16"/>
     </row>
-    <row r="292" spans="5:9" ht="12.75" customHeight="1">
+    <row r="292" ht="12.75" customHeight="1">
       <c r="E292" s="2"/>
       <c r="H292" s="16"/>
       <c r="I292" s="16"/>
     </row>
-    <row r="293" spans="5:9" ht="12.75" customHeight="1">
+    <row r="293" ht="12.75" customHeight="1">
       <c r="E293" s="2"/>
       <c r="H293" s="16"/>
       <c r="I293" s="16"/>
     </row>
-    <row r="294" spans="5:9" ht="12.75" customHeight="1">
+    <row r="294" ht="12.75" customHeight="1">
       <c r="E294" s="2"/>
       <c r="H294" s="16"/>
       <c r="I294" s="16"/>
     </row>
-    <row r="295" spans="5:9" ht="12.75" customHeight="1">
+    <row r="295" ht="12.75" customHeight="1">
       <c r="E295" s="2"/>
       <c r="H295" s="16"/>
       <c r="I295" s="16"/>
     </row>
-    <row r="296" spans="5:9" ht="12.75" customHeight="1">
+    <row r="296" ht="12.75" customHeight="1">
       <c r="E296" s="2"/>
       <c r="H296" s="16"/>
       <c r="I296" s="16"/>
     </row>
-    <row r="297" spans="5:9" ht="12.75" customHeight="1">
+    <row r="297" ht="12.75" customHeight="1">
       <c r="E297" s="2"/>
       <c r="H297" s="16"/>
       <c r="I297" s="16"/>
     </row>
-    <row r="298" spans="5:9" ht="12.75" customHeight="1">
+    <row r="298" ht="12.75" customHeight="1">
       <c r="E298" s="2"/>
       <c r="H298" s="16"/>
       <c r="I298" s="16"/>
     </row>
-    <row r="299" spans="5:9" ht="12.75" customHeight="1">
+    <row r="299" ht="12.75" customHeight="1">
       <c r="E299" s="2"/>
       <c r="H299" s="16"/>
       <c r="I299" s="16"/>
     </row>
-    <row r="300" spans="5:9" ht="12.75" customHeight="1">
+    <row r="300" ht="12.75" customHeight="1">
       <c r="E300" s="2"/>
       <c r="H300" s="16"/>
       <c r="I300" s="16"/>
     </row>
-    <row r="301" spans="5:9" ht="12.75" customHeight="1">
+    <row r="301" ht="12.75" customHeight="1">
       <c r="E301" s="2"/>
       <c r="H301" s="16"/>
       <c r="I301" s="16"/>
     </row>
-    <row r="302" spans="5:9" ht="12.75" customHeight="1">
+    <row r="302" ht="12.75" customHeight="1">
       <c r="E302" s="2"/>
       <c r="H302" s="16"/>
       <c r="I302" s="16"/>
     </row>
-    <row r="303" spans="5:9" ht="12.75" customHeight="1">
+    <row r="303" ht="12.75" customHeight="1">
       <c r="E303" s="2"/>
       <c r="H303" s="16"/>
       <c r="I303" s="16"/>
     </row>
-    <row r="304" spans="5:9" ht="12.75" customHeight="1">
+    <row r="304" ht="12.75" customHeight="1">
       <c r="E304" s="2"/>
       <c r="H304" s="16"/>
       <c r="I304" s="16"/>
     </row>
-    <row r="305" spans="5:9" ht="12.75" customHeight="1">
+    <row r="305" ht="12.75" customHeight="1">
       <c r="E305" s="2"/>
       <c r="H305" s="16"/>
       <c r="I305" s="16"/>
     </row>
-    <row r="306" spans="5:9" ht="12.75" customHeight="1">
+    <row r="306" ht="12.75" customHeight="1">
       <c r="E306" s="2"/>
       <c r="H306" s="16"/>
       <c r="I306" s="16"/>
     </row>
-    <row r="307" spans="5:9" ht="12.75" customHeight="1">
+    <row r="307" ht="12.75" customHeight="1">
       <c r="E307" s="2"/>
       <c r="H307" s="16"/>
       <c r="I307" s="16"/>
     </row>
-    <row r="308" spans="5:9" ht="12.75" customHeight="1">
+    <row r="308" ht="12.75" customHeight="1">
       <c r="E308" s="2"/>
       <c r="H308" s="16"/>
       <c r="I308" s="16"/>
     </row>
-    <row r="309" spans="5:9" ht="12.75" customHeight="1">
+    <row r="309" ht="12.75" customHeight="1">
       <c r="E309" s="2"/>
       <c r="H309" s="16"/>
       <c r="I309" s="16"/>
     </row>
-    <row r="310" spans="5:9" ht="12.75" customHeight="1">
+    <row r="310" ht="12.75" customHeight="1">
       <c r="E310" s="2"/>
       <c r="H310" s="16"/>
       <c r="I310" s="16"/>
     </row>
-    <row r="311" spans="5:9" ht="12.75" customHeight="1">
+    <row r="311" ht="12.75" customHeight="1">
       <c r="E311" s="2"/>
       <c r="H311" s="16"/>
       <c r="I311" s="16"/>
     </row>
-    <row r="312" spans="5:9" ht="12.75" customHeight="1">
+    <row r="312" ht="12.75" customHeight="1">
       <c r="E312" s="2"/>
       <c r="H312" s="16"/>
       <c r="I312" s="16"/>
     </row>
-    <row r="313" spans="5:9" ht="12.75" customHeight="1">
+    <row r="313" ht="12.75" customHeight="1">
       <c r="E313" s="2"/>
       <c r="H313" s="16"/>
       <c r="I313" s="16"/>
     </row>
-    <row r="314" spans="5:9" ht="12.75" customHeight="1">
+    <row r="314" ht="12.75" customHeight="1">
       <c r="E314" s="2"/>
       <c r="H314" s="16"/>
       <c r="I314" s="16"/>
     </row>
-    <row r="315" spans="5:9" ht="12.75" customHeight="1">
+    <row r="315" ht="12.75" customHeight="1">
       <c r="E315" s="2"/>
       <c r="H315" s="16"/>
       <c r="I315" s="16"/>
     </row>
-    <row r="316" spans="5:9" ht="12.75" customHeight="1">
+    <row r="316" ht="12.75" customHeight="1">
       <c r="E316" s="2"/>
       <c r="H316" s="16"/>
       <c r="I316" s="16"/>
     </row>
-    <row r="317" spans="5:9" ht="12.75" customHeight="1">
+    <row r="317" ht="12.75" customHeight="1">
       <c r="E317" s="2"/>
       <c r="H317" s="16"/>
       <c r="I317" s="16"/>
     </row>
-    <row r="318" spans="5:9" ht="12.75" customHeight="1">
+    <row r="318" ht="12.75" customHeight="1">
       <c r="E318" s="2"/>
       <c r="H318" s="16"/>
       <c r="I318" s="16"/>
     </row>
-    <row r="319" spans="5:9" ht="12.75" customHeight="1">
+    <row r="319" ht="12.75" customHeight="1">
       <c r="E319" s="2"/>
       <c r="H319" s="16"/>
       <c r="I319" s="16"/>
     </row>
-    <row r="320" spans="5:9" ht="12.75" customHeight="1">
+    <row r="320" ht="12.75" customHeight="1">
       <c r="E320" s="2"/>
       <c r="H320" s="16"/>
       <c r="I320" s="16"/>
     </row>
-    <row r="321" spans="5:9" ht="12.75" customHeight="1">
+    <row r="321" ht="12.75" customHeight="1">
       <c r="E321" s="2"/>
       <c r="H321" s="16"/>
       <c r="I321" s="16"/>
     </row>
-    <row r="322" spans="5:9" ht="12.75" customHeight="1">
+    <row r="322" ht="12.75" customHeight="1">
       <c r="E322" s="2"/>
       <c r="H322" s="16"/>
       <c r="I322" s="16"/>
     </row>
-    <row r="323" spans="5:9" ht="12.75" customHeight="1">
+    <row r="323" ht="12.75" customHeight="1">
       <c r="E323" s="2"/>
       <c r="H323" s="16"/>
       <c r="I323" s="16"/>
     </row>
-    <row r="324" spans="5:9" ht="12.75" customHeight="1">
+    <row r="324" ht="12.75" customHeight="1">
       <c r="E324" s="2"/>
       <c r="H324" s="16"/>
       <c r="I324" s="16"/>
     </row>
-    <row r="325" spans="5:9" ht="12.75" customHeight="1">
+    <row r="325" ht="12.75" customHeight="1">
       <c r="E325" s="2"/>
       <c r="H325" s="16"/>
       <c r="I325" s="16"/>
     </row>
-    <row r="326" spans="5:9" ht="12.75" customHeight="1">
+    <row r="326" ht="12.75" customHeight="1">
       <c r="E326" s="2"/>
       <c r="H326" s="16"/>
       <c r="I326" s="16"/>
     </row>
-    <row r="327" spans="5:9" ht="12.75" customHeight="1">
+    <row r="327" ht="12.75" customHeight="1">
       <c r="E327" s="2"/>
       <c r="H327" s="16"/>
       <c r="I327" s="16"/>
     </row>
-    <row r="328" spans="5:9" ht="12.75" customHeight="1">
+    <row r="328" ht="12.75" customHeight="1">
       <c r="E328" s="2"/>
       <c r="H328" s="16"/>
       <c r="I328" s="16"/>
     </row>
-    <row r="329" spans="5:9" ht="12.75" customHeight="1">
+    <row r="329" ht="12.75" customHeight="1">
       <c r="E329" s="2"/>
       <c r="H329" s="16"/>
       <c r="I329" s="16"/>
     </row>
-    <row r="330" spans="5:9" ht="12.75" customHeight="1">
+    <row r="330" ht="12.75" customHeight="1">
       <c r="E330" s="2"/>
       <c r="H330" s="16"/>
       <c r="I330" s="16"/>
     </row>
-    <row r="331" spans="5:9" ht="12.75" customHeight="1">
+    <row r="331" ht="12.75" customHeight="1">
       <c r="E331" s="2"/>
       <c r="H331" s="16"/>
       <c r="I331" s="16"/>
     </row>
-    <row r="332" spans="5:9" ht="12.75" customHeight="1">
+    <row r="332" ht="12.75" customHeight="1">
       <c r="E332" s="2"/>
       <c r="H332" s="16"/>
       <c r="I332" s="16"/>
     </row>
-    <row r="333" spans="5:9" ht="12.75" customHeight="1">
+    <row r="333" ht="12.75" customHeight="1">
       <c r="E333" s="2"/>
       <c r="H333" s="16"/>
       <c r="I333" s="16"/>
     </row>
-    <row r="334" spans="5:9" ht="12.75" customHeight="1">
+    <row r="334" ht="12.75" customHeight="1">
       <c r="E334" s="2"/>
       <c r="H334" s="16"/>
       <c r="I334" s="16"/>
     </row>
-    <row r="335" spans="5:9" ht="12.75" customHeight="1">
+    <row r="335" ht="12.75" customHeight="1">
       <c r="E335" s="2"/>
       <c r="H335" s="16"/>
       <c r="I335" s="16"/>
     </row>
-    <row r="336" spans="5:9" ht="12.75" customHeight="1">
+    <row r="336" ht="12.75" customHeight="1">
       <c r="E336" s="2"/>
       <c r="H336" s="16"/>
       <c r="I336" s="16"/>
     </row>
-    <row r="337" spans="5:9" ht="12.75" customHeight="1">
+    <row r="337" ht="12.75" customHeight="1">
       <c r="E337" s="2"/>
       <c r="H337" s="16"/>
       <c r="I337" s="16"/>
     </row>
-    <row r="338" spans="5:9" ht="12.75" customHeight="1">
+    <row r="338" ht="12.75" customHeight="1">
       <c r="E338" s="2"/>
       <c r="H338" s="16"/>
       <c r="I338" s="16"/>
     </row>
-    <row r="339" spans="5:9" ht="12.75" customHeight="1">
+    <row r="339" ht="12.75" customHeight="1">
       <c r="E339" s="2"/>
       <c r="H339" s="16"/>
       <c r="I339" s="16"/>
     </row>
-    <row r="340" spans="5:9" ht="12.75" customHeight="1">
+    <row r="340" ht="12.75" customHeight="1">
       <c r="E340" s="2"/>
       <c r="H340" s="16"/>
       <c r="I340" s="16"/>
     </row>
-    <row r="341" spans="5:9" ht="12.75" customHeight="1">
+    <row r="341" ht="12.75" customHeight="1">
       <c r="E341" s="2"/>
       <c r="H341" s="16"/>
       <c r="I341" s="16"/>
     </row>
-    <row r="342" spans="5:9" ht="12.75" customHeight="1">
+    <row r="342" ht="12.75" customHeight="1">
       <c r="E342" s="2"/>
       <c r="H342" s="16"/>
       <c r="I342" s="16"/>
     </row>
-    <row r="343" spans="5:9" ht="12.75" customHeight="1">
+    <row r="343" ht="12.75" customHeight="1">
       <c r="E343" s="2"/>
       <c r="H343" s="16"/>
       <c r="I343" s="16"/>
     </row>
-    <row r="344" spans="5:9" ht="12.75" customHeight="1">
+    <row r="344" ht="12.75" customHeight="1">
       <c r="E344" s="2"/>
       <c r="H344" s="16"/>
       <c r="I344" s="16"/>
     </row>
-    <row r="345" spans="5:9" ht="12.75" customHeight="1">
+    <row r="345" ht="12.75" customHeight="1">
       <c r="E345" s="2"/>
       <c r="H345" s="16"/>
       <c r="I345" s="16"/>
     </row>
-    <row r="346" spans="5:9" ht="12.75" customHeight="1">
+    <row r="346" ht="12.75" customHeight="1">
       <c r="E346" s="2"/>
       <c r="H346" s="16"/>
       <c r="I346" s="16"/>
     </row>
-    <row r="347" spans="5:9" ht="12.75" customHeight="1">
+    <row r="347" ht="12.75" customHeight="1">
       <c r="E347" s="2"/>
       <c r="H347" s="16"/>
       <c r="I347" s="16"/>
     </row>
-    <row r="348" spans="5:9" ht="12.75" customHeight="1">
+    <row r="348" ht="12.75" customHeight="1">
       <c r="E348" s="2"/>
       <c r="H348" s="16"/>
       <c r="I348" s="16"/>
     </row>
-    <row r="349" spans="5:9" ht="12.75" customHeight="1">
+    <row r="349" ht="12.75" customHeight="1">
       <c r="E349" s="2"/>
       <c r="H349" s="16"/>
       <c r="I349" s="16"/>
     </row>
-    <row r="350" spans="5:9" ht="12.75" customHeight="1">
+    <row r="350" ht="12.75" customHeight="1">
       <c r="E350" s="2"/>
       <c r="H350" s="16"/>
       <c r="I350" s="16"/>
     </row>
-    <row r="351" spans="5:9" ht="12.75" customHeight="1">
+    <row r="351" ht="12.75" customHeight="1">
       <c r="E351" s="2"/>
       <c r="H351" s="16"/>
       <c r="I351" s="16"/>
     </row>
-    <row r="352" spans="5:9" ht="12.75" customHeight="1">
+    <row r="352" ht="12.75" customHeight="1">
       <c r="E352" s="2"/>
       <c r="H352" s="16"/>
       <c r="I352" s="16"/>
     </row>
-    <row r="353" spans="5:9" ht="12.75" customHeight="1">
+    <row r="353" ht="12.75" customHeight="1">
       <c r="E353" s="2"/>
       <c r="H353" s="16"/>
       <c r="I353" s="16"/>
     </row>
-    <row r="354" spans="5:9" ht="12.75" customHeight="1">
+    <row r="354" ht="12.75" customHeight="1">
       <c r="E354" s="2"/>
       <c r="H354" s="16"/>
       <c r="I354" s="16"/>
     </row>
-    <row r="355" spans="5:9" ht="12.75" customHeight="1">
+    <row r="355" ht="12.75" customHeight="1">
       <c r="E355" s="2"/>
       <c r="H355" s="16"/>
       <c r="I355" s="16"/>
     </row>
-    <row r="356" spans="5:9" ht="12.75" customHeight="1">
+    <row r="356" ht="12.75" customHeight="1">
       <c r="E356" s="2"/>
       <c r="H356" s="16"/>
       <c r="I356" s="16"/>
     </row>
-    <row r="357" spans="5:9" ht="12.75" customHeight="1">
+    <row r="357" ht="12.75" customHeight="1">
       <c r="E357" s="2"/>
       <c r="H357" s="16"/>
       <c r="I357" s="16"/>
     </row>
-    <row r="358" spans="5:9" ht="12.75" customHeight="1">
+    <row r="358" ht="12.75" customHeight="1">
       <c r="E358" s="2"/>
       <c r="H358" s="16"/>
       <c r="I358" s="16"/>
     </row>
-    <row r="359" spans="5:9" ht="12.75" customHeight="1">
+    <row r="359" ht="12.75" customHeight="1">
       <c r="E359" s="2"/>
       <c r="H359" s="16"/>
       <c r="I359" s="16"/>
     </row>
-    <row r="360" spans="5:9" ht="12.75" customHeight="1">
+    <row r="360" ht="12.75" customHeight="1">
       <c r="E360" s="2"/>
       <c r="H360" s="16"/>
       <c r="I360" s="16"/>
     </row>
-    <row r="361" spans="5:9" ht="12.75" customHeight="1">
+    <row r="361" ht="12.75" customHeight="1">
       <c r="E361" s="2"/>
       <c r="H361" s="16"/>
       <c r="I361" s="16"/>
     </row>
-    <row r="362" spans="5:9" ht="12.75" customHeight="1">
+    <row r="362" ht="12.75" customHeight="1">
       <c r="E362" s="2"/>
       <c r="H362" s="16"/>
       <c r="I362" s="16"/>
     </row>
-    <row r="363" spans="5:9" ht="12.75" customHeight="1">
+    <row r="363" ht="12.75" customHeight="1">
       <c r="E363" s="2"/>
       <c r="H363" s="16"/>
       <c r="I363" s="16"/>
     </row>
-    <row r="364" spans="5:9" ht="12.75" customHeight="1">
+    <row r="364" ht="12.75" customHeight="1">
       <c r="E364" s="2"/>
       <c r="H364" s="16"/>
       <c r="I364" s="16"/>
     </row>
-    <row r="365" spans="5:9" ht="12.75" customHeight="1">
+    <row r="365" ht="12.75" customHeight="1">
       <c r="E365" s="2"/>
       <c r="H365" s="16"/>
       <c r="I365" s="16"/>
     </row>
-    <row r="366" spans="5:9" ht="12.75" customHeight="1">
+    <row r="366" ht="12.75" customHeight="1">
       <c r="E366" s="2"/>
       <c r="H366" s="16"/>
       <c r="I366" s="16"/>
     </row>
-    <row r="367" spans="5:9" ht="12.75" customHeight="1">
+    <row r="367" ht="12.75" customHeight="1">
       <c r="E367" s="2"/>
       <c r="H367" s="16"/>
       <c r="I367" s="16"/>
     </row>
-    <row r="368" spans="5:9" ht="12.75" customHeight="1">
+    <row r="368" ht="12.75" customHeight="1">
       <c r="E368" s="2"/>
       <c r="H368" s="16"/>
       <c r="I368" s="16"/>
     </row>
-    <row r="369" spans="5:9" ht="12.75" customHeight="1">
+    <row r="369" ht="12.75" customHeight="1">
       <c r="E369" s="2"/>
       <c r="H369" s="16"/>
       <c r="I369" s="16"/>
     </row>
-    <row r="370" spans="5:9" ht="12.75" customHeight="1">
+    <row r="370" ht="12.75" customHeight="1">
       <c r="E370" s="2"/>
       <c r="H370" s="16"/>
       <c r="I370" s="16"/>
     </row>
-    <row r="371" spans="5:9" ht="12.75" customHeight="1">
+    <row r="371" ht="12.75" customHeight="1">
       <c r="E371" s="2"/>
       <c r="H371" s="16"/>
       <c r="I371" s="16"/>
     </row>
-    <row r="372" spans="5:9" ht="12.75" customHeight="1">
+    <row r="372" ht="12.75" customHeight="1">
       <c r="E372" s="2"/>
       <c r="H372" s="16"/>
       <c r="I372" s="16"/>
     </row>
-    <row r="373" spans="5:9" ht="12.75" customHeight="1">
+    <row r="373" ht="12.75" customHeight="1">
       <c r="E373" s="2"/>
       <c r="H373" s="16"/>
       <c r="I373" s="16"/>
     </row>
-    <row r="374" spans="5:9" ht="12.75" customHeight="1">
+    <row r="374" ht="12.75" customHeight="1">
       <c r="E374" s="2"/>
       <c r="H374" s="16"/>
       <c r="I374" s="16"/>
     </row>
-    <row r="375" spans="5:9" ht="12.75" customHeight="1">
+    <row r="375" ht="12.75" customHeight="1">
       <c r="E375" s="2"/>
       <c r="H375" s="16"/>
       <c r="I375" s="16"/>
     </row>
-    <row r="376" spans="5:9" ht="12.75" customHeight="1">
+    <row r="376" ht="12.75" customHeight="1">
       <c r="E376" s="2"/>
       <c r="H376" s="16"/>
       <c r="I376" s="16"/>
     </row>
-    <row r="377" spans="5:9" ht="12.75" customHeight="1">
+    <row r="377" ht="12.75" customHeight="1">
       <c r="E377" s="2"/>
       <c r="H377" s="16"/>
       <c r="I377" s="16"/>
     </row>
-    <row r="378" spans="5:9" ht="12.75" customHeight="1">
+    <row r="378" ht="12.75" customHeight="1">
       <c r="E378" s="2"/>
       <c r="H378" s="16"/>
       <c r="I378" s="16"/>
     </row>
-    <row r="379" spans="5:9" ht="12.75" customHeight="1">
+    <row r="379" ht="12.75" customHeight="1">
       <c r="E379" s="2"/>
       <c r="H379" s="16"/>
       <c r="I379" s="16"/>
     </row>
-    <row r="380" spans="5:9" ht="12.75" customHeight="1">
+    <row r="380" ht="12.75" customHeight="1">
       <c r="E380" s="2"/>
       <c r="H380" s="16"/>
       <c r="I380" s="16"/>
     </row>
-    <row r="381" spans="5:9" ht="12.75" customHeight="1">
+    <row r="381" ht="12.75" customHeight="1">
       <c r="E381" s="2"/>
       <c r="H381" s="16"/>
       <c r="I381" s="16"/>
     </row>
-    <row r="382" spans="5:9" ht="12.75" customHeight="1">
+    <row r="382" ht="12.75" customHeight="1">
       <c r="E382" s="2"/>
       <c r="H382" s="16"/>
       <c r="I382" s="16"/>
     </row>
-    <row r="383" spans="5:9" ht="12.75" customHeight="1">
+    <row r="383" ht="12.75" customHeight="1">
       <c r="E383" s="2"/>
       <c r="H383" s="16"/>
       <c r="I383" s="16"/>
     </row>
-    <row r="384" spans="5:9" ht="12.75" customHeight="1">
+    <row r="384" ht="12.75" customHeight="1">
       <c r="E384" s="2"/>
       <c r="H384" s="16"/>
       <c r="I384" s="16"/>
     </row>
-    <row r="385" spans="5:9" ht="12.75" customHeight="1">
+    <row r="385" ht="12.75" customHeight="1">
       <c r="E385" s="2"/>
       <c r="H385" s="16"/>
       <c r="I385" s="16"/>
     </row>
-    <row r="386" spans="5:9" ht="12.75" customHeight="1">
+    <row r="386" ht="12.75" customHeight="1">
       <c r="E386" s="2"/>
       <c r="H386" s="16"/>
       <c r="I386" s="16"/>
     </row>
-    <row r="387" spans="5:9" ht="12.75" customHeight="1">
+    <row r="387" ht="12.75" customHeight="1">
       <c r="E387" s="2"/>
       <c r="H387" s="16"/>
       <c r="I387" s="16"/>
     </row>
-    <row r="388" spans="5:9" ht="12.75" customHeight="1">
+    <row r="388" ht="12.75" customHeight="1">
       <c r="E388" s="2"/>
       <c r="H388" s="16"/>
       <c r="I388" s="16"/>
     </row>
-    <row r="389" spans="5:9" ht="12.75" customHeight="1">
+    <row r="389" ht="12.75" customHeight="1">
       <c r="E389" s="2"/>
       <c r="H389" s="16"/>
       <c r="I389" s="16"/>
     </row>
-    <row r="390" spans="5:9" ht="12.75" customHeight="1">
+    <row r="390" ht="12.75" customHeight="1">
       <c r="E390" s="2"/>
       <c r="H390" s="16"/>
       <c r="I390" s="16"/>
     </row>
-    <row r="391" spans="5:9" ht="12.75" customHeight="1">
+    <row r="391" ht="12.75" customHeight="1">
       <c r="E391" s="2"/>
       <c r="H391" s="16"/>
       <c r="I391" s="16"/>
     </row>
-    <row r="392" spans="5:9" ht="12.75" customHeight="1">
+    <row r="392" ht="12.75" customHeight="1">
       <c r="E392" s="2"/>
       <c r="H392" s="16"/>
       <c r="I392" s="16"/>
     </row>
-    <row r="393" spans="5:9" ht="12.75" customHeight="1">
+    <row r="393" ht="12.75" customHeight="1">
       <c r="E393" s="2"/>
       <c r="H393" s="16"/>
       <c r="I393" s="16"/>
     </row>
-    <row r="394" spans="5:9" ht="12.75" customHeight="1">
+    <row r="394" ht="12.75" customHeight="1">
       <c r="E394" s="2"/>
       <c r="H394" s="16"/>
       <c r="I394" s="16"/>
     </row>
-    <row r="395" spans="5:9" ht="12.75" customHeight="1">
+    <row r="395" ht="12.75" customHeight="1">
       <c r="E395" s="2"/>
       <c r="H395" s="16"/>
       <c r="I395" s="16"/>
     </row>
-    <row r="396" spans="5:9" ht="12.75" customHeight="1">
+    <row r="396" ht="12.75" customHeight="1">
       <c r="E396" s="2"/>
       <c r="H396" s="16"/>
       <c r="I396" s="16"/>
     </row>
-    <row r="397" spans="5:9" ht="12.75" customHeight="1">
+    <row r="397" ht="12.75" customHeight="1">
       <c r="E397" s="2"/>
       <c r="H397" s="16"/>
       <c r="I397" s="16"/>
     </row>
-    <row r="398" spans="5:9" ht="12.75" customHeight="1">
+    <row r="398" ht="12.75" customHeight="1">
       <c r="E398" s="2"/>
       <c r="H398" s="16"/>
       <c r="I398" s="16"/>
     </row>
-    <row r="399" spans="5:9" ht="12.75" customHeight="1">
+    <row r="399" ht="12.75" customHeight="1">
       <c r="E399" s="2"/>
       <c r="H399" s="16"/>
       <c r="I399" s="16"/>
     </row>
-    <row r="400" spans="5:9" ht="12.75" customHeight="1">
+    <row r="400" ht="12.75" customHeight="1">
       <c r="E400" s="2"/>
       <c r="H400" s="16"/>
       <c r="I400" s="16"/>
     </row>
-    <row r="401" spans="5:9" ht="12.75" customHeight="1">
+    <row r="401" ht="12.75" customHeight="1">
       <c r="E401" s="2"/>
       <c r="H401" s="16"/>
       <c r="I401" s="16"/>
     </row>
-    <row r="402" spans="5:9" ht="12.75" customHeight="1">
+    <row r="402" ht="12.75" customHeight="1">
       <c r="E402" s="2"/>
       <c r="H402" s="16"/>
       <c r="I402" s="16"/>
     </row>
-    <row r="403" spans="5:9" ht="12.75" customHeight="1">
+    <row r="403" ht="12.75" customHeight="1">
       <c r="E403" s="2"/>
       <c r="H403" s="16"/>
       <c r="I403" s="16"/>
     </row>
-    <row r="404" spans="5:9" ht="12.75" customHeight="1">
+    <row r="404" ht="12.75" customHeight="1">
       <c r="E404" s="2"/>
       <c r="H404" s="16"/>
       <c r="I404" s="16"/>
     </row>
-    <row r="405" spans="5:9" ht="12.75" customHeight="1">
+    <row r="405" ht="12.75" customHeight="1">
       <c r="E405" s="2"/>
       <c r="H405" s="16"/>
       <c r="I405" s="16"/>
     </row>
-    <row r="406" spans="5:9" ht="12.75" customHeight="1">
+    <row r="406" ht="12.75" customHeight="1">
       <c r="E406" s="2"/>
       <c r="H406" s="16"/>
       <c r="I406" s="16"/>
     </row>
-    <row r="407" spans="5:9" ht="12.75" customHeight="1">
+    <row r="407" ht="12.75" customHeight="1">
       <c r="E407" s="2"/>
       <c r="H407" s="16"/>
       <c r="I407" s="16"/>
     </row>
-    <row r="408" spans="5:9" ht="12.75" customHeight="1">
+    <row r="408" ht="12.75" customHeight="1">
       <c r="E408" s="2"/>
       <c r="H408" s="16"/>
       <c r="I408" s="16"/>
     </row>
-    <row r="409" spans="5:9" ht="12.75" customHeight="1">
+    <row r="409" ht="12.75" customHeight="1">
       <c r="E409" s="2"/>
       <c r="H409" s="16"/>
       <c r="I409" s="16"/>
     </row>
-    <row r="410" spans="5:9" ht="12.75" customHeight="1">
+    <row r="410" ht="12.75" customHeight="1">
       <c r="E410" s="2"/>
       <c r="H410" s="16"/>
       <c r="I410" s="16"/>
     </row>
-    <row r="411" spans="5:9" ht="12.75" customHeight="1">
+    <row r="411" ht="12.75" customHeight="1">
       <c r="E411" s="2"/>
       <c r="H411" s="16"/>
       <c r="I411" s="16"/>
     </row>
-    <row r="412" spans="5:9" ht="12.75" customHeight="1">
+    <row r="412" ht="12.75" customHeight="1">
       <c r="E412" s="2"/>
       <c r="H412" s="16"/>
       <c r="I412" s="16"/>
     </row>
-    <row r="413" spans="5:9" ht="12.75" customHeight="1">
+    <row r="413" ht="12.75" customHeight="1">
       <c r="E413" s="2"/>
       <c r="H413" s="16"/>
       <c r="I413" s="16"/>
     </row>
-    <row r="414" spans="5:9" ht="12.75" customHeight="1">
+    <row r="414" ht="12.75" customHeight="1">
       <c r="E414" s="2"/>
       <c r="H414" s="16"/>
       <c r="I414" s="16"/>
     </row>
-    <row r="415" spans="5:9" ht="12.75" customHeight="1">
+    <row r="415" ht="12.75" customHeight="1">
       <c r="E415" s="2"/>
       <c r="H415" s="16"/>
       <c r="I415" s="16"/>
     </row>
-    <row r="416" spans="5:9" ht="12.75" customHeight="1">
+    <row r="416" ht="12.75" customHeight="1">
       <c r="E416" s="2"/>
       <c r="H416" s="16"/>
       <c r="I416" s="16"/>
     </row>
-    <row r="417" spans="5:9" ht="12.75" customHeight="1">
+    <row r="417" ht="12.75" customHeight="1">
       <c r="E417" s="2"/>
       <c r="H417" s="16"/>
       <c r="I417" s="16"/>
     </row>
-    <row r="418" spans="5:9" ht="12.75" customHeight="1">
+    <row r="418" ht="12.75" customHeight="1">
       <c r="E418" s="2"/>
       <c r="H418" s="16"/>
       <c r="I418" s="16"/>
     </row>
-    <row r="419" spans="5:9" ht="12.75" customHeight="1">
+    <row r="419" ht="12.75" customHeight="1">
       <c r="E419" s="2"/>
       <c r="H419" s="16"/>
       <c r="I419" s="16"/>
     </row>
-    <row r="420" spans="5:9" ht="12.75" customHeight="1">
+    <row r="420" ht="12.75" customHeight="1">
       <c r="E420" s="2"/>
       <c r="H420" s="16"/>
       <c r="I420" s="16"/>
     </row>
-    <row r="421" spans="5:9" ht="12.75" customHeight="1">
+    <row r="421" ht="12.75" customHeight="1">
       <c r="E421" s="2"/>
       <c r="H421" s="16"/>
       <c r="I421" s="16"/>
     </row>
-    <row r="422" spans="5:9" ht="12.75" customHeight="1">
+    <row r="422" ht="12.75" customHeight="1">
       <c r="E422" s="2"/>
       <c r="H422" s="16"/>
       <c r="I422" s="16"/>
     </row>
-    <row r="423" spans="5:9" ht="12.75" customHeight="1">
+    <row r="423" ht="12.75" customHeight="1">
       <c r="E423" s="2"/>
       <c r="H423" s="16"/>
       <c r="I423" s="16"/>
     </row>
-    <row r="424" spans="5:9" ht="12.75" customHeight="1">
+    <row r="424" ht="12.75" customHeight="1">
       <c r="E424" s="2"/>
       <c r="H424" s="16"/>
       <c r="I424" s="16"/>
     </row>
-    <row r="425" spans="5:9" ht="12.75" customHeight="1">
+    <row r="425" ht="12.75" customHeight="1">
       <c r="E425" s="2"/>
       <c r="H425" s="16"/>
       <c r="I425" s="16"/>
     </row>
-    <row r="426" spans="5:9" ht="12.75" customHeight="1">
+    <row r="426" ht="12.75" customHeight="1">
       <c r="E426" s="2"/>
       <c r="H426" s="16"/>
       <c r="I426" s="16"/>
     </row>
-    <row r="427" spans="5:9" ht="12.75" customHeight="1">
+    <row r="427" ht="12.75" customHeight="1">
       <c r="E427" s="2"/>
       <c r="H427" s="16"/>
       <c r="I427" s="16"/>
     </row>
-    <row r="428" spans="5:9" ht="12.75" customHeight="1">
+    <row r="428" ht="12.75" customHeight="1">
       <c r="E428" s="2"/>
       <c r="H428" s="16"/>
       <c r="I428" s="16"/>
     </row>
-    <row r="429" spans="5:9" ht="12.75" customHeight="1">
+    <row r="429" ht="12.75" customHeight="1">
       <c r="E429" s="2"/>
       <c r="H429" s="16"/>
       <c r="I429" s="16"/>
     </row>
-    <row r="430" spans="5:9" ht="12.75" customHeight="1">
+    <row r="430" ht="12.75" customHeight="1">
       <c r="E430" s="2"/>
       <c r="H430" s="16"/>
       <c r="I430" s="16"/>
     </row>
-    <row r="431" spans="5:9" ht="12.75" customHeight="1">
+    <row r="431" ht="12.75" customHeight="1">
       <c r="E431" s="2"/>
       <c r="H431" s="16"/>
       <c r="I431" s="16"/>
     </row>
-    <row r="432" spans="5:9" ht="12.75" customHeight="1">
+    <row r="432" ht="12.75" customHeight="1">
       <c r="E432" s="2"/>
       <c r="H432" s="16"/>
       <c r="I432" s="16"/>
     </row>
-    <row r="433" spans="5:9" ht="12.75" customHeight="1">
+    <row r="433" ht="12.75" customHeight="1">
       <c r="E433" s="2"/>
       <c r="H433" s="16"/>
       <c r="I433" s="16"/>
     </row>
-    <row r="434" spans="5:9" ht="12.75" customHeight="1">
+    <row r="434" ht="12.75" customHeight="1">
       <c r="E434" s="2"/>
       <c r="H434" s="16"/>
       <c r="I434" s="16"/>
     </row>
-    <row r="435" spans="5:9" ht="12.75" customHeight="1">
+    <row r="435" ht="12.75" customHeight="1">
       <c r="E435" s="2"/>
       <c r="H435" s="16"/>
       <c r="I435" s="16"/>
     </row>
-    <row r="436" spans="5:9" ht="12.75" customHeight="1">
+    <row r="436" ht="12.75" customHeight="1">
       <c r="E436" s="2"/>
       <c r="H436" s="16"/>
       <c r="I436" s="16"/>
     </row>
-    <row r="437" spans="5:9" ht="12.75" customHeight="1">
+    <row r="437" ht="12.75" customHeight="1">
       <c r="E437" s="2"/>
       <c r="H437" s="16"/>
       <c r="I437" s="16"/>
     </row>
-    <row r="438" spans="5:9" ht="12.75" customHeight="1">
+    <row r="438" ht="12.75" customHeight="1">
       <c r="E438" s="2"/>
       <c r="H438" s="16"/>
       <c r="I438" s="16"/>
     </row>
-    <row r="439" spans="5:9" ht="12.75" customHeight="1">
+    <row r="439" ht="12.75" customHeight="1">
       <c r="E439" s="2"/>
       <c r="H439" s="16"/>
       <c r="I439" s="16"/>
     </row>
-    <row r="440" spans="5:9" ht="12.75" customHeight="1">
+    <row r="440" ht="12.75" customHeight="1">
       <c r="E440" s="2"/>
       <c r="H440" s="16"/>
       <c r="I440" s="16"/>
     </row>
-    <row r="441" spans="5:9" ht="12.75" customHeight="1">
+    <row r="441" ht="12.75" customHeight="1">
       <c r="E441" s="2"/>
       <c r="H441" s="16"/>
       <c r="I441" s="16"/>
     </row>
-    <row r="442" spans="5:9" ht="12.75" customHeight="1">
+    <row r="442" ht="12.75" customHeight="1">
       <c r="E442" s="2"/>
       <c r="H442" s="16"/>
       <c r="I442" s="16"/>
     </row>
-    <row r="443" spans="5:9" ht="12.75" customHeight="1">
+    <row r="443" ht="12.75" customHeight="1">
       <c r="E443" s="2"/>
       <c r="H443" s="16"/>
       <c r="I443" s="16"/>
     </row>
-    <row r="444" spans="5:9" ht="12.75" customHeight="1">
+    <row r="444" ht="12.75" customHeight="1">
       <c r="E444" s="2"/>
       <c r="H444" s="16"/>
       <c r="I444" s="16"/>
     </row>
-    <row r="445" spans="5:9" ht="12.75" customHeight="1">
+    <row r="445" ht="12.75" customHeight="1">
       <c r="E445" s="2"/>
       <c r="H445" s="16"/>
       <c r="I445" s="16"/>
     </row>
-    <row r="446" spans="5:9" ht="12.75" customHeight="1">
+    <row r="446" ht="12.75" customHeight="1">
       <c r="E446" s="2"/>
       <c r="H446" s="16"/>
       <c r="I446" s="16"/>
     </row>
-    <row r="447" spans="5:9" ht="12.75" customHeight="1">
+    <row r="447" ht="12.75" customHeight="1">
       <c r="E447" s="2"/>
       <c r="H447" s="16"/>
       <c r="I447" s="16"/>
     </row>
-    <row r="448" spans="5:9" ht="12.75" customHeight="1">
+    <row r="448" ht="12.75" customHeight="1">
       <c r="E448" s="2"/>
       <c r="H448" s="16"/>
       <c r="I448" s="16"/>
     </row>
-    <row r="449" spans="5:9" ht="12.75" customHeight="1">
+    <row r="449" ht="12.75" customHeight="1">
       <c r="E449" s="2"/>
       <c r="H449" s="16"/>
       <c r="I449" s="16"/>
     </row>
-    <row r="450" spans="5:9" ht="12.75" customHeight="1">
+    <row r="450" ht="12.75" customHeight="1">
       <c r="E450" s="2"/>
       <c r="H450" s="16"/>
       <c r="I450" s="16"/>
     </row>
-    <row r="451" spans="5:9" ht="12.75" customHeight="1">
+    <row r="451" ht="12.75" customHeight="1">
       <c r="E451" s="2"/>
       <c r="H451" s="16"/>
       <c r="I451" s="16"/>
     </row>
-    <row r="452" spans="5:9" ht="12.75" customHeight="1">
+    <row r="452" ht="12.75" customHeight="1">
       <c r="E452" s="2"/>
       <c r="H452" s="16"/>
       <c r="I452" s="16"/>
     </row>
-    <row r="453" spans="5:9" ht="12.75" customHeight="1">
+    <row r="453" ht="12.75" customHeight="1">
       <c r="E453" s="2"/>
       <c r="H453" s="16"/>
       <c r="I453" s="16"/>
     </row>
-    <row r="454" spans="5:9" ht="12.75" customHeight="1">
+    <row r="454" ht="12.75" customHeight="1">
       <c r="E454" s="2"/>
       <c r="H454" s="16"/>
       <c r="I454" s="16"/>
     </row>
-    <row r="455" spans="5:9" ht="12.75" customHeight="1">
+    <row r="455" ht="12.75" customHeight="1">
       <c r="E455" s="2"/>
       <c r="H455" s="16"/>
       <c r="I455" s="16"/>
     </row>
-    <row r="456" spans="5:9" ht="12.75" customHeight="1">
+    <row r="456" ht="12.75" customHeight="1">
       <c r="E456" s="2"/>
       <c r="H456" s="16"/>
       <c r="I456" s="16"/>
     </row>
-    <row r="457" spans="5:9" ht="12.75" customHeight="1">
+    <row r="457" ht="12.75" customHeight="1">
       <c r="E457" s="2"/>
       <c r="H457" s="16"/>
       <c r="I457" s="16"/>
     </row>
-    <row r="458" spans="5:9" ht="12.75" customHeight="1">
+    <row r="458" ht="12.75" customHeight="1">
       <c r="E458" s="2"/>
       <c r="H458" s="16"/>
       <c r="I458" s="16"/>
     </row>
-    <row r="459" spans="5:9" ht="12.75" customHeight="1">
+    <row r="459" ht="12.75" customHeight="1">
       <c r="E459" s="2"/>
       <c r="H459" s="16"/>
       <c r="I459" s="16"/>
     </row>
-    <row r="460" spans="5:9" ht="12.75" customHeight="1">
+    <row r="460" ht="12.75" customHeight="1">
       <c r="E460" s="2"/>
       <c r="H460" s="16"/>
       <c r="I460" s="16"/>
     </row>
-    <row r="461" spans="5:9" ht="12.75" customHeight="1">
+    <row r="461" ht="12.75" customHeight="1">
       <c r="E461" s="2"/>
       <c r="H461" s="16"/>
       <c r="I461" s="16"/>
     </row>
-    <row r="462" spans="5:9" ht="12.75" customHeight="1">
+    <row r="462" ht="12.75" customHeight="1">
       <c r="E462" s="2"/>
       <c r="H462" s="16"/>
       <c r="I462" s="16"/>
     </row>
-    <row r="463" spans="5:9" ht="12.75" customHeight="1">
+    <row r="463" ht="12.75" customHeight="1">
       <c r="E463" s="2"/>
       <c r="H463" s="16"/>
       <c r="I463" s="16"/>
     </row>
-    <row r="464" spans="5:9" ht="12.75" customHeight="1">
+    <row r="464" ht="12.75" customHeight="1">
       <c r="E464" s="2"/>
       <c r="H464" s="16"/>
       <c r="I464" s="16"/>
     </row>
-    <row r="465" spans="5:9" ht="12.75" customHeight="1">
+    <row r="465" ht="12.75" customHeight="1">
       <c r="E465" s="2"/>
       <c r="H465" s="16"/>
       <c r="I465" s="16"/>
     </row>
-    <row r="466" spans="5:9" ht="12.75" customHeight="1">
+    <row r="466" ht="12.75" customHeight="1">
       <c r="E466" s="2"/>
       <c r="H466" s="16"/>
       <c r="I466" s="16"/>
     </row>
-    <row r="467" spans="5:9" ht="12.75" customHeight="1">
+    <row r="467" ht="12.75" customHeight="1">
       <c r="E467" s="2"/>
       <c r="H467" s="16"/>
       <c r="I467" s="16"/>
     </row>
-    <row r="468" spans="5:9" ht="12.75" customHeight="1">
+    <row r="468" ht="12.75" customHeight="1">
       <c r="E468" s="2"/>
       <c r="H468" s="16"/>
       <c r="I468" s="16"/>
     </row>
-    <row r="469" spans="5:9" ht="12.75" customHeight="1">
+    <row r="469" ht="12.75" customHeight="1">
       <c r="E469" s="2"/>
       <c r="H469" s="16"/>
       <c r="I469" s="16"/>
     </row>
-    <row r="470" spans="5:9" ht="12.75" customHeight="1">
+    <row r="470" ht="12.75" customHeight="1">
       <c r="E470" s="2"/>
       <c r="H470" s="16"/>
       <c r="I470" s="16"/>
     </row>
-    <row r="471" spans="5:9" ht="12.75" customHeight="1">
+    <row r="471" ht="12.75" customHeight="1">
       <c r="E471" s="2"/>
       <c r="H471" s="16"/>
       <c r="I471" s="16"/>
     </row>
-    <row r="472" spans="5:9" ht="12.75" customHeight="1">
+    <row r="472" ht="12.75" customHeight="1">
       <c r="E472" s="2"/>
       <c r="H472" s="16"/>
       <c r="I472" s="16"/>
     </row>
-    <row r="473" spans="5:9" ht="12.75" customHeight="1">
+    <row r="473" ht="12.75" customHeight="1">
       <c r="E473" s="2"/>
       <c r="H473" s="16"/>
       <c r="I473" s="16"/>
     </row>
-    <row r="474" spans="5:9" ht="12.75" customHeight="1">
+    <row r="474" ht="12.75" customHeight="1">
       <c r="E474" s="2"/>
       <c r="H474" s="16"/>
       <c r="I474" s="16"/>
     </row>
-    <row r="475" spans="5:9" ht="12.75" customHeight="1">
+    <row r="475" ht="12.75" customHeight="1">
       <c r="E475" s="2"/>
       <c r="H475" s="16"/>
       <c r="I475" s="16"/>
     </row>
-    <row r="476" spans="5:9" ht="12.75" customHeight="1">
+    <row r="476" ht="12.75" customHeight="1">
       <c r="E476" s="2"/>
       <c r="H476" s="16"/>
       <c r="I476" s="16"/>
     </row>
-    <row r="477" spans="5:9" ht="12.75" customHeight="1">
+    <row r="477" ht="12.75" customHeight="1">
       <c r="E477" s="2"/>
       <c r="H477" s="16"/>
       <c r="I477" s="16"/>
     </row>
-    <row r="478" spans="5:9" ht="12.75" customHeight="1">
+    <row r="478" ht="12.75" customHeight="1">
       <c r="E478" s="2"/>
       <c r="H478" s="16"/>
       <c r="I478" s="16"/>
     </row>
-    <row r="479" spans="5:9" ht="12.75" customHeight="1">
+    <row r="479" ht="12.75" customHeight="1">
       <c r="E479" s="2"/>
       <c r="H479" s="16"/>
       <c r="I479" s="16"/>
     </row>
-    <row r="480" spans="5:9" ht="12.75" customHeight="1">
+    <row r="480" ht="12.75" customHeight="1">
       <c r="E480" s="2"/>
       <c r="H480" s="16"/>
       <c r="I480" s="16"/>
     </row>
-    <row r="481" spans="5:9" ht="12.75" customHeight="1">
+    <row r="481" ht="12.75" customHeight="1">
       <c r="E481" s="2"/>
       <c r="H481" s="16"/>
       <c r="I481" s="16"/>
     </row>
-    <row r="482" spans="5:9" ht="12.75" customHeight="1">
+    <row r="482" ht="12.75" customHeight="1">
       <c r="E482" s="2"/>
       <c r="H482" s="16"/>
       <c r="I482" s="16"/>
     </row>
-    <row r="483" spans="5:9" ht="12.75" customHeight="1">
+    <row r="483" ht="12.75" customHeight="1">
       <c r="E483" s="2"/>
       <c r="H483" s="16"/>
       <c r="I483" s="16"/>
     </row>
-    <row r="484" spans="5:9" ht="12.75" customHeight="1">
+    <row r="484" ht="12.75" customHeight="1">
       <c r="E484" s="2"/>
       <c r="H484" s="16"/>
       <c r="I484" s="16"/>
     </row>
-    <row r="485" spans="5:9" ht="12.75" customHeight="1">
+    <row r="485" ht="12.75" customHeight="1">
       <c r="E485" s="2"/>
       <c r="H485" s="16"/>
       <c r="I485" s="16"/>
     </row>
-    <row r="486" spans="5:9" ht="12.75" customHeight="1">
+    <row r="486" ht="12.75" customHeight="1">
       <c r="E486" s="2"/>
       <c r="H486" s="16"/>
       <c r="I486" s="16"/>
     </row>
-    <row r="487" spans="5:9" ht="12.75" customHeight="1">
+    <row r="487" ht="12.75" customHeight="1">
       <c r="E487" s="2"/>
       <c r="H487" s="16"/>
       <c r="I487" s="16"/>
     </row>
-    <row r="488" spans="5:9" ht="12.75" customHeight="1">
+    <row r="488" ht="12.75" customHeight="1">
       <c r="E488" s="2"/>
       <c r="H488" s="16"/>
       <c r="I488" s="16"/>
     </row>
-    <row r="489" spans="5:9" ht="12.75" customHeight="1">
+    <row r="489" ht="12.75" customHeight="1">
       <c r="E489" s="2"/>
       <c r="H489" s="16"/>
       <c r="I489" s="16"/>
     </row>
-    <row r="490" spans="5:9" ht="12.75" customHeight="1">
+    <row r="490" ht="12.75" customHeight="1">
       <c r="E490" s="2"/>
       <c r="H490" s="16"/>
       <c r="I490" s="16"/>
     </row>
-    <row r="491" spans="5:9" ht="12.75" customHeight="1">
+    <row r="491" ht="12.75" customHeight="1">
       <c r="E491" s="2"/>
       <c r="H491" s="16"/>
       <c r="I491" s="16"/>
     </row>
-    <row r="492" spans="5:9" ht="12.75" customHeight="1">
+    <row r="492" ht="12.75" customHeight="1">
       <c r="E492" s="2"/>
       <c r="H492" s="16"/>
       <c r="I492" s="16"/>
     </row>
-    <row r="493" spans="5:9" ht="12.75" customHeight="1">
+    <row r="493" ht="12.75" customHeight="1">
       <c r="E493" s="2"/>
       <c r="H493" s="16"/>
       <c r="I493" s="16"/>
     </row>
-    <row r="494" spans="5:9" ht="12.75" customHeight="1">
+    <row r="494" ht="12.75" customHeight="1">
       <c r="E494" s="2"/>
       <c r="H494" s="16"/>
       <c r="I494" s="16"/>
     </row>
-    <row r="495" spans="5:9" ht="12.75" customHeight="1">
+    <row r="495" ht="12.75" customHeight="1">
       <c r="E495" s="2"/>
       <c r="H495" s="16"/>
       <c r="I495" s="16"/>
     </row>
-    <row r="496" spans="5:9" ht="12.75" customHeight="1">
+    <row r="496" ht="12.75" customHeight="1">
       <c r="E496" s="2"/>
       <c r="H496" s="16"/>
       <c r="I496" s="16"/>
     </row>
-    <row r="497" spans="5:9" ht="12.75" customHeight="1">
+    <row r="497" ht="12.75" customHeight="1">
       <c r="E497" s="2"/>
       <c r="H497" s="16"/>
       <c r="I497" s="16"/>
     </row>
-    <row r="498" spans="5:9" ht="12.75" customHeight="1">
+    <row r="498" ht="12.75" customHeight="1">
       <c r="E498" s="2"/>
       <c r="H498" s="16"/>
       <c r="I498" s="16"/>
     </row>
-    <row r="499" spans="5:9" ht="12.75" customHeight="1">
+    <row r="499" ht="12.75" customHeight="1">
       <c r="E499" s="2"/>
       <c r="H499" s="16"/>
       <c r="I499" s="16"/>
     </row>
-    <row r="500" spans="5:9" ht="12.75" customHeight="1">
+    <row r="500" ht="12.75" customHeight="1">
       <c r="E500" s="2"/>
       <c r="H500" s="16"/>
       <c r="I500" s="16"/>
     </row>
-    <row r="501" spans="5:9" ht="12.75" customHeight="1">
+    <row r="501" ht="12.75" customHeight="1">
       <c r="E501" s="2"/>
       <c r="H501" s="16"/>
       <c r="I501" s="16"/>
     </row>
-    <row r="502" spans="5:9" ht="12.75" customHeight="1">
+    <row r="502" ht="12.75" customHeight="1">
       <c r="E502" s="2"/>
       <c r="H502" s="16"/>
       <c r="I502" s="16"/>
     </row>
-    <row r="503" spans="5:9" ht="12.75" customHeight="1">
+    <row r="503" ht="12.75" customHeight="1">
       <c r="E503" s="2"/>
       <c r="H503" s="16"/>
       <c r="I503" s="16"/>
     </row>
-    <row r="504" spans="5:9" ht="12.75" customHeight="1">
+    <row r="504" ht="12.75" customHeight="1">
       <c r="E504" s="2"/>
       <c r="H504" s="16"/>
       <c r="I504" s="16"/>
     </row>
-    <row r="505" spans="5:9" ht="12.75" customHeight="1">
+    <row r="505" ht="12.75" customHeight="1">
       <c r="E505" s="2"/>
       <c r="H505" s="16"/>
       <c r="I505" s="16"/>
     </row>
-    <row r="506" spans="5:9" ht="12.75" customHeight="1">
+    <row r="506" ht="12.75" customHeight="1">
       <c r="E506" s="2"/>
       <c r="H506" s="16"/>
       <c r="I506" s="16"/>
     </row>
-    <row r="507" spans="5:9" ht="12.75" customHeight="1">
+    <row r="507" ht="12.75" customHeight="1">
       <c r="E507" s="2"/>
       <c r="H507" s="16"/>
       <c r="I507" s="16"/>
     </row>
-    <row r="508" spans="5:9" ht="12.75" customHeight="1">
+    <row r="508" ht="12.75" customHeight="1">
       <c r="E508" s="2"/>
       <c r="H508" s="16"/>
       <c r="I508" s="16"/>
     </row>
-    <row r="509" spans="5:9" ht="12.75" customHeight="1">
+    <row r="509" ht="12.75" customHeight="1">
       <c r="E509" s="2"/>
       <c r="H509" s="16"/>
       <c r="I509" s="16"/>
     </row>
-    <row r="510" spans="5:9" ht="12.75" customHeight="1">
+    <row r="510" ht="12.75" customHeight="1">
       <c r="E510" s="2"/>
       <c r="H510" s="16"/>
       <c r="I510" s="16"/>
     </row>
-    <row r="511" spans="5:9" ht="12.75" customHeight="1">
+    <row r="511" ht="12.75" customHeight="1">
       <c r="E511" s="2"/>
       <c r="H511" s="16"/>
       <c r="I511" s="16"/>
     </row>
-    <row r="512" spans="5:9" ht="12.75" customHeight="1">
+    <row r="512" ht="12.75" customHeight="1">
       <c r="E512" s="2"/>
       <c r="H512" s="16"/>
       <c r="I512" s="16"/>
     </row>
-    <row r="513" spans="5:9" ht="12.75" customHeight="1">
+    <row r="513" ht="12.75" customHeight="1">
       <c r="E513" s="2"/>
       <c r="H513" s="16"/>
       <c r="I513" s="16"/>
     </row>
-    <row r="514" spans="5:9" ht="12.75" customHeight="1">
+    <row r="514" ht="12.75" customHeight="1">
       <c r="E514" s="2"/>
       <c r="H514" s="16"/>
       <c r="I514" s="16"/>
     </row>
-    <row r="515" spans="5:9" ht="12.75" customHeight="1">
+    <row r="515" ht="12.75" customHeight="1">
       <c r="E515" s="2"/>
       <c r="H515" s="16"/>
       <c r="I515" s="16"/>
     </row>
-    <row r="516" spans="5:9" ht="12.75" customHeight="1">
+    <row r="516" ht="12.75" customHeight="1">
       <c r="E516" s="2"/>
       <c r="H516" s="16"/>
       <c r="I516" s="16"/>
     </row>
-    <row r="517" spans="5:9" ht="12.75" customHeight="1">
+    <row r="517" ht="12.75" customHeight="1">
       <c r="E517" s="2"/>
       <c r="H517" s="16"/>
       <c r="I517" s="16"/>
     </row>
-    <row r="518" spans="5:9" ht="12.75" customHeight="1">
+    <row r="518" ht="12.75" customHeight="1">
       <c r="E518" s="2"/>
       <c r="H518" s="16"/>
       <c r="I518" s="16"/>
     </row>
-    <row r="519" spans="5:9" ht="12.75" customHeight="1">
+    <row r="519" ht="12.75" customHeight="1">
       <c r="E519" s="2"/>
       <c r="H519" s="16"/>
       <c r="I519" s="16"/>
     </row>
-    <row r="520" spans="5:9" ht="12.75" customHeight="1">
+    <row r="520" ht="12.75" customHeight="1">
       <c r="E520" s="2"/>
       <c r="H520" s="16"/>
       <c r="I520" s="16"/>
     </row>
-    <row r="521" spans="5:9" ht="12.75" customHeight="1">
+    <row r="521" ht="12.75" customHeight="1">
       <c r="E521" s="2"/>
       <c r="H521" s="16"/>
       <c r="I521" s="16"/>
     </row>
-    <row r="522" spans="5:9" ht="12.75" customHeight="1">
+    <row r="522" ht="12.75" customHeight="1">
       <c r="E522" s="2"/>
       <c r="H522" s="16"/>
       <c r="I522" s="16"/>
     </row>
-    <row r="523" spans="5:9" ht="12.75" customHeight="1">
+    <row r="523" ht="12.75" customHeight="1">
       <c r="E523" s="2"/>
       <c r="H523" s="16"/>
       <c r="I523" s="16"/>
     </row>
-    <row r="524" spans="5:9" ht="12.75" customHeight="1">
+    <row r="524" ht="12.75" customHeight="1">
       <c r="E524" s="2"/>
       <c r="H524" s="16"/>
       <c r="I524" s="16"/>
     </row>
-    <row r="525" spans="5:9" ht="12.75" customHeight="1">
+    <row r="525" ht="12.75" customHeight="1">
       <c r="E525" s="2"/>
       <c r="H525" s="16"/>
       <c r="I525" s="16"/>
     </row>
-    <row r="526" spans="5:9" ht="12.75" customHeight="1">
+    <row r="526" ht="12.75" customHeight="1">
       <c r="E526" s="2"/>
       <c r="H526" s="16"/>
       <c r="I526" s="16"/>
     </row>
-    <row r="527" spans="5:9" ht="12.75" customHeight="1">
+    <row r="527" ht="12.75" customHeight="1">
       <c r="E527" s="2"/>
       <c r="H527" s="16"/>
       <c r="I527" s="16"/>
     </row>
-    <row r="528" spans="5:9" ht="12.75" customHeight="1">
+    <row r="528" ht="12.75" customHeight="1">
       <c r="E528" s="2"/>
       <c r="H528" s="16"/>
       <c r="I528" s="16"/>
     </row>
-    <row r="529" spans="5:9" ht="12.75" customHeight="1">
+    <row r="529" ht="12.75" customHeight="1">
       <c r="E529" s="2"/>
       <c r="H529" s="16"/>
       <c r="I529" s="16"/>
     </row>
-    <row r="530" spans="5:9" ht="12.75" customHeight="1">
+    <row r="530" ht="12.75" customHeight="1">
       <c r="E530" s="2"/>
       <c r="H530" s="16"/>
       <c r="I530" s="16"/>
     </row>
-    <row r="531" spans="5:9" ht="12.75" customHeight="1">
+    <row r="531" ht="12.75" customHeight="1">
       <c r="E531" s="2"/>
       <c r="H531" s="16"/>
       <c r="I531" s="16"/>
     </row>
-    <row r="532" spans="5:9" ht="12.75" customHeight="1">
+    <row r="532" ht="12.75" customHeight="1">
       <c r="E532" s="2"/>
       <c r="H532" s="16"/>
       <c r="I532" s="16"/>
     </row>
-    <row r="533" spans="5:9" ht="12.75" customHeight="1">
+    <row r="533" ht="12.75" customHeight="1">
       <c r="E533" s="2"/>
       <c r="H533" s="16"/>
       <c r="I533" s="16"/>
     </row>
-    <row r="534" spans="5:9" ht="12.75" customHeight="1">
+    <row r="534" ht="12.75" customHeight="1">
       <c r="E534" s="2"/>
       <c r="H534" s="16"/>
       <c r="I534" s="16"/>
     </row>
-    <row r="535" spans="5:9" ht="12.75" customHeight="1">
+    <row r="535" ht="12.75" customHeight="1">
       <c r="E535" s="2"/>
       <c r="H535" s="16"/>
       <c r="I535" s="16"/>
     </row>
-    <row r="536" spans="5:9" ht="12.75" customHeight="1">
+    <row r="536" ht="12.75" customHeight="1">
       <c r="E536" s="2"/>
       <c r="H536" s="16"/>
       <c r="I536" s="16"/>
     </row>
-    <row r="537" spans="5:9" ht="12.75" customHeight="1">
+    <row r="537" ht="12.75" customHeight="1">
       <c r="E537" s="2"/>
       <c r="H537" s="16"/>
       <c r="I537" s="16"/>
     </row>
-    <row r="538" spans="5:9" ht="12.75" customHeight="1">
+    <row r="538" ht="12.75" customHeight="1">
       <c r="E538" s="2"/>
       <c r="H538" s="16"/>
       <c r="I538" s="16"/>
     </row>
-    <row r="539" spans="5:9" ht="12.75" customHeight="1">
+    <row r="539" ht="12.75" customHeight="1">
       <c r="E539" s="2"/>
       <c r="H539" s="16"/>
       <c r="I539" s="16"/>
     </row>
-    <row r="540" spans="5:9" ht="12.75" customHeight="1">
+    <row r="540" ht="12.75" customHeight="1">
       <c r="E540" s="2"/>
       <c r="H540" s="16"/>
       <c r="I540" s="16"/>
     </row>
-    <row r="541" spans="5:9" ht="12.75" customHeight="1">
+    <row r="541" ht="12.75" customHeight="1">
       <c r="E541" s="2"/>
       <c r="H541" s="16"/>
       <c r="I541" s="16"/>
     </row>
-    <row r="542" spans="5:9" ht="12.75" customHeight="1">
+    <row r="542" ht="12.75" customHeight="1">
       <c r="E542" s="2"/>
       <c r="H542" s="16"/>
       <c r="I542" s="16"/>
     </row>
-    <row r="543" spans="5:9" ht="12.75" customHeight="1">
+    <row r="543" ht="12.75" customHeight="1">
       <c r="E543" s="2"/>
       <c r="H543" s="16"/>
       <c r="I543" s="16"/>
     </row>
-    <row r="544" spans="5:9" ht="12.75" customHeight="1">
+    <row r="544" ht="12.75" customHeight="1">
       <c r="E544" s="2"/>
       <c r="H544" s="16"/>
       <c r="I544" s="16"/>
     </row>
-    <row r="545" spans="5:9" ht="12.75" customHeight="1">
+    <row r="545" ht="12.75" customHeight="1">
       <c r="E545" s="2"/>
       <c r="H545" s="16"/>
       <c r="I545" s="16"/>
     </row>
-    <row r="546" spans="5:9" ht="12.75" customHeight="1">
+    <row r="546" ht="12.75" customHeight="1">
       <c r="E546" s="2"/>
       <c r="H546" s="16"/>
       <c r="I546" s="16"/>
     </row>
-    <row r="547" spans="5:9" ht="12.75" customHeight="1">
+    <row r="547" ht="12.75" customHeight="1">
       <c r="E547" s="2"/>
       <c r="H547" s="16"/>
       <c r="I547" s="16"/>
     </row>
-    <row r="548" spans="5:9" ht="12.75" customHeight="1">
+    <row r="548" ht="12.75" customHeight="1">
       <c r="E548" s="2"/>
       <c r="H548" s="16"/>
       <c r="I548" s="16"/>
     </row>
-    <row r="549" spans="5:9" ht="12.75" customHeight="1">
+    <row r="549" ht="12.75" customHeight="1">
       <c r="E549" s="2"/>
       <c r="H549" s="16"/>
       <c r="I549" s="16"/>
     </row>
-    <row r="550" spans="5:9" ht="12.75" customHeight="1">
+    <row r="550" ht="12.75" customHeight="1">
       <c r="E550" s="2"/>
       <c r="H550" s="16"/>
       <c r="I550" s="16"/>
     </row>
-    <row r="551" spans="5:9" ht="12.75" customHeight="1">
+    <row r="551" ht="12.75" customHeight="1">
       <c r="E551" s="2"/>
       <c r="H551" s="16"/>
       <c r="I551" s="16"/>
     </row>
-    <row r="552" spans="5:9" ht="12.75" customHeight="1">
+    <row r="552" ht="12.75" customHeight="1">
       <c r="E552" s="2"/>
       <c r="H552" s="16"/>
       <c r="I552" s="16"/>
     </row>
-    <row r="553" spans="5:9" ht="12.75" customHeight="1">
+    <row r="553" ht="12.75" customHeight="1">
       <c r="E553" s="2"/>
       <c r="H553" s="16"/>
       <c r="I553" s="16"/>
     </row>
-    <row r="554" spans="5:9" ht="12.75" customHeight="1">
+    <row r="554" ht="12.75" customHeight="1">
       <c r="E554" s="2"/>
       <c r="H554" s="16"/>
       <c r="I554" s="16"/>
     </row>
-    <row r="555" spans="5:9" ht="12.75" customHeight="1">
+    <row r="555" ht="12.75" customHeight="1">
       <c r="E555" s="2"/>
       <c r="H555" s="16"/>
       <c r="I555" s="16"/>
     </row>
-    <row r="556" spans="5:9" ht="12.75" customHeight="1">
+    <row r="556" ht="12.75" customHeight="1">
       <c r="E556" s="2"/>
       <c r="H556" s="16"/>
       <c r="I556" s="16"/>
     </row>
-    <row r="557" spans="5:9" ht="12.75" customHeight="1">
+    <row r="557" ht="12.75" customHeight="1">
       <c r="E557" s="2"/>
       <c r="H557" s="16"/>
       <c r="I557" s="16"/>
     </row>
-    <row r="558" spans="5:9" ht="12.75" customHeight="1">
+    <row r="558" ht="12.75" customHeight="1">
       <c r="E558" s="2"/>
       <c r="H558" s="16"/>
       <c r="I558" s="16"/>
     </row>
-    <row r="559" spans="5:9" ht="12.75" customHeight="1">
+    <row r="559" ht="12.75" customHeight="1">
       <c r="E559" s="2"/>
       <c r="H559" s="16"/>
       <c r="I559" s="16"/>
     </row>
-    <row r="560" spans="5:9" ht="12.75" customHeight="1">
+    <row r="560" ht="12.75" customHeight="1">
       <c r="E560" s="2"/>
       <c r="H560" s="16"/>
       <c r="I560" s="16"/>
     </row>
-    <row r="561" spans="5:9" ht="12.75" customHeight="1">
+    <row r="561" ht="12.75" customHeight="1">
       <c r="E561" s="2"/>
       <c r="H561" s="16"/>
       <c r="I561" s="16"/>
     </row>
-    <row r="562" spans="5:9" ht="12.75" customHeight="1">
+    <row r="562" ht="12.75" customHeight="1">
       <c r="E562" s="2"/>
       <c r="H562" s="16"/>
       <c r="I562" s="16"/>
     </row>
-    <row r="563" spans="5:9" ht="12.75" customHeight="1">
+    <row r="563" ht="12.75" customHeight="1">
       <c r="E563" s="2"/>
       <c r="H563" s="16"/>
       <c r="I563" s="16"/>
     </row>
-    <row r="564" spans="5:9" ht="12.75" customHeight="1">
+    <row r="564" ht="12.75" customHeight="1">
       <c r="E564" s="2"/>
       <c r="H564" s="16"/>
       <c r="I564" s="16"/>
     </row>
-    <row r="565" spans="5:9" ht="12.75" customHeight="1">
+    <row r="565" ht="12.75" customHeight="1">
       <c r="E565" s="2"/>
       <c r="H565" s="16"/>
       <c r="I565" s="16"/>
     </row>
-    <row r="566" spans="5:9" ht="12.75" customHeight="1">
+    <row r="566" ht="12.75" customHeight="1">
       <c r="E566" s="2"/>
       <c r="H566" s="16"/>
       <c r="I566" s="16"/>
     </row>
-    <row r="567" spans="5:9" ht="12.75" customHeight="1">
+    <row r="567" ht="12.75" customHeight="1">
       <c r="E567" s="2"/>
       <c r="H567" s="16"/>
       <c r="I567" s="16"/>
     </row>
-    <row r="568" spans="5:9" ht="12.75" customHeight="1">
+    <row r="568" ht="12.75" customHeight="1">
       <c r="E568" s="2"/>
       <c r="H568" s="16"/>
       <c r="I568" s="16"/>
     </row>
-    <row r="569" spans="5:9" ht="12.75" customHeight="1">
+    <row r="569" ht="12.75" customHeight="1">
       <c r="E569" s="2"/>
       <c r="H569" s="16"/>
       <c r="I569" s="16"/>
     </row>
-    <row r="570" spans="5:9" ht="12.75" customHeight="1">
+    <row r="570" ht="12.75" customHeight="1">
       <c r="E570" s="2"/>
       <c r="H570" s="16"/>
       <c r="I570" s="16"/>
     </row>
-    <row r="571" spans="5:9" ht="12.75" customHeight="1">
+    <row r="571" ht="12.75" customHeight="1">
       <c r="E571" s="2"/>
       <c r="H571" s="16"/>
       <c r="I571" s="16"/>
     </row>
-    <row r="572" spans="5:9" ht="12.75" customHeight="1">
+    <row r="572" ht="12.75" customHeight="1">
       <c r="E572" s="2"/>
       <c r="H572" s="16"/>
       <c r="I572" s="16"/>
     </row>
-    <row r="573" spans="5:9" ht="12.75" customHeight="1">
+    <row r="573" ht="12.75" customHeight="1">
       <c r="E573" s="2"/>
       <c r="H573" s="16"/>
       <c r="I573" s="16"/>
     </row>
-    <row r="574" spans="5:9" ht="12.75" customHeight="1">
+    <row r="574" ht="12.75" customHeight="1">
       <c r="E574" s="2"/>
       <c r="H574" s="16"/>
       <c r="I574" s="16"/>
     </row>
-    <row r="575" spans="5:9" ht="12.75" customHeight="1">
+    <row r="575" ht="12.75" customHeight="1">
       <c r="E575" s="2"/>
       <c r="H575" s="16"/>
       <c r="I575" s="16"/>
     </row>
-    <row r="576" spans="5:9" ht="12.75" customHeight="1">
+    <row r="576" ht="12.75" customHeight="1">
       <c r="E576" s="2"/>
       <c r="H576" s="16"/>
       <c r="I576" s="16"/>
     </row>
-    <row r="577" spans="5:9" ht="12.75" customHeight="1">
+    <row r="577" ht="12.75" customHeight="1">
       <c r="E577" s="2"/>
       <c r="H577" s="16"/>
       <c r="I577" s="16"/>
     </row>
-    <row r="578" spans="5:9" ht="12.75" customHeight="1">
+    <row r="578" ht="12.75" customHeight="1">
       <c r="E578" s="2"/>
       <c r="H578" s="16"/>
       <c r="I578" s="16"/>
     </row>
-    <row r="579" spans="5:9" ht="12.75" customHeight="1">
+    <row r="579" ht="12.75" customHeight="1">
       <c r="E579" s="2"/>
       <c r="H579" s="16"/>
       <c r="I579" s="16"/>
     </row>
-    <row r="580" spans="5:9" ht="12.75" customHeight="1">
+    <row r="580" ht="12.75" customHeight="1">
       <c r="E580" s="2"/>
       <c r="H580" s="16"/>
       <c r="I580" s="16"/>
     </row>
-    <row r="581" spans="5:9" ht="12.75" customHeight="1">
+    <row r="581" ht="12.75" customHeight="1">
       <c r="E581" s="2"/>
       <c r="H581" s="16"/>
       <c r="I581" s="16"/>
     </row>
-    <row r="582" spans="5:9" ht="12.75" customHeight="1">
+    <row r="582" ht="12.75" customHeight="1">
       <c r="E582" s="2"/>
       <c r="H582" s="16"/>
       <c r="I582" s="16"/>
     </row>
-    <row r="583" spans="5:9" ht="12.75" customHeight="1">
+    <row r="583" ht="12.75" customHeight="1">
       <c r="E583" s="2"/>
       <c r="H583" s="16"/>
       <c r="I583" s="16"/>
     </row>
-    <row r="584" spans="5:9" ht="12.75" customHeight="1">
+    <row r="584" ht="12.75" customHeight="1">
       <c r="E584" s="2"/>
       <c r="H584" s="16"/>
       <c r="I584" s="16"/>
     </row>
-    <row r="585" spans="5:9" ht="12.75" customHeight="1">
+    <row r="585" ht="12.75" customHeight="1">
       <c r="E585" s="2"/>
       <c r="H585" s="16"/>
       <c r="I585" s="16"/>
     </row>
-    <row r="586" spans="5:9" ht="12.75" customHeight="1">
+    <row r="586" ht="12.75" customHeight="1">
       <c r="E586" s="2"/>
       <c r="H586" s="16"/>
       <c r="I586" s="16"/>
     </row>
-    <row r="587" spans="5:9" ht="12.75" customHeight="1">
+    <row r="587" ht="12.75" customHeight="1">
       <c r="E587" s="2"/>
       <c r="H587" s="16"/>
       <c r="I587" s="16"/>
     </row>
-    <row r="588" spans="5:9" ht="12.75" customHeight="1">
+    <row r="588" ht="12.75" customHeight="1">
       <c r="E588" s="2"/>
       <c r="H588" s="16"/>
       <c r="I588" s="16"/>
     </row>
-    <row r="589" spans="5:9" ht="12.75" customHeight="1">
+    <row r="589" ht="12.75" customHeight="1">
       <c r="E589" s="2"/>
       <c r="H589" s="16"/>
       <c r="I589" s="16"/>
     </row>
-    <row r="590" spans="5:9" ht="12.75" customHeight="1">
+    <row r="590" ht="12.75" customHeight="1">
       <c r="E590" s="2"/>
       <c r="H590" s="16"/>
       <c r="I590" s="16"/>
     </row>
-    <row r="591" spans="5:9" ht="12.75" customHeight="1">
+    <row r="591" ht="12.75" customHeight="1">
       <c r="E591" s="2"/>
       <c r="H591" s="16"/>
       <c r="I591" s="16"/>
     </row>
-    <row r="592" spans="5:9" ht="12.75" customHeight="1">
+    <row r="592" ht="12.75" customHeight="1">
       <c r="E592" s="2"/>
       <c r="H592" s="16"/>
       <c r="I592" s="16"/>
     </row>
-    <row r="593" spans="5:9" ht="12.75" customHeight="1">
+    <row r="593" ht="12.75" customHeight="1">
       <c r="E593" s="2"/>
       <c r="H593" s="16"/>
       <c r="I593" s="16"/>
     </row>
-    <row r="594" spans="5:9" ht="12.75" customHeight="1">
+    <row r="594" ht="12.75" customHeight="1">
       <c r="E594" s="2"/>
       <c r="H594" s="16"/>
       <c r="I594" s="16"/>
     </row>
-    <row r="595" spans="5:9" ht="12.75" customHeight="1">
+    <row r="595" ht="12.75" customHeight="1">
       <c r="E595" s="2"/>
       <c r="H595" s="16"/>
       <c r="I595" s="16"/>
     </row>
-    <row r="596" spans="5:9" ht="12.75" customHeight="1">
+    <row r="596" ht="12.75" customHeight="1">
       <c r="E596" s="2"/>
       <c r="H596" s="16"/>
       <c r="I596" s="16"/>
     </row>
-    <row r="597" spans="5:9" ht="12.75" customHeight="1">
+    <row r="597" ht="12.75" customHeight="1">
       <c r="E597" s="2"/>
       <c r="H597" s="16"/>
       <c r="I597" s="16"/>
     </row>
-    <row r="598" spans="5:9" ht="12.75" customHeight="1">
+    <row r="598" ht="12.75" customHeight="1">
       <c r="E598" s="2"/>
       <c r="H598" s="16"/>
       <c r="I598" s="16"/>
     </row>
-    <row r="599" spans="5:9" ht="12.75" customHeight="1">
+    <row r="599" ht="12.75" customHeight="1">
       <c r="E599" s="2"/>
       <c r="H599" s="16"/>
       <c r="I599" s="16"/>
     </row>
-    <row r="600" spans="5:9" ht="12.75" customHeight="1">
+    <row r="600" ht="12.75" customHeight="1">
       <c r="E600" s="2"/>
       <c r="H600" s="16"/>
       <c r="I600" s="16"/>
     </row>
-    <row r="601" spans="5:9" ht="12.75" customHeight="1">
+    <row r="601" ht="12.75" customHeight="1">
       <c r="E601" s="2"/>
       <c r="H601" s="16"/>
       <c r="I601" s="16"/>
     </row>
-    <row r="602" spans="5:9" ht="12.75" customHeight="1">
+    <row r="602" ht="12.75" customHeight="1">
       <c r="E602" s="2"/>
       <c r="H602" s="16"/>
       <c r="I602" s="16"/>
     </row>
-    <row r="603" spans="5:9" ht="12.75" customHeight="1">
+    <row r="603" ht="12.75" customHeight="1">
       <c r="E603" s="2"/>
       <c r="H603" s="16"/>
       <c r="I603" s="16"/>
     </row>
-    <row r="604" spans="5:9" ht="12.75" customHeight="1">
+    <row r="604" ht="12.75" customHeight="1">
       <c r="E604" s="2"/>
       <c r="H604" s="16"/>
       <c r="I604" s="16"/>
     </row>
-    <row r="605" spans="5:9" ht="12.75" customHeight="1">
+    <row r="605" ht="12.75" customHeight="1">
       <c r="E605" s="2"/>
       <c r="H605" s="16"/>
       <c r="I605" s="16"/>
     </row>
-    <row r="606" spans="5:9" ht="12.75" customHeight="1">
+    <row r="606" ht="12.75" customHeight="1">
       <c r="E606" s="2"/>
       <c r="H606" s="16"/>
       <c r="I606" s="16"/>
     </row>
-    <row r="607" spans="5:9" ht="12.75" customHeight="1">
+    <row r="607" ht="12.75" customHeight="1">
       <c r="E607" s="2"/>
       <c r="H607" s="16"/>
       <c r="I607" s="16"/>
     </row>
-    <row r="608" spans="5:9" ht="12.75" customHeight="1">
+    <row r="608" ht="12.75" customHeight="1">
       <c r="E608" s="2"/>
       <c r="H608" s="16"/>
       <c r="I608" s="16"/>
     </row>
-    <row r="609" spans="5:9" ht="12.75" customHeight="1">
+    <row r="609" ht="12.75" customHeight="1">
       <c r="E609" s="2"/>
       <c r="H609" s="16"/>
       <c r="I609" s="16"/>
     </row>
-    <row r="610" spans="5:9" ht="12.75" customHeight="1">
+    <row r="610" ht="12.75" customHeight="1">
       <c r="E610" s="2"/>
       <c r="H610" s="16"/>
       <c r="I610" s="16"/>
     </row>
-    <row r="611" spans="5:9" ht="12.75" customHeight="1">
+    <row r="611" ht="12.75" customHeight="1">
       <c r="E611" s="2"/>
       <c r="H611" s="16"/>
       <c r="I611" s="16"/>
     </row>
-    <row r="612" spans="5:9" ht="12.75" customHeight="1">
+    <row r="612" ht="12.75" customHeight="1">
       <c r="E612" s="2"/>
       <c r="H612" s="16"/>
       <c r="I612" s="16"/>
     </row>
-    <row r="613" spans="5:9" ht="12.75" customHeight="1">
+    <row r="613" ht="12.75" customHeight="1">
       <c r="E613" s="2"/>
       <c r="H613" s="16"/>
       <c r="I613" s="16"/>
     </row>
-    <row r="614" spans="5:9" ht="12.75" customHeight="1">
+    <row r="614" ht="12.75" customHeight="1">
       <c r="E614" s="2"/>
       <c r="H614" s="16"/>
       <c r="I614" s="16"/>
     </row>
-    <row r="615" spans="5:9" ht="12.75" customHeight="1">
+    <row r="615" ht="12.75" customHeight="1">
       <c r="E615" s="2"/>
       <c r="H615" s="16"/>
       <c r="I615" s="16"/>
     </row>
-    <row r="616" spans="5:9" ht="12.75" customHeight="1">
+    <row r="616" ht="12.75" customHeight="1">
       <c r="E616" s="2"/>
       <c r="H616" s="16"/>
       <c r="I616" s="16"/>
     </row>
-    <row r="617" spans="5:9" ht="12.75" customHeight="1">
+    <row r="617" ht="12.75" customHeight="1">
       <c r="E617" s="2"/>
       <c r="H617" s="16"/>
       <c r="I617" s="16"/>
     </row>
-    <row r="618" spans="5:9" ht="12.75" customHeight="1">
+    <row r="618" ht="12.75" customHeight="1">
       <c r="E618" s="2"/>
       <c r="H618" s="16"/>
       <c r="I618" s="16"/>
     </row>
-    <row r="619" spans="5:9" ht="12.75" customHeight="1">
+    <row r="619" ht="12.75" customHeight="1">
       <c r="E619" s="2"/>
       <c r="H619" s="16"/>
       <c r="I619" s="16"/>
     </row>
-    <row r="620" spans="5:9" ht="12.75" customHeight="1">
+    <row r="620" ht="12.75" customHeight="1">
       <c r="E620" s="2"/>
       <c r="H620" s="16"/>
       <c r="I620" s="16"/>
     </row>
-    <row r="621" spans="5:9" ht="12.75" customHeight="1">
+    <row r="621" ht="12.75" customHeight="1">
       <c r="E621" s="2"/>
       <c r="H621" s="16"/>
       <c r="I621" s="16"/>
     </row>
-    <row r="622" spans="5:9" ht="12.75" customHeight="1">
+    <row r="622" ht="12.75" customHeight="1">
       <c r="E622" s="2"/>
       <c r="H622" s="16"/>
       <c r="I622" s="16"/>
     </row>
-    <row r="623" spans="5:9" ht="12.75" customHeight="1">
+    <row r="623" ht="12.75" customHeight="1">
       <c r="E623" s="2"/>
       <c r="H623" s="16"/>
       <c r="I623" s="16"/>
     </row>
-    <row r="624" spans="5:9" ht="12.75" customHeight="1">
+    <row r="624" ht="12.75" customHeight="1">
       <c r="E624" s="2"/>
       <c r="H624" s="16"/>
       <c r="I624" s="16"/>
     </row>
-    <row r="625" spans="5:9" ht="12.75" customHeight="1">
+    <row r="625" ht="12.75" customHeight="1">
       <c r="E625" s="2"/>
       <c r="H625" s="16"/>
       <c r="I625" s="16"/>
     </row>
-    <row r="626" spans="5:9" ht="12.75" customHeight="1">
+    <row r="626" ht="12.75" customHeight="1">
       <c r="E626" s="2"/>
       <c r="H626" s="16"/>
       <c r="I626" s="16"/>
     </row>
-    <row r="627" spans="5:9" ht="12.75" customHeight="1">
+    <row r="627" ht="12.75" customHeight="1">
       <c r="E627" s="2"/>
       <c r="H627" s="16"/>
       <c r="I627" s="16"/>
     </row>
-    <row r="628" spans="5:9" ht="12.75" customHeight="1">
+    <row r="628" ht="12.75" customHeight="1">
       <c r="E628" s="2"/>
       <c r="H628" s="16"/>
       <c r="I628" s="16"/>
     </row>
-    <row r="629" spans="5:9" ht="12.75" customHeight="1">
+    <row r="629" ht="12.75" customHeight="1">
       <c r="E629" s="2"/>
       <c r="H629" s="16"/>
       <c r="I629" s="16"/>
     </row>
-    <row r="630" spans="5:9" ht="12.75" customHeight="1">
+    <row r="630" ht="12.75" customHeight="1">
       <c r="E630" s="2"/>
       <c r="H630" s="16"/>
       <c r="I630" s="16"/>
     </row>
-    <row r="631" spans="5:9" ht="12.75" customHeight="1">
+    <row r="631" ht="12.75" customHeight="1">
       <c r="E631" s="2"/>
       <c r="H631" s="16"/>
       <c r="I631" s="16"/>
     </row>
-    <row r="632" spans="5:9" ht="12.75" customHeight="1">
+    <row r="632" ht="12.75" customHeight="1">
       <c r="E632" s="2"/>
       <c r="H632" s="16"/>
       <c r="I632" s="16"/>
     </row>
-    <row r="633" spans="5:9" ht="12.75" customHeight="1">
+    <row r="633" ht="12.75" customHeight="1">
       <c r="E633" s="2"/>
       <c r="H633" s="16"/>
       <c r="I633" s="16"/>
     </row>
-    <row r="634" spans="5:9" ht="12.75" customHeight="1">
+    <row r="634" ht="12.75" customHeight="1">
       <c r="E634" s="2"/>
       <c r="H634" s="16"/>
       <c r="I634" s="16"/>
     </row>
-    <row r="635" spans="5:9" ht="12.75" customHeight="1">
+    <row r="635" ht="12.75" customHeight="1">
       <c r="E635" s="2"/>
       <c r="H635" s="16"/>
       <c r="I635" s="16"/>
     </row>
-    <row r="636" spans="5:9" ht="12.75" customHeight="1">
+    <row r="636" ht="12.75" customHeight="1">
       <c r="E636" s="2"/>
       <c r="H636" s="16"/>
       <c r="I636" s="16"/>
     </row>
-    <row r="637" spans="5:9" ht="12.75" customHeight="1">
+    <row r="637" ht="12.75" customHeight="1">
       <c r="E637" s="2"/>
       <c r="H637" s="16"/>
       <c r="I637" s="16"/>
     </row>
-    <row r="638" spans="5:9" ht="12.75" customHeight="1">
+    <row r="638" ht="12.75" customHeight="1">
       <c r="E638" s="2"/>
       <c r="H638" s="16"/>
       <c r="I638" s="16"/>
     </row>
-    <row r="639" spans="5:9" ht="12.75" customHeight="1">
+    <row r="639" ht="12.75" customHeight="1">
       <c r="E639" s="2"/>
       <c r="H639" s="16"/>
       <c r="I639" s="16"/>
     </row>
-    <row r="640" spans="5:9" ht="12.75" customHeight="1">
+    <row r="640" ht="12.75" customHeight="1">
       <c r="E640" s="2"/>
       <c r="H640" s="16"/>
       <c r="I640" s="16"/>
     </row>
-    <row r="641" spans="5:9" ht="12.75" customHeight="1">
+    <row r="641" ht="12.75" customHeight="1">
       <c r="E641" s="2"/>
       <c r="H641" s="16"/>
       <c r="I641" s="16"/>
     </row>
-    <row r="642" spans="5:9" ht="12.75" customHeight="1">
+    <row r="642" ht="12.75" customHeight="1">
       <c r="E642" s="2"/>
       <c r="H642" s="16"/>
       <c r="I642" s="16"/>
     </row>
-    <row r="643" spans="5:9" ht="12.75" customHeight="1">
+    <row r="643" ht="12.75" customHeight="1">
       <c r="E643" s="2"/>
       <c r="H643" s="16"/>
       <c r="I643" s="16"/>
     </row>
-    <row r="644" spans="5:9" ht="12.75" customHeight="1">
+    <row r="644" ht="12.75" customHeight="1">
       <c r="E644" s="2"/>
       <c r="H644" s="16"/>
       <c r="I644" s="16"/>
     </row>
-    <row r="645" spans="5:9" ht="12.75" customHeight="1">
+    <row r="645" ht="12.75" customHeight="1">
       <c r="E645" s="2"/>
       <c r="H645" s="16"/>
       <c r="I645" s="16"/>
     </row>
-    <row r="646" spans="5:9" ht="12.75" customHeight="1">
+    <row r="646" ht="12.75" customHeight="1">
       <c r="E646" s="2"/>
       <c r="H646" s="16"/>
       <c r="I646" s="16"/>
     </row>
-    <row r="647" spans="5:9" ht="12.75" customHeight="1">
+    <row r="647" ht="12.75" customHeight="1">
       <c r="E647" s="2"/>
       <c r="H647" s="16"/>
       <c r="I647" s="16"/>
     </row>
-    <row r="648" spans="5:9" ht="12.75" customHeight="1">
+    <row r="648" ht="12.75" customHeight="1">
       <c r="E648" s="2"/>
       <c r="H648" s="16"/>
       <c r="I648" s="16"/>
     </row>
-    <row r="649" spans="5:9" ht="12.75" customHeight="1">
+    <row r="649" ht="12.75" customHeight="1">
       <c r="E649" s="2"/>
       <c r="H649" s="16"/>
       <c r="I649" s="16"/>
     </row>
-    <row r="650" spans="5:9" ht="12.75" customHeight="1">
+    <row r="650" ht="12.75" customHeight="1">
       <c r="E650" s="2"/>
       <c r="H650" s="16"/>
       <c r="I650" s="16"/>
     </row>
-    <row r="651" spans="5:9" ht="12.75" customHeight="1">
+    <row r="651" ht="12.75" customHeight="1">
       <c r="E651" s="2"/>
       <c r="H651" s="16"/>
       <c r="I651" s="16"/>
     </row>
-    <row r="652" spans="5:9" ht="12.75" customHeight="1">
+    <row r="652" ht="12.75" customHeight="1">
       <c r="E652" s="2"/>
       <c r="H652" s="16"/>
       <c r="I652" s="16"/>
     </row>
-    <row r="653" spans="5:9" ht="12.75" customHeight="1">
+    <row r="653" ht="12.75" customHeight="1">
       <c r="E653" s="2"/>
       <c r="H653" s="16"/>
       <c r="I653" s="16"/>
     </row>
-    <row r="654" spans="5:9" ht="12.75" customHeight="1">
+    <row r="654" ht="12.75" customHeight="1">
       <c r="E654" s="2"/>
       <c r="H654" s="16"/>
       <c r="I654" s="16"/>
     </row>
-    <row r="655" spans="5:9" ht="12.75" customHeight="1">
+    <row r="655" ht="12.75" customHeight="1">
       <c r="E655" s="2"/>
       <c r="H655" s="16"/>
       <c r="I655" s="16"/>
     </row>
-    <row r="656" spans="5:9" ht="12.75" customHeight="1">
+    <row r="656" ht="12.75" customHeight="1">
       <c r="E656" s="2"/>
       <c r="H656" s="16"/>
       <c r="I656" s="16"/>
     </row>
-    <row r="657" spans="5:9" ht="12.75" customHeight="1">
+    <row r="657" ht="12.75" customHeight="1">
       <c r="E657" s="2"/>
       <c r="H657" s="16"/>
       <c r="I657" s="16"/>
     </row>
-    <row r="658" spans="5:9" ht="12.75" customHeight="1">
+    <row r="658" ht="12.75" customHeight="1">
       <c r="E658" s="2"/>
       <c r="H658" s="16"/>
       <c r="I658" s="16"/>
     </row>
-    <row r="659" spans="5:9" ht="12.75" customHeight="1">
+    <row r="659" ht="12.75" customHeight="1">
       <c r="E659" s="2"/>
       <c r="H659" s="16"/>
       <c r="I659" s="16"/>
     </row>
-    <row r="660" spans="5:9" ht="12.75" customHeight="1">
+    <row r="660" ht="12.75" customHeight="1">
       <c r="E660" s="2"/>
       <c r="H660" s="16"/>
       <c r="I660" s="16"/>
     </row>
-    <row r="661" spans="5:9" ht="12.75" customHeight="1">
+    <row r="661" ht="12.75" customHeight="1">
       <c r="E661" s="2"/>
       <c r="H661" s="16"/>
       <c r="I661" s="16"/>
     </row>
-    <row r="662" spans="5:9" ht="12.75" customHeight="1">
+    <row r="662" ht="12.75" customHeight="1">
       <c r="E662" s="2"/>
       <c r="H662" s="16"/>
       <c r="I662" s="16"/>
     </row>
-    <row r="663" spans="5:9" ht="12.75" customHeight="1">
+    <row r="663" ht="12.75" customHeight="1">
       <c r="E663" s="2"/>
       <c r="H663" s="16"/>
       <c r="I663" s="16"/>
     </row>
-    <row r="664" spans="5:9" ht="12.75" customHeight="1">
+    <row r="664" ht="12.75" customHeight="1">
       <c r="E664" s="2"/>
       <c r="H664" s="16"/>
       <c r="I664" s="16"/>
     </row>
-    <row r="665" spans="5:9" ht="12.75" customHeight="1">
+    <row r="665" ht="12.75" customHeight="1">
       <c r="E665" s="2"/>
       <c r="H665" s="16"/>
       <c r="I665" s="16"/>
     </row>
-    <row r="666" spans="5:9" ht="12.75" customHeight="1">
+    <row r="666" ht="12.75" customHeight="1">
       <c r="E666" s="2"/>
       <c r="H666" s="16"/>
       <c r="I666" s="16"/>
     </row>
-    <row r="667" spans="5:9" ht="12.75" customHeight="1">
+    <row r="667" ht="12.75" customHeight="1">
       <c r="E667" s="2"/>
       <c r="H667" s="16"/>
       <c r="I667" s="16"/>
     </row>
-    <row r="668" spans="5:9" ht="12.75" customHeight="1">
+    <row r="668" ht="12.75" customHeight="1">
       <c r="E668" s="2"/>
       <c r="H668" s="16"/>
       <c r="I668" s="16"/>
     </row>
-    <row r="669" spans="5:9" ht="12.75" customHeight="1">
+    <row r="669" ht="12.75" customHeight="1">
       <c r="E669" s="2"/>
       <c r="H669" s="16"/>
       <c r="I669" s="16"/>
     </row>
-    <row r="670" spans="5:9" ht="12.75" customHeight="1">
+    <row r="670" ht="12.75" customHeight="1">
       <c r="E670" s="2"/>
       <c r="H670" s="16"/>
       <c r="I670" s="16"/>
     </row>
-    <row r="671" spans="5:9" ht="12.75" customHeight="1">
+    <row r="671" ht="12.75" customHeight="1">
       <c r="E671" s="2"/>
       <c r="H671" s="16"/>
       <c r="I671" s="16"/>
     </row>
-    <row r="672" spans="5:9" ht="12.75" customHeight="1">
+    <row r="672" ht="12.75" customHeight="1">
       <c r="E672" s="2"/>
       <c r="H672" s="16"/>
       <c r="I672" s="16"/>
     </row>
-    <row r="673" spans="5:9" ht="12.75" customHeight="1">
+    <row r="673" ht="12.75" customHeight="1">
       <c r="E673" s="2"/>
       <c r="H673" s="16"/>
       <c r="I673" s="16"/>
     </row>
-    <row r="674" spans="5:9" ht="12.75" customHeight="1">
+    <row r="674" ht="12.75" customHeight="1">
       <c r="E674" s="2"/>
       <c r="H674" s="16"/>
       <c r="I674" s="16"/>
     </row>
-    <row r="675" spans="5:9" ht="12.75" customHeight="1">
+    <row r="675" ht="12.75" customHeight="1">
       <c r="E675" s="2"/>
       <c r="H675" s="16"/>
       <c r="I675" s="16"/>
     </row>
-    <row r="676" spans="5:9" ht="12.75" customHeight="1">
+    <row r="676" ht="12.75" customHeight="1">
       <c r="E676" s="2"/>
       <c r="H676" s="16"/>
       <c r="I676" s="16"/>
     </row>
-    <row r="677" spans="5:9" ht="12.75" customHeight="1">
+    <row r="677" ht="12.75" customHeight="1">
       <c r="E677" s="2"/>
       <c r="H677" s="16"/>
       <c r="I677" s="16"/>
     </row>
-    <row r="678" spans="5:9" ht="12.75" customHeight="1">
+    <row r="678" ht="12.75" customHeight="1">
       <c r="E678" s="2"/>
       <c r="H678" s="16"/>
       <c r="I678" s="16"/>
     </row>
-    <row r="679" spans="5:9" ht="12.75" customHeight="1">
+    <row r="679" ht="12.75" customHeight="1">
       <c r="E679" s="2"/>
       <c r="H679" s="16"/>
       <c r="I679" s="16"/>
     </row>
-    <row r="680" spans="5:9" ht="12.75" customHeight="1">
+    <row r="680" ht="12.75" customHeight="1">
       <c r="E680" s="2"/>
       <c r="H680" s="16"/>
       <c r="I680" s="16"/>
     </row>
-    <row r="681" spans="5:9" ht="12.75" customHeight="1">
+    <row r="681" ht="12.75" customHeight="1">
       <c r="E681" s="2"/>
       <c r="H681" s="16"/>
       <c r="I681" s="16"/>
     </row>
-    <row r="682" spans="5:9" ht="12.75" customHeight="1">
+    <row r="682" ht="12.75" customHeight="1">
       <c r="E682" s="2"/>
       <c r="H682" s="16"/>
       <c r="I682" s="16"/>
     </row>
-    <row r="683" spans="5:9" ht="12.75" customHeight="1">
+    <row r="683" ht="12.75" customHeight="1">
       <c r="E683" s="2"/>
       <c r="H683" s="16"/>
       <c r="I683" s="16"/>
     </row>
-    <row r="684" spans="5:9" ht="12.75" customHeight="1">
+    <row r="684" ht="12.75" customHeight="1">
       <c r="E684" s="2"/>
       <c r="H684" s="16"/>
       <c r="I684" s="16"/>
     </row>
-    <row r="685" spans="5:9" ht="12.75" customHeight="1">
+    <row r="685" ht="12.75" customHeight="1">
       <c r="E685" s="2"/>
       <c r="H685" s="16"/>
       <c r="I685" s="16"/>
     </row>
-    <row r="686" spans="5:9" ht="12.75" customHeight="1">
+    <row r="686" ht="12.75" customHeight="1">
       <c r="E686" s="2"/>
       <c r="H686" s="16"/>
       <c r="I686" s="16"/>
     </row>
-    <row r="687" spans="5:9" ht="12.75" customHeight="1">
+    <row r="687" ht="12.75" customHeight="1">
       <c r="E687" s="2"/>
       <c r="H687" s="16"/>
       <c r="I687" s="16"/>
     </row>
-    <row r="688" spans="5:9" ht="12.75" customHeight="1">
+    <row r="688" ht="12.75" customHeight="1">
       <c r="E688" s="2"/>
       <c r="H688" s="16"/>
       <c r="I688" s="16"/>
     </row>
-    <row r="689" spans="5:9" ht="12.75" customHeight="1">
+    <row r="689" ht="12.75" customHeight="1">
       <c r="E689" s="2"/>
       <c r="H689" s="16"/>
       <c r="I689" s="16"/>
     </row>
-    <row r="690" spans="5:9" ht="12.75" customHeight="1">
+    <row r="690" ht="12.75" customHeight="1">
       <c r="E690" s="2"/>
       <c r="H690" s="16"/>
       <c r="I690" s="16"/>
     </row>
-    <row r="691" spans="5:9" ht="12.75" customHeight="1">
+    <row r="691" ht="12.75" customHeight="1">
       <c r="E691" s="2"/>
       <c r="H691" s="16"/>
       <c r="I691" s="16"/>
     </row>
-    <row r="692" spans="5:9" ht="12.75" customHeight="1">
+    <row r="692" ht="12.75" customHeight="1">
       <c r="E692" s="2"/>
       <c r="H692" s="16"/>
       <c r="I692" s="16"/>
     </row>
-    <row r="693" spans="5:9" ht="12.75" customHeight="1">
+    <row r="693" ht="12.75" customHeight="1">
       <c r="E693" s="2"/>
       <c r="H693" s="16"/>
       <c r="I693" s="16"/>
     </row>
-    <row r="694" spans="5:9" ht="12.75" customHeight="1">
+    <row r="694" ht="12.75" customHeight="1">
       <c r="E694" s="2"/>
       <c r="H694" s="16"/>
       <c r="I694" s="16"/>
     </row>
-    <row r="695" spans="5:9" ht="12.75" customHeight="1">
+    <row r="695" ht="12.75" customHeight="1">
       <c r="E695" s="2"/>
       <c r="H695" s="16"/>
       <c r="I695" s="16"/>
     </row>
-    <row r="696" spans="5:9" ht="12.75" customHeight="1">
+    <row r="696" ht="12.75" customHeight="1">
       <c r="E696" s="2"/>
       <c r="H696" s="16"/>
       <c r="I696" s="16"/>
     </row>
-    <row r="697" spans="5:9" ht="12.75" customHeight="1">
+    <row r="697" ht="12.75" customHeight="1">
       <c r="E697" s="2"/>
       <c r="H697" s="16"/>
       <c r="I697" s="16"/>
     </row>
-    <row r="698" spans="5:9" ht="12.75" customHeight="1">
+    <row r="698" ht="12.75" customHeight="1">
       <c r="E698" s="2"/>
       <c r="H698" s="16"/>
       <c r="I698" s="16"/>
     </row>
-    <row r="699" spans="5:9" ht="12.75" customHeight="1">
+    <row r="699" ht="12.75" customHeight="1">
       <c r="E699" s="2"/>
       <c r="H699" s="16"/>
       <c r="I699" s="16"/>
     </row>
-    <row r="700" spans="5:9" ht="12.75" customHeight="1">
+    <row r="700" ht="12.75" customHeight="1">
       <c r="E700" s="2"/>
       <c r="H700" s="16"/>
       <c r="I700" s="16"/>
     </row>
-    <row r="701" spans="5:9" ht="12.75" customHeight="1">
+    <row r="701" ht="12.75" customHeight="1">
       <c r="E701" s="2"/>
       <c r="H701" s="16"/>
       <c r="I701" s="16"/>
     </row>
-    <row r="702" spans="5:9" ht="12.75" customHeight="1">
+    <row r="702" ht="12.75" customHeight="1">
       <c r="E702" s="2"/>
       <c r="H702" s="16"/>
       <c r="I702" s="16"/>
     </row>
-    <row r="703" spans="5:9" ht="12.75" customHeight="1">
+    <row r="703" ht="12.75" customHeight="1">
       <c r="E703" s="2"/>
       <c r="H703" s="16"/>
       <c r="I703" s="16"/>
     </row>
-    <row r="704" spans="5:9" ht="12.75" customHeight="1">
+    <row r="704" ht="12.75" customHeight="1">
       <c r="E704" s="2"/>
       <c r="H704" s="16"/>
       <c r="I704" s="16"/>
     </row>
-    <row r="705" spans="5:9" ht="12.75" customHeight="1">
+    <row r="705" ht="12.75" customHeight="1">
       <c r="E705" s="2"/>
       <c r="H705" s="16"/>
       <c r="I705" s="16"/>
     </row>
-    <row r="706" spans="5:9" ht="12.75" customHeight="1">
+    <row r="706" ht="12.75" customHeight="1">
       <c r="E706" s="2"/>
       <c r="H706" s="16"/>
       <c r="I706" s="16"/>
     </row>
-    <row r="707" spans="5:9" ht="12.75" customHeight="1">
+    <row r="707" ht="12.75" customHeight="1">
       <c r="E707" s="2"/>
       <c r="H707" s="16"/>
       <c r="I707" s="16"/>
     </row>
-    <row r="708" spans="5:9" ht="12.75" customHeight="1">
+    <row r="708" ht="12.75" customHeight="1">
       <c r="E708" s="2"/>
       <c r="H708" s="16"/>
       <c r="I708" s="16"/>
     </row>
-    <row r="709" spans="5:9" ht="12.75" customHeight="1">
+    <row r="709" ht="12.75" customHeight="1">
       <c r="E709" s="2"/>
       <c r="H709" s="16"/>
       <c r="I709" s="16"/>
     </row>
-    <row r="710" spans="5:9" ht="12.75" customHeight="1">
+    <row r="710" ht="12.75" customHeight="1">
       <c r="E710" s="2"/>
       <c r="H710" s="16"/>
       <c r="I710" s="16"/>
     </row>
-    <row r="711" spans="5:9" ht="12.75" customHeight="1">
+    <row r="711" ht="12.75" customHeight="1">
       <c r="E711" s="2"/>
       <c r="H711" s="16"/>
       <c r="I711" s="16"/>
     </row>
-    <row r="712" spans="5:9" ht="12.75" customHeight="1">
+    <row r="712" ht="12.75" customHeight="1">
       <c r="E712" s="2"/>
       <c r="H712" s="16"/>
       <c r="I712" s="16"/>
     </row>
-    <row r="713" spans="5:9" ht="12.75" customHeight="1">
+    <row r="713" ht="12.75" customHeight="1">
       <c r="E713" s="2"/>
       <c r="H713" s="16"/>
       <c r="I713" s="16"/>
     </row>
-    <row r="714" spans="5:9" ht="12.75" customHeight="1">
+    <row r="714" ht="12.75" customHeight="1">
       <c r="E714" s="2"/>
       <c r="H714" s="16"/>
       <c r="I714" s="16"/>
     </row>
-    <row r="715" spans="5:9" ht="12.75" customHeight="1">
+    <row r="715" ht="12.75" customHeight="1">
       <c r="E715" s="2"/>
       <c r="H715" s="16"/>
       <c r="I715" s="16"/>
     </row>
-    <row r="716" spans="5:9" ht="12.75" customHeight="1">
+    <row r="716" ht="12.75" customHeight="1">
       <c r="E716" s="2"/>
       <c r="H716" s="16"/>
       <c r="I716" s="16"/>
     </row>
-    <row r="717" spans="5:9" ht="12.75" customHeight="1">
+    <row r="717" ht="12.75" customHeight="1">
       <c r="E717" s="2"/>
       <c r="H717" s="16"/>
       <c r="I717" s="16"/>
     </row>
-    <row r="718" spans="5:9" ht="12.75" customHeight="1">
+    <row r="718" ht="12.75" customHeight="1">
       <c r="E718" s="2"/>
       <c r="H718" s="16"/>
       <c r="I718" s="16"/>
     </row>
-    <row r="719" spans="5:9" ht="12.75" customHeight="1">
+    <row r="719" ht="12.75" customHeight="1">
       <c r="E719" s="2"/>
       <c r="H719" s="16"/>
       <c r="I719" s="16"/>
     </row>
-    <row r="720" spans="5:9" ht="12.75" customHeight="1">
+    <row r="720" ht="12.75" customHeight="1">
       <c r="E720" s="2"/>
       <c r="H720" s="16"/>
       <c r="I720" s="16"/>
     </row>
-    <row r="721" spans="5:9" ht="12.75" customHeight="1">
+    <row r="721" ht="12.75" customHeight="1">
       <c r="E721" s="2"/>
       <c r="H721" s="16"/>
       <c r="I721" s="16"/>
     </row>
-    <row r="722" spans="5:9" ht="12.75" customHeight="1">
+    <row r="722" ht="12.75" customHeight="1">
       <c r="E722" s="2"/>
       <c r="H722" s="16"/>
       <c r="I722" s="16"/>
     </row>
-    <row r="723" spans="5:9" ht="12.75" customHeight="1">
+    <row r="723" ht="12.75" customHeight="1">
       <c r="E723" s="2"/>
       <c r="H723" s="16"/>
       <c r="I723" s="16"/>
     </row>
-    <row r="724" spans="5:9" ht="12.75" customHeight="1">
+    <row r="724" ht="12.75" customHeight="1">
       <c r="E724" s="2"/>
       <c r="H724" s="16"/>
       <c r="I724" s="16"/>
     </row>
-    <row r="725" spans="5:9" ht="12.75" customHeight="1">
+    <row r="725" ht="12.75" customHeight="1">
       <c r="E725" s="2"/>
       <c r="H725" s="16"/>
       <c r="I725" s="16"/>
     </row>
-    <row r="726" spans="5:9" ht="12.75" customHeight="1">
+    <row r="726" ht="12.75" customHeight="1">
       <c r="E726" s="2"/>
       <c r="H726" s="16"/>
       <c r="I726" s="16"/>
     </row>
-    <row r="727" spans="5:9" ht="12.75" customHeight="1">
+    <row r="727" ht="12.75" customHeight="1">
       <c r="E727" s="2"/>
       <c r="H727" s="16"/>
       <c r="I727" s="16"/>
     </row>
-    <row r="728" spans="5:9" ht="12.75" customHeight="1">
+    <row r="728" ht="12.75" customHeight="1">
       <c r="E728" s="2"/>
       <c r="H728" s="16"/>
       <c r="I728" s="16"/>
     </row>
-    <row r="729" spans="5:9" ht="12.75" customHeight="1">
+    <row r="729" ht="12.75" customHeight="1">
       <c r="E729" s="2"/>
       <c r="H729" s="16"/>
       <c r="I729" s="16"/>
     </row>
-    <row r="730" spans="5:9" ht="12.75" customHeight="1">
+    <row r="730" ht="12.75" customHeight="1">
       <c r="E730" s="2"/>
       <c r="H730" s="16"/>
       <c r="I730" s="16"/>
     </row>
-    <row r="731" spans="5:9" ht="12.75" customHeight="1">
+    <row r="731" ht="12.75" customHeight="1">
       <c r="E731" s="2"/>
       <c r="H731" s="16"/>
       <c r="I731" s="16"/>
     </row>
-    <row r="732" spans="5:9" ht="12.75" customHeight="1">
+    <row r="732" ht="12.75" customHeight="1">
       <c r="E732" s="2"/>
       <c r="H732" s="16"/>
       <c r="I732" s="16"/>
     </row>
-    <row r="733" spans="5:9" ht="12.75" customHeight="1">
+    <row r="733" ht="12.75" customHeight="1">
       <c r="E733" s="2"/>
       <c r="H733" s="16"/>
       <c r="I733" s="16"/>
     </row>
-    <row r="734" spans="5:9" ht="12.75" customHeight="1">
+    <row r="734" ht="12.75" customHeight="1">
       <c r="E734" s="2"/>
       <c r="H734" s="16"/>
       <c r="I734" s="16"/>
     </row>
-    <row r="735" spans="5:9" ht="12.75" customHeight="1">
+    <row r="735" ht="12.75" customHeight="1">
       <c r="E735" s="2"/>
       <c r="H735" s="16"/>
       <c r="I735" s="16"/>
     </row>
-    <row r="736" spans="5:9" ht="12.75" customHeight="1">
+    <row r="736" ht="12.75" customHeight="1">
       <c r="E736" s="2"/>
       <c r="H736" s="16"/>
       <c r="I736" s="16"/>
     </row>
-    <row r="737" spans="5:9" ht="12.75" customHeight="1">
+    <row r="737" ht="12.75" customHeight="1">
       <c r="E737" s="2"/>
       <c r="H737" s="16"/>
       <c r="I737" s="16"/>
     </row>
-    <row r="738" spans="5:9" ht="12.75" customHeight="1">
+    <row r="738" ht="12.75" customHeight="1">
       <c r="E738" s="2"/>
       <c r="H738" s="16"/>
       <c r="I738" s="16"/>
     </row>
-    <row r="739" spans="5:9" ht="12.75" customHeight="1">
+    <row r="739" ht="12.75" customHeight="1">
       <c r="E739" s="2"/>
       <c r="H739" s="16"/>
       <c r="I739" s="16"/>
     </row>
-    <row r="740" spans="5:9" ht="12.75" customHeight="1">
+    <row r="740" ht="12.75" customHeight="1">
       <c r="E740" s="2"/>
       <c r="H740" s="16"/>
       <c r="I740" s="16"/>
     </row>
-    <row r="741" spans="5:9" ht="12.75" customHeight="1">
+    <row r="741" ht="12.75" customHeight="1">
       <c r="E741" s="2"/>
       <c r="H741" s="16"/>
       <c r="I741" s="16"/>
     </row>
-    <row r="742" spans="5:9" ht="12.75" customHeight="1">
+    <row r="742" ht="12.75" customHeight="1">
       <c r="E742" s="2"/>
       <c r="H742" s="16"/>
       <c r="I742" s="16"/>
     </row>
-    <row r="743" spans="5:9" ht="12.75" customHeight="1">
+    <row r="743" ht="12.75" customHeight="1">
       <c r="E743" s="2"/>
       <c r="H743" s="16"/>
       <c r="I743" s="16"/>
     </row>
-    <row r="744" spans="5:9" ht="12.75" customHeight="1">
+    <row r="744" ht="12.75" customHeight="1">
       <c r="E744" s="2"/>
       <c r="H744" s="16"/>
       <c r="I744" s="16"/>
     </row>
-    <row r="745" spans="5:9" ht="12.75" customHeight="1">
+    <row r="745" ht="12.75" customHeight="1">
       <c r="E745" s="2"/>
       <c r="H745" s="16"/>
       <c r="I745" s="16"/>
     </row>
-    <row r="746" spans="5:9" ht="12.75" customHeight="1">
+    <row r="746" ht="12.75" customHeight="1">
       <c r="E746" s="2"/>
       <c r="H746" s="16"/>
       <c r="I746" s="16"/>
     </row>
-    <row r="747" spans="5:9" ht="12.75" customHeight="1">
+    <row r="747" ht="12.75" customHeight="1">
       <c r="E747" s="2"/>
       <c r="H747" s="16"/>
       <c r="I747" s="16"/>
     </row>
-    <row r="748" spans="5:9" ht="12.75" customHeight="1">
+    <row r="748" ht="12.75" customHeight="1">
       <c r="E748" s="2"/>
       <c r="H748" s="16"/>
       <c r="I748" s="16"/>
     </row>
-    <row r="749" spans="5:9" ht="12.75" customHeight="1">
+    <row r="749" ht="12.75" customHeight="1">
       <c r="E749" s="2"/>
       <c r="H749" s="16"/>
       <c r="I749" s="16"/>
     </row>
-    <row r="750" spans="5:9" ht="12.75" customHeight="1">
+    <row r="750" ht="12.75" customHeight="1">
       <c r="E750" s="2"/>
       <c r="H750" s="16"/>
       <c r="I750" s="16"/>
     </row>
-    <row r="751" spans="5:9" ht="12.75" customHeight="1">
+    <row r="751" ht="12.75" customHeight="1">
       <c r="E751" s="2"/>
       <c r="H751" s="16"/>
       <c r="I751" s="16"/>
     </row>
-    <row r="752" spans="5:9" ht="12.75" customHeight="1">
+    <row r="752" ht="12.75" customHeight="1">
       <c r="E752" s="2"/>
       <c r="H752" s="16"/>
       <c r="I752" s="16"/>
     </row>
-    <row r="753" spans="5:9" ht="12.75" customHeight="1">
+    <row r="753" ht="12.75" customHeight="1">
       <c r="E753" s="2"/>
       <c r="H753" s="16"/>
       <c r="I753" s="16"/>
     </row>
-    <row r="754" spans="5:9" ht="12.75" customHeight="1">
+    <row r="754" ht="12.75" customHeight="1">
       <c r="E754" s="2"/>
       <c r="H754" s="16"/>
       <c r="I754" s="16"/>
     </row>
-    <row r="755" spans="5:9" ht="12.75" customHeight="1">
+    <row r="755" ht="12.75" customHeight="1">
       <c r="E755" s="2"/>
       <c r="H755" s="16"/>
       <c r="I755" s="16"/>
     </row>
-    <row r="756" spans="5:9" ht="12.75" customHeight="1">
+    <row r="756" ht="12.75" customHeight="1">
       <c r="E756" s="2"/>
       <c r="H756" s="16"/>
       <c r="I756" s="16"/>
     </row>
-    <row r="757" spans="5:9" ht="12.75" customHeight="1">
+    <row r="757" ht="12.75" customHeight="1">
       <c r="E757" s="2"/>
       <c r="H757" s="16"/>
       <c r="I757" s="16"/>
     </row>
-    <row r="758" spans="5:9" ht="12.75" customHeight="1">
+    <row r="758" ht="12.75" customHeight="1">
       <c r="E758" s="2"/>
       <c r="H758" s="16"/>
       <c r="I758" s="16"/>
     </row>
-    <row r="759" spans="5:9" ht="12.75" customHeight="1">
+    <row r="759" ht="12.75" customHeight="1">
       <c r="E759" s="2"/>
       <c r="H759" s="16"/>
       <c r="I759" s="16"/>
     </row>
-    <row r="760" spans="5:9" ht="12.75" customHeight="1">
+    <row r="760" ht="12.75" customHeight="1">
       <c r="E760" s="2"/>
       <c r="H760" s="16"/>
       <c r="I760" s="16"/>
     </row>
-    <row r="761" spans="5:9" ht="12.75" customHeight="1">
+    <row r="761" ht="12.75" customHeight="1">
       <c r="E761" s="2"/>
       <c r="H761" s="16"/>
       <c r="I761" s="16"/>
     </row>
-    <row r="762" spans="5:9" ht="12.75" customHeight="1">
+    <row r="762" ht="12.75" customHeight="1">
       <c r="E762" s="2"/>
       <c r="H762" s="16"/>
       <c r="I762" s="16"/>
     </row>
-    <row r="763" spans="5:9" ht="12.75" customHeight="1">
+    <row r="763" ht="12.75" customHeight="1">
       <c r="E763" s="2"/>
       <c r="H763" s="16"/>
       <c r="I763" s="16"/>
     </row>
-    <row r="764" spans="5:9" ht="12.75" customHeight="1">
+    <row r="764" ht="12.75" customHeight="1">
       <c r="E764" s="2"/>
       <c r="H764" s="16"/>
       <c r="I764" s="16"/>
     </row>
-    <row r="765" spans="5:9" ht="12.75" customHeight="1">
+    <row r="765" ht="12.75" customHeight="1">
       <c r="E765" s="2"/>
       <c r="H765" s="16"/>
       <c r="I765" s="16"/>
     </row>
-    <row r="766" spans="5:9" ht="12.75" customHeight="1">
+    <row r="766" ht="12.75" customHeight="1">
       <c r="E766" s="2"/>
       <c r="H766" s="16"/>
       <c r="I766" s="16"/>
     </row>
-    <row r="767" spans="5:9" ht="12.75" customHeight="1">
+    <row r="767" ht="12.75" customHeight="1">
       <c r="E767" s="2"/>
       <c r="H767" s="16"/>
       <c r="I767" s="16"/>
     </row>
-    <row r="768" spans="5:9" ht="12.75" customHeight="1">
+    <row r="768" ht="12.75" customHeight="1">
       <c r="E768" s="2"/>
       <c r="H768" s="16"/>
       <c r="I768" s="16"/>
     </row>
-    <row r="769" spans="5:9" ht="12.75" customHeight="1">
+    <row r="769" ht="12.75" customHeight="1">
       <c r="E769" s="2"/>
       <c r="H769" s="16"/>
       <c r="I769" s="16"/>
     </row>
-    <row r="770" spans="5:9" ht="12.75" customHeight="1">
+    <row r="770" ht="12.75" customHeight="1">
       <c r="E770" s="2"/>
       <c r="H770" s="16"/>
       <c r="I770" s="16"/>
     </row>
-    <row r="771" spans="5:9" ht="12.75" customHeight="1">
+    <row r="771" ht="12.75" customHeight="1">
       <c r="E771" s="2"/>
       <c r="H771" s="16"/>
       <c r="I771" s="16"/>
     </row>
-    <row r="772" spans="5:9" ht="12.75" customHeight="1">
+    <row r="772" ht="12.75" customHeight="1">
       <c r="E772" s="2"/>
       <c r="H772" s="16"/>
       <c r="I772" s="16"/>
     </row>
-    <row r="773" spans="5:9" ht="12.75" customHeight="1">
+    <row r="773" ht="12.75" customHeight="1">
       <c r="E773" s="2"/>
       <c r="H773" s="16"/>
       <c r="I773" s="16"/>
     </row>
-    <row r="774" spans="5:9" ht="12.75" customHeight="1">
+    <row r="774" ht="12.75" customHeight="1">
       <c r="E774" s="2"/>
       <c r="H774" s="16"/>
       <c r="I774" s="16"/>
     </row>
-    <row r="775" spans="5:9" ht="12.75" customHeight="1">
+    <row r="775" ht="12.75" customHeight="1">
       <c r="E775" s="2"/>
       <c r="H775" s="16"/>
       <c r="I775" s="16"/>
     </row>
-    <row r="776" spans="5:9" ht="12.75" customHeight="1">
+    <row r="776" ht="12.75" customHeight="1">
       <c r="E776" s="2"/>
       <c r="H776" s="16"/>
       <c r="I776" s="16"/>
     </row>
-    <row r="777" spans="5:9" ht="12.75" customHeight="1">
+    <row r="777" ht="12.75" customHeight="1">
       <c r="E777" s="2"/>
       <c r="H777" s="16"/>
       <c r="I777" s="16"/>
     </row>
-    <row r="778" spans="5:9" ht="12.75" customHeight="1">
+    <row r="778" ht="12.75" customHeight="1">
       <c r="E778" s="2"/>
       <c r="H778" s="16"/>
       <c r="I778" s="16"/>
     </row>
-    <row r="779" spans="5:9" ht="12.75" customHeight="1">
+    <row r="779" ht="12.75" customHeight="1">
       <c r="E779" s="2"/>
       <c r="H779" s="16"/>
       <c r="I779" s="16"/>
     </row>
-    <row r="780" spans="5:9" ht="12.75" customHeight="1">
+    <row r="780" ht="12.75" customHeight="1">
       <c r="E780" s="2"/>
       <c r="H780" s="16"/>
       <c r="I780" s="16"/>
     </row>
-    <row r="781" spans="5:9" ht="12.75" customHeight="1">
+    <row r="781" ht="12.75" customHeight="1">
       <c r="E781" s="2"/>
       <c r="H781" s="16"/>
       <c r="I781" s="16"/>
     </row>
-    <row r="782" spans="5:9" ht="12.75" customHeight="1">
+    <row r="782" ht="12.75" customHeight="1">
       <c r="E782" s="2"/>
       <c r="H782" s="16"/>
       <c r="I782" s="16"/>
     </row>
-    <row r="783" spans="5:9" ht="12.75" customHeight="1">
+    <row r="783" ht="12.75" customHeight="1">
       <c r="E783" s="2"/>
       <c r="H783" s="16"/>
       <c r="I783" s="16"/>
     </row>
-    <row r="784" spans="5:9" ht="12.75" customHeight="1">
+    <row r="784" ht="12.75" customHeight="1">
       <c r="E784" s="2"/>
       <c r="H784" s="16"/>
       <c r="I784" s="16"/>
     </row>
-    <row r="785" spans="5:9" ht="12.75" customHeight="1">
+    <row r="785" ht="12.75" customHeight="1">
       <c r="E785" s="2"/>
       <c r="H785" s="16"/>
       <c r="I785" s="16"/>
     </row>
-    <row r="786" spans="5:9" ht="12.75" customHeight="1">
+    <row r="786" ht="12.75" customHeight="1">
       <c r="E786" s="2"/>
       <c r="H786" s="16"/>
       <c r="I786" s="16"/>
     </row>
-    <row r="787" spans="5:9" ht="12.75" customHeight="1">
+    <row r="787" ht="12.75" customHeight="1">
       <c r="E787" s="2"/>
       <c r="H787" s="16"/>
       <c r="I787" s="16"/>
     </row>
-    <row r="788" spans="5:9" ht="12.75" customHeight="1">
+    <row r="788" ht="12.75" customHeight="1">
       <c r="E788" s="2"/>
       <c r="H788" s="16"/>
       <c r="I788" s="16"/>
     </row>
-    <row r="789" spans="5:9" ht="12.75" customHeight="1">
+    <row r="789" ht="12.75" customHeight="1">
       <c r="E789" s="2"/>
       <c r="H789" s="16"/>
       <c r="I789" s="16"/>
     </row>
-    <row r="790" spans="5:9" ht="12.75" customHeight="1">
+    <row r="790" ht="12.75" customHeight="1">
       <c r="E790" s="2"/>
       <c r="H790" s="16"/>
       <c r="I790" s="16"/>
     </row>
-    <row r="791" spans="5:9" ht="12.75" customHeight="1">
+    <row r="791" ht="12.75" customHeight="1">
       <c r="E791" s="2"/>
       <c r="H791" s="16"/>
       <c r="I791" s="16"/>
     </row>
-    <row r="792" spans="5:9" ht="12.75" customHeight="1">
+    <row r="792" ht="12.75" customHeight="1">
       <c r="E792" s="2"/>
       <c r="H792" s="16"/>
       <c r="I792" s="16"/>
     </row>
-    <row r="793" spans="5:9" ht="12.75" customHeight="1">
+    <row r="793" ht="12.75" customHeight="1">
       <c r="E793" s="2"/>
       <c r="H793" s="16"/>
       <c r="I793" s="16"/>
     </row>
-    <row r="794" spans="5:9" ht="12.75" customHeight="1">
+    <row r="794" ht="12.75" customHeight="1">
       <c r="E794" s="2"/>
       <c r="H794" s="16"/>
       <c r="I794" s="16"/>
     </row>
-    <row r="795" spans="5:9" ht="12.75" customHeight="1">
+    <row r="795" ht="12.75" customHeight="1">
       <c r="E795" s="2"/>
       <c r="H795" s="16"/>
       <c r="I795" s="16"/>
     </row>
-    <row r="796" spans="5:9" ht="12.75" customHeight="1">
+    <row r="796" ht="12.75" customHeight="1">
       <c r="E796" s="2"/>
       <c r="H796" s="16"/>
       <c r="I796" s="16"/>
     </row>
-    <row r="797" spans="5:9" ht="12.75" customHeight="1">
+    <row r="797" ht="12.75" customHeight="1">
       <c r="E797" s="2"/>
       <c r="H797" s="16"/>
       <c r="I797" s="16"/>
     </row>
-    <row r="798" spans="5:9" ht="12.75" customHeight="1">
+    <row r="798" ht="12.75" customHeight="1">
       <c r="E798" s="2"/>
       <c r="H798" s="16"/>
       <c r="I798" s="16"/>
     </row>
-    <row r="799" spans="5:9" ht="12.75" customHeight="1">
+    <row r="799" ht="12.75" customHeight="1">
       <c r="E799" s="2"/>
       <c r="H799" s="16"/>
       <c r="I799" s="16"/>
     </row>
-    <row r="800" spans="5:9" ht="12.75" customHeight="1">
+    <row r="800" ht="12.75" customHeight="1">
       <c r="E800" s="2"/>
       <c r="H800" s="16"/>
       <c r="I800" s="16"/>
     </row>
-    <row r="801" spans="5:9" ht="12.75" customHeight="1">
+    <row r="801" ht="12.75" customHeight="1">
       <c r="E801" s="2"/>
       <c r="H801" s="16"/>
       <c r="I801" s="16"/>
     </row>
-    <row r="802" spans="5:9" ht="12.75" customHeight="1">
+    <row r="802" ht="12.75" customHeight="1">
       <c r="E802" s="2"/>
       <c r="H802" s="16"/>
       <c r="I802" s="16"/>
     </row>
-    <row r="803" spans="5:9" ht="12.75" customHeight="1">
+    <row r="803" ht="12.75" customHeight="1">
       <c r="E803" s="2"/>
       <c r="H803" s="16"/>
       <c r="I803" s="16"/>
     </row>
-    <row r="804" spans="5:9" ht="12.75" customHeight="1">
+    <row r="804" ht="12.75" customHeight="1">
       <c r="E804" s="2"/>
       <c r="H804" s="16"/>
       <c r="I804" s="16"/>
     </row>
-    <row r="805" spans="5:9" ht="12.75" customHeight="1">
+    <row r="805" ht="12.75" customHeight="1">
       <c r="E805" s="2"/>
       <c r="H805" s="16"/>
       <c r="I805" s="16"/>
     </row>
-    <row r="806" spans="5:9" ht="12.75" customHeight="1">
+    <row r="806" ht="12.75" customHeight="1">
       <c r="E806" s="2"/>
       <c r="H806" s="16"/>
       <c r="I806" s="16"/>
     </row>
-    <row r="807" spans="5:9" ht="12.75" customHeight="1">
+    <row r="807" ht="12.75" customHeight="1">
       <c r="E807" s="2"/>
       <c r="H807" s="16"/>
       <c r="I807" s="16"/>
     </row>
-    <row r="808" spans="5:9" ht="12.75" customHeight="1">
+    <row r="808" ht="12.75" customHeight="1">
       <c r="E808" s="2"/>
       <c r="H808" s="16"/>
       <c r="I808" s="16"/>
     </row>
-    <row r="809" spans="5:9" ht="12.75" customHeight="1">
+    <row r="809" ht="12.75" customHeight="1">
       <c r="E809" s="2"/>
       <c r="H809" s="16"/>
       <c r="I809" s="16"/>
     </row>
-    <row r="810" spans="5:9" ht="12.75" customHeight="1">
+    <row r="810" ht="12.75" customHeight="1">
       <c r="E810" s="2"/>
       <c r="H810" s="16"/>
       <c r="I810" s="16"/>
     </row>
-    <row r="811" spans="5:9" ht="12.75" customHeight="1">
+    <row r="811" ht="12.75" customHeight="1">
       <c r="E811" s="2"/>
       <c r="H811" s="16"/>
       <c r="I811" s="16"/>
     </row>
-    <row r="812" spans="5:9" ht="12.75" customHeight="1">
+    <row r="812" ht="12.75" customHeight="1">
       <c r="E812" s="2"/>
       <c r="H812" s="16"/>
       <c r="I812" s="16"/>
     </row>
-    <row r="813" spans="5:9" ht="12.75" customHeight="1">
+    <row r="813" ht="12.75" customHeight="1">
       <c r="E813" s="2"/>
       <c r="H813" s="16"/>
       <c r="I813" s="16"/>
     </row>
-    <row r="814" spans="5:9" ht="12.75" customHeight="1">
+    <row r="814" ht="12.75" customHeight="1">
       <c r="E814" s="2"/>
       <c r="H814" s="16"/>
       <c r="I814" s="16"/>
     </row>
-    <row r="815" spans="5:9" ht="12.75" customHeight="1">
+    <row r="815" ht="12.75" customHeight="1">
       <c r="E815" s="2"/>
       <c r="H815" s="16"/>
       <c r="I815" s="16"/>
     </row>
-    <row r="816" spans="5:9" ht="12.75" customHeight="1">
+    <row r="816" ht="12.75" customHeight="1">
       <c r="E816" s="2"/>
       <c r="H816" s="16"/>
       <c r="I816" s="16"/>
     </row>
-    <row r="817" spans="5:9" ht="12.75" customHeight="1">
+    <row r="817" ht="12.75" customHeight="1">
       <c r="E817" s="2"/>
       <c r="H817" s="16"/>
       <c r="I817" s="16"/>
     </row>
-    <row r="818" spans="5:9" ht="12.75" customHeight="1">
+    <row r="818" ht="12.75" customHeight="1">
       <c r="E818" s="2"/>
       <c r="H818" s="16"/>
       <c r="I818" s="16"/>
     </row>
-    <row r="819" spans="5:9" ht="12.75" customHeight="1">
+    <row r="819" ht="12.75" customHeight="1">
       <c r="E819" s="2"/>
       <c r="H819" s="16"/>
       <c r="I819" s="16"/>
     </row>
-    <row r="820" spans="5:9" ht="12.75" customHeight="1">
+    <row r="820" ht="12.75" customHeight="1">
       <c r="E820" s="2"/>
       <c r="H820" s="16"/>
       <c r="I820" s="16"/>
     </row>
-    <row r="821" spans="5:9" ht="12.75" customHeight="1">
+    <row r="821" ht="12.75" customHeight="1">
       <c r="E821" s="2"/>
       <c r="H821" s="16"/>
       <c r="I821" s="16"/>
     </row>
-    <row r="822" spans="5:9" ht="12.75" customHeight="1">
+    <row r="822" ht="12.75" customHeight="1">
       <c r="E822" s="2"/>
       <c r="H822" s="16"/>
       <c r="I822" s="16"/>
     </row>
-    <row r="823" spans="5:9" ht="12.75" customHeight="1">
+    <row r="823" ht="12.75" customHeight="1">
       <c r="E823" s="2"/>
       <c r="H823" s="16"/>
       <c r="I823" s="16"/>
     </row>
-    <row r="824" spans="5:9" ht="12.75" customHeight="1">
+    <row r="824" ht="12.75" customHeight="1">
       <c r="E824" s="2"/>
       <c r="H824" s="16"/>
       <c r="I824" s="16"/>
     </row>
-    <row r="825" spans="5:9" ht="12.75" customHeight="1">
+    <row r="825" ht="12.75" customHeight="1">
       <c r="E825" s="2"/>
       <c r="H825" s="16"/>
       <c r="I825" s="16"/>
     </row>
-    <row r="826" spans="5:9" ht="12.75" customHeight="1">
+    <row r="826" ht="12.75" customHeight="1">
       <c r="E826" s="2"/>
       <c r="H826" s="16"/>
       <c r="I826" s="16"/>
     </row>
-    <row r="827" spans="5:9" ht="12.75" customHeight="1">
+    <row r="827" ht="12.75" customHeight="1">
       <c r="E827" s="2"/>
       <c r="H827" s="16"/>
       <c r="I827" s="16"/>
     </row>
-    <row r="828" spans="5:9" ht="12.75" customHeight="1">
+    <row r="828" ht="12.75" customHeight="1">
       <c r="E828" s="2"/>
       <c r="H828" s="16"/>
       <c r="I828" s="16"/>
     </row>
-    <row r="829" spans="5:9" ht="12.75" customHeight="1">
+    <row r="829" ht="12.75" customHeight="1">
       <c r="E829" s="2"/>
       <c r="H829" s="16"/>
       <c r="I829" s="16"/>
     </row>
-    <row r="830" spans="5:9" ht="12.75" customHeight="1">
+    <row r="830" ht="12.75" customHeight="1">
       <c r="E830" s="2"/>
       <c r="H830" s="16"/>
       <c r="I830" s="16"/>
     </row>
-    <row r="831" spans="5:9" ht="12.75" customHeight="1">
+    <row r="831" ht="12.75" customHeight="1">
       <c r="E831" s="2"/>
       <c r="H831" s="16"/>
       <c r="I831" s="16"/>
     </row>
-    <row r="832" spans="5:9" ht="12.75" customHeight="1">
+    <row r="832" ht="12.75" customHeight="1">
       <c r="E832" s="2"/>
       <c r="H832" s="16"/>
       <c r="I832" s="16"/>
     </row>
-    <row r="833" spans="5:9" ht="12.75" customHeight="1">
+    <row r="833" ht="12.75" customHeight="1">
       <c r="E833" s="2"/>
       <c r="H833" s="16"/>
       <c r="I833" s="16"/>
     </row>
-    <row r="834" spans="5:9" ht="12.75" customHeight="1">
+    <row r="834" ht="12.75" customHeight="1">
       <c r="E834" s="2"/>
       <c r="H834" s="16"/>
       <c r="I834" s="16"/>
     </row>
-    <row r="835" spans="5:9" ht="12.75" customHeight="1">
+    <row r="835" ht="12.75" customHeight="1">
       <c r="E835" s="2"/>
       <c r="H835" s="16"/>
       <c r="I835" s="16"/>
     </row>
-    <row r="836" spans="5:9" ht="12.75" customHeight="1">
+    <row r="836" ht="12.75" customHeight="1">
       <c r="E836" s="2"/>
       <c r="H836" s="16"/>
       <c r="I836" s="16"/>
     </row>
-    <row r="837" spans="5:9" ht="12.75" customHeight="1">
+    <row r="837" ht="12.75" customHeight="1">
       <c r="E837" s="2"/>
       <c r="H837" s="16"/>
       <c r="I837" s="16"/>
     </row>
-    <row r="838" spans="5:9" ht="12.75" customHeight="1">
+    <row r="838" ht="12.75" customHeight="1">
       <c r="E838" s="2"/>
       <c r="H838" s="16"/>
       <c r="I838" s="16"/>
     </row>
-    <row r="839" spans="5:9" ht="12.75" customHeight="1">
+    <row r="839" ht="12.75" customHeight="1">
       <c r="E839" s="2"/>
       <c r="H839" s="16"/>
       <c r="I839" s="16"/>
     </row>
-    <row r="840" spans="5:9" ht="12.75" customHeight="1">
+    <row r="840" ht="12.75" customHeight="1">
       <c r="E840" s="2"/>
       <c r="H840" s="16"/>
       <c r="I840" s="16"/>
     </row>
-    <row r="841" spans="5:9" ht="12.75" customHeight="1">
+    <row r="841" ht="12.75" customHeight="1">
       <c r="E841" s="2"/>
       <c r="H841" s="16"/>
       <c r="I841" s="16"/>
     </row>
-    <row r="842" spans="5:9" ht="12.75" customHeight="1">
+    <row r="842" ht="12.75" customHeight="1">
       <c r="E842" s="2"/>
       <c r="H842" s="16"/>
       <c r="I842" s="16"/>
     </row>
-    <row r="843" spans="5:9" ht="12.75" customHeight="1">
+    <row r="843" ht="12.75" customHeight="1">
       <c r="E843" s="2"/>
       <c r="H843" s="16"/>
       <c r="I843" s="16"/>
     </row>
-    <row r="844" spans="5:9" ht="12.75" customHeight="1">
+    <row r="844" ht="12.75" customHeight="1">
       <c r="E844" s="2"/>
       <c r="H844" s="16"/>
       <c r="I844" s="16"/>
     </row>
-    <row r="845" spans="5:9" ht="12.75" customHeight="1">
+    <row r="845" ht="12.75" customHeight="1">
       <c r="E845" s="2"/>
       <c r="H845" s="16"/>
       <c r="I845" s="16"/>
     </row>
-    <row r="846" spans="5:9" ht="12.75" customHeight="1">
+    <row r="846" ht="12.75" customHeight="1">
       <c r="E846" s="2"/>
       <c r="H846" s="16"/>
       <c r="I846" s="16"/>
     </row>
-    <row r="847" spans="5:9" ht="12.75" customHeight="1">
+    <row r="847" ht="12.75" customHeight="1">
       <c r="E847" s="2"/>
       <c r="H847" s="16"/>
       <c r="I847" s="16"/>
     </row>
-    <row r="848" spans="5:9" ht="12.75" customHeight="1">
+    <row r="848" ht="12.75" customHeight="1">
       <c r="E848" s="2"/>
       <c r="H848" s="16"/>
       <c r="I848" s="16"/>
     </row>
-    <row r="849" spans="5:9" ht="12.75" customHeight="1">
+    <row r="849" ht="12.75" customHeight="1">
       <c r="E849" s="2"/>
       <c r="H849" s="16"/>
       <c r="I849" s="16"/>
     </row>
-    <row r="850" spans="5:9" ht="12.75" customHeight="1">
+    <row r="850" ht="12.75" customHeight="1">
       <c r="E850" s="2"/>
       <c r="H850" s="16"/>
       <c r="I850" s="16"/>
     </row>
-    <row r="851" spans="5:9" ht="12.75" customHeight="1">
+    <row r="851" ht="12.75" customHeight="1">
       <c r="E851" s="2"/>
       <c r="H851" s="16"/>
       <c r="I851" s="16"/>
     </row>
-    <row r="852" spans="5:9" ht="12.75" customHeight="1">
+    <row r="852" ht="12.75" customHeight="1">
       <c r="E852" s="2"/>
       <c r="H852" s="16"/>
       <c r="I852" s="16"/>
     </row>
-    <row r="853" spans="5:9" ht="12.75" customHeight="1">
+    <row r="853" ht="12.75" customHeight="1">
       <c r="E853" s="2"/>
       <c r="H853" s="16"/>
       <c r="I853" s="16"/>
     </row>
-    <row r="854" spans="5:9" ht="12.75" customHeight="1">
+    <row r="854" ht="12.75" customHeight="1">
       <c r="E854" s="2"/>
       <c r="H854" s="16"/>
       <c r="I854" s="16"/>
     </row>
-    <row r="855" spans="5:9" ht="12.75" customHeight="1">
+    <row r="855" ht="12.75" customHeight="1">
       <c r="E855" s="2"/>
       <c r="H855" s="16"/>
       <c r="I855" s="16"/>
     </row>
-    <row r="856" spans="5:9" ht="12.75" customHeight="1">
+    <row r="856" ht="12.75" customHeight="1">
       <c r="E856" s="2"/>
       <c r="H856" s="16"/>
       <c r="I856" s="16"/>
     </row>
-    <row r="857" spans="5:9" ht="12.75" customHeight="1">
+    <row r="857" ht="12.75" customHeight="1">
       <c r="E857" s="2"/>
       <c r="H857" s="16"/>
       <c r="I857" s="16"/>
     </row>
-    <row r="858" spans="5:9" ht="12.75" customHeight="1">
+    <row r="858" ht="12.75" customHeight="1">
       <c r="E858" s="2"/>
       <c r="H858" s="16"/>
       <c r="I858" s="16"/>
     </row>
-    <row r="859" spans="5:9" ht="12.75" customHeight="1">
+    <row r="859" ht="12.75" customHeight="1">
       <c r="E859" s="2"/>
       <c r="H859" s="16"/>
       <c r="I859" s="16"/>
     </row>
-    <row r="860" spans="5:9" ht="12.75" customHeight="1">
+    <row r="860" ht="12.75" customHeight="1">
       <c r="E860" s="2"/>
       <c r="H860" s="16"/>
       <c r="I860" s="16"/>
     </row>
-    <row r="861" spans="5:9" ht="12.75" customHeight="1">
+    <row r="861" ht="12.75" customHeight="1">
       <c r="E861" s="2"/>
       <c r="H861" s="16"/>
       <c r="I861" s="16"/>
     </row>
-    <row r="862" spans="5:9" ht="12.75" customHeight="1">
+    <row r="862" ht="12.75" customHeight="1">
       <c r="E862" s="2"/>
       <c r="H862" s="16"/>
       <c r="I862" s="16"/>
     </row>
-    <row r="863" spans="5:9" ht="12.75" customHeight="1">
+    <row r="863" ht="12.75" customHeight="1">
       <c r="E863" s="2"/>
       <c r="H863" s="16"/>
       <c r="I863" s="16"/>
     </row>
-    <row r="864" spans="5:9" ht="12.75" customHeight="1">
+    <row r="864" ht="12.75" customHeight="1">
       <c r="E864" s="2"/>
       <c r="H864" s="16"/>
       <c r="I864" s="16"/>
     </row>
-    <row r="865" spans="5:9" ht="12.75" customHeight="1">
+    <row r="865" ht="12.75" customHeight="1">
       <c r="E865" s="2"/>
       <c r="H865" s="16"/>
       <c r="I865" s="16"/>
     </row>
-    <row r="866" spans="5:9" ht="12.75" customHeight="1">
+    <row r="866" ht="12.75" customHeight="1">
       <c r="E866" s="2"/>
       <c r="H866" s="16"/>
       <c r="I866" s="16"/>
     </row>
-    <row r="867" spans="5:9" ht="12.75" customHeight="1">
+    <row r="867" ht="12.75" customHeight="1">
       <c r="E867" s="2"/>
       <c r="H867" s="16"/>
       <c r="I867" s="16"/>
     </row>
-    <row r="868" spans="5:9" ht="12.75" customHeight="1">
+    <row r="868" ht="12.75" customHeight="1">
       <c r="E868" s="2"/>
       <c r="H868" s="16"/>
       <c r="I868" s="16"/>
     </row>
-    <row r="869" spans="5:9" ht="12.75" customHeight="1">
+    <row r="869" ht="12.75" customHeight="1">
       <c r="E869" s="2"/>
       <c r="H869" s="16"/>
       <c r="I869" s="16"/>
     </row>
-    <row r="870" spans="5:9" ht="12.75" customHeight="1">
+    <row r="870" ht="12.75" customHeight="1">
       <c r="E870" s="2"/>
       <c r="H870" s="16"/>
       <c r="I870" s="16"/>
     </row>
-    <row r="871" spans="5:9" ht="12.75" customHeight="1">
+    <row r="871" ht="12.75" customHeight="1">
       <c r="E871" s="2"/>
       <c r="H871" s="16"/>
       <c r="I871" s="16"/>
     </row>
-    <row r="872" spans="5:9" ht="12.75" customHeight="1">
+    <row r="872" ht="12.75" customHeight="1">
       <c r="E872" s="2"/>
       <c r="H872" s="16"/>
       <c r="I872" s="16"/>
     </row>
-    <row r="873" spans="5:9" ht="12.75" customHeight="1">
+    <row r="873" ht="12.75" customHeight="1">
       <c r="E873" s="2"/>
       <c r="H873" s="16"/>
       <c r="I873" s="16"/>
     </row>
-    <row r="874" spans="5:9" ht="12.75" customHeight="1">
+    <row r="874" ht="12.75" customHeight="1">
       <c r="E874" s="2"/>
       <c r="H874" s="16"/>
       <c r="I874" s="16"/>
     </row>
-    <row r="875" spans="5:9" ht="12.75" customHeight="1">
+    <row r="875" ht="12.75" customHeight="1">
       <c r="E875" s="2"/>
       <c r="H875" s="16"/>
       <c r="I875" s="16"/>
     </row>
-    <row r="876" spans="5:9" ht="12.75" customHeight="1">
+    <row r="876" ht="12.75" customHeight="1">
       <c r="E876" s="2"/>
       <c r="H876" s="16"/>
       <c r="I876" s="16"/>
     </row>
-    <row r="877" spans="5:9" ht="12.75" customHeight="1">
+    <row r="877" ht="12.75" customHeight="1">
       <c r="E877" s="2"/>
       <c r="H877" s="16"/>
       <c r="I877" s="16"/>
     </row>
-    <row r="878" spans="5:9" ht="12.75" customHeight="1">
+    <row r="878" ht="12.75" customHeight="1">
       <c r="E878" s="2"/>
       <c r="H878" s="16"/>
       <c r="I878" s="16"/>
     </row>
-    <row r="879" spans="5:9" ht="12.75" customHeight="1">
+    <row r="879" ht="12.75" customHeight="1">
       <c r="E879" s="2"/>
       <c r="H879" s="16"/>
       <c r="I879" s="16"/>
     </row>
-    <row r="880" spans="5:9" ht="12.75" customHeight="1">
+    <row r="880" ht="12.75" customHeight="1">
       <c r="E880" s="2"/>
       <c r="H880" s="16"/>
       <c r="I880" s="16"/>
     </row>
-    <row r="881" spans="5:9" ht="12.75" customHeight="1">
+    <row r="881" ht="12.75" customHeight="1">
       <c r="E881" s="2"/>
       <c r="H881" s="16"/>
       <c r="I881" s="16"/>
     </row>
-    <row r="882" spans="5:9" ht="12.75" customHeight="1">
+    <row r="882" ht="12.75" customHeight="1">
       <c r="E882" s="2"/>
       <c r="H882" s="16"/>
       <c r="I882" s="16"/>
     </row>
-    <row r="883" spans="5:9" ht="12.75" customHeight="1">
+    <row r="883" ht="12.75" customHeight="1">
       <c r="E883" s="2"/>
       <c r="H883" s="16"/>
       <c r="I883" s="16"/>
     </row>
-    <row r="884" spans="5:9" ht="12.75" customHeight="1">
+    <row r="884" ht="12.75" customHeight="1">
       <c r="E884" s="2"/>
       <c r="H884" s="16"/>
       <c r="I884" s="16"/>
     </row>
-    <row r="885" spans="5:9" ht="12.75" customHeight="1">
+    <row r="885" ht="12.75" customHeight="1">
       <c r="E885" s="2"/>
       <c r="H885" s="16"/>
       <c r="I885" s="16"/>
     </row>
-    <row r="886" spans="5:9" ht="12.75" customHeight="1">
+    <row r="886" ht="12.75" customHeight="1">
       <c r="E886" s="2"/>
       <c r="H886" s="16"/>
       <c r="I886" s="16"/>
     </row>
-    <row r="887" spans="5:9" ht="12.75" customHeight="1">
+    <row r="887" ht="12.75" customHeight="1">
       <c r="E887" s="2"/>
       <c r="H887" s="16"/>
       <c r="I887" s="16"/>
     </row>
-    <row r="888" spans="5:9" ht="12.75" customHeight="1">
+    <row r="888" ht="12.75" customHeight="1">
       <c r="E888" s="2"/>
       <c r="H888" s="16"/>
       <c r="I888" s="16"/>
     </row>
-    <row r="889" spans="5:9" ht="12.75" customHeight="1">
+    <row r="889" ht="12.75" customHeight="1">
       <c r="E889" s="2"/>
       <c r="H889" s="16"/>
       <c r="I889" s="16"/>
     </row>
-    <row r="890" spans="5:9" ht="12.75" customHeight="1">
+    <row r="890" ht="12.75" customHeight="1">
       <c r="E890" s="2"/>
       <c r="H890" s="16"/>
       <c r="I890" s="16"/>
     </row>
-    <row r="891" spans="5:9" ht="12.75" customHeight="1">
+    <row r="891" ht="12.75" customHeight="1">
       <c r="E891" s="2"/>
       <c r="H891" s="16"/>
       <c r="I891" s="16"/>
     </row>
-    <row r="892" spans="5:9" ht="12.75" customHeight="1">
+    <row r="892" ht="12.75" customHeight="1">
       <c r="E892" s="2"/>
       <c r="H892" s="16"/>
       <c r="I892" s="16"/>
     </row>
-    <row r="893" spans="5:9" ht="12.75" customHeight="1">
+    <row r="893" ht="12.75" customHeight="1">
       <c r="E893" s="2"/>
       <c r="H893" s="16"/>
       <c r="I893" s="16"/>
     </row>
-    <row r="894" spans="5:9" ht="12.75" customHeight="1">
+    <row r="894" ht="12.75" customHeight="1">
       <c r="E894" s="2"/>
       <c r="H894" s="16"/>
       <c r="I894" s="16"/>
     </row>
-    <row r="895" spans="5:9" ht="12.75" customHeight="1">
+    <row r="895" ht="12.75" customHeight="1">
       <c r="E895" s="2"/>
       <c r="H895" s="16"/>
       <c r="I895" s="16"/>
     </row>
-    <row r="896" spans="5:9" ht="12.75" customHeight="1">
+    <row r="896" ht="12.75" customHeight="1">
       <c r="E896" s="2"/>
       <c r="H896" s="16"/>
       <c r="I896" s="16"/>
     </row>
-    <row r="897" spans="5:9" ht="12.75" customHeight="1">
+    <row r="897" ht="12.75" customHeight="1">
       <c r="E897" s="2"/>
       <c r="H897" s="16"/>
       <c r="I897" s="16"/>
     </row>
-    <row r="898" spans="5:9" ht="12.75" customHeight="1">
+    <row r="898" ht="12.75" customHeight="1">
       <c r="E898" s="2"/>
       <c r="H898" s="16"/>
       <c r="I898" s="16"/>
     </row>
-    <row r="899" spans="5:9" ht="12.75" customHeight="1">
+    <row r="899" ht="12.75" customHeight="1">
       <c r="E899" s="2"/>
       <c r="H899" s="16"/>
       <c r="I899" s="16"/>
     </row>
-    <row r="900" spans="5:9" ht="12.75" customHeight="1">
+    <row r="900" ht="12.75" customHeight="1">
       <c r="E900" s="2"/>
       <c r="H900" s="16"/>
       <c r="I900" s="16"/>
     </row>
-    <row r="901" spans="5:9" ht="12.75" customHeight="1">
+    <row r="901" ht="12.75" customHeight="1">
       <c r="E901" s="2"/>
       <c r="H901" s="16"/>
       <c r="I901" s="16"/>
     </row>
-    <row r="902" spans="5:9" ht="12.75" customHeight="1">
+    <row r="902" ht="12.75" customHeight="1">
       <c r="E902" s="2"/>
       <c r="H902" s="16"/>
       <c r="I902" s="16"/>
     </row>
-    <row r="903" spans="5:9" ht="12.75" customHeight="1">
+    <row r="903" ht="12.75" customHeight="1">
       <c r="E903" s="2"/>
       <c r="H903" s="16"/>
       <c r="I903" s="16"/>
     </row>
-    <row r="904" spans="5:9" ht="12.75" customHeight="1">
+    <row r="904" ht="12.75" customHeight="1">
       <c r="E904" s="2"/>
       <c r="H904" s="16"/>
       <c r="I904" s="16"/>
     </row>
-    <row r="905" spans="5:9" ht="12.75" customHeight="1">
+    <row r="905" ht="12.75" customHeight="1">
       <c r="E905" s="2"/>
       <c r="H905" s="16"/>
       <c r="I905" s="16"/>
     </row>
-    <row r="906" spans="5:9" ht="12.75" customHeight="1">
+    <row r="906" ht="12.75" customHeight="1">
       <c r="E906" s="2"/>
       <c r="H906" s="16"/>
       <c r="I906" s="16"/>
     </row>
-    <row r="907" spans="5:9" ht="12.75" customHeight="1">
+    <row r="907" ht="12.75" customHeight="1">
       <c r="E907" s="2"/>
       <c r="H907" s="16"/>
       <c r="I907" s="16"/>
     </row>
-    <row r="908" spans="5:9" ht="12.75" customHeight="1">
+    <row r="908" ht="12.75" customHeight="1">
       <c r="E908" s="2"/>
       <c r="H908" s="16"/>
       <c r="I908" s="16"/>
     </row>
-    <row r="909" spans="5:9" ht="12.75" customHeight="1">
+    <row r="909" ht="12.75" customHeight="1">
       <c r="E909" s="2"/>
       <c r="H909" s="16"/>
       <c r="I909" s="16"/>
     </row>
-    <row r="910" spans="5:9" ht="12.75" customHeight="1">
+    <row r="910" ht="12.75" customHeight="1">
       <c r="E910" s="2"/>
       <c r="H910" s="16"/>
       <c r="I910" s="16"/>
     </row>
-    <row r="911" spans="5:9" ht="12.75" customHeight="1">
+    <row r="911" ht="12.75" customHeight="1">
       <c r="E911" s="2"/>
       <c r="H911" s="16"/>
       <c r="I911" s="16"/>
     </row>
-    <row r="912" spans="5:9" ht="12.75" customHeight="1">
+    <row r="912" ht="12.75" customHeight="1">
       <c r="E912" s="2"/>
       <c r="H912" s="16"/>
       <c r="I912" s="16"/>
     </row>
-    <row r="913" spans="5:9" ht="12.75" customHeight="1">
+    <row r="913" ht="12.75" customHeight="1">
       <c r="E913" s="2"/>
       <c r="H913" s="16"/>
       <c r="I913" s="16"/>
     </row>
-    <row r="914" spans="5:9" ht="12.75" customHeight="1">
+    <row r="914" ht="12.75" customHeight="1">
       <c r="E914" s="2"/>
       <c r="H914" s="16"/>
       <c r="I914" s="16"/>
     </row>
-    <row r="915" spans="5:9" ht="12.75" customHeight="1">
+    <row r="915" ht="12.75" customHeight="1">
       <c r="E915" s="2"/>
       <c r="H915" s="16"/>
       <c r="I915" s="16"/>
     </row>
-    <row r="916" spans="5:9" ht="12.75" customHeight="1">
+    <row r="916" ht="12.75" customHeight="1">
       <c r="E916" s="2"/>
       <c r="H916" s="16"/>
       <c r="I916" s="16"/>
     </row>
-    <row r="917" spans="5:9" ht="12.75" customHeight="1">
+    <row r="917" ht="12.75" customHeight="1">
       <c r="E917" s="2"/>
       <c r="H917" s="16"/>
       <c r="I917" s="16"/>
     </row>
-    <row r="918" spans="5:9" ht="12.75" customHeight="1">
+    <row r="918" ht="12.75" customHeight="1">
       <c r="E918" s="2"/>
       <c r="H918" s="16"/>
       <c r="I918" s="16"/>
     </row>
-    <row r="919" spans="5:9" ht="12.75" customHeight="1">
+    <row r="919" ht="12.75" customHeight="1">
       <c r="E919" s="2"/>
       <c r="H919" s="16"/>
       <c r="I919" s="16"/>
     </row>
-    <row r="920" spans="5:9" ht="12.75" customHeight="1">
+    <row r="920" ht="12.75" customHeight="1">
       <c r="E920" s="2"/>
       <c r="H920" s="16"/>
       <c r="I920" s="16"/>
     </row>
-    <row r="921" spans="5:9" ht="12.75" customHeight="1">
+    <row r="921" ht="12.75" customHeight="1">
       <c r="E921" s="2"/>
       <c r="H921" s="16"/>
       <c r="I921" s="16"/>
     </row>
-    <row r="922" spans="5:9" ht="12.75" customHeight="1">
+    <row r="922" ht="12.75" customHeight="1">
       <c r="E922" s="2"/>
       <c r="H922" s="16"/>
       <c r="I922" s="16"/>
     </row>
-    <row r="923" spans="5:9" ht="12.75" customHeight="1">
+    <row r="923" ht="12.75" customHeight="1">
       <c r="E923" s="2"/>
       <c r="H923" s="16"/>
       <c r="I923" s="16"/>
     </row>
-    <row r="924" spans="5:9" ht="12.75" customHeight="1">
+    <row r="924" ht="12.75" customHeight="1">
       <c r="E924" s="2"/>
       <c r="H924" s="16"/>
       <c r="I924" s="16"/>
     </row>
+    <row r="925" ht="12.75" customHeight="1">
+      <c r="E925" s="2"/>
+      <c r="H925" s="16"/>
+      <c r="I925" s="16"/>
+    </row>
+    <row r="926" ht="12.75" customHeight="1">
+      <c r="E926" s="2"/>
+      <c r="H926" s="16"/>
+      <c r="I926" s="16"/>
+    </row>
+    <row r="927" ht="12.75" customHeight="1">
+      <c r="E927" s="2"/>
+      <c r="H927" s="16"/>
+      <c r="I927" s="16"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J59" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="$A$1:$J$62"/>
   <hyperlinks>
-    <hyperlink ref="E16" r:id="rId1" location="gid=1250881742" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink r:id="rId2" location="gid=1250881742" ref="E19"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>